--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,13 +452,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -519,14 +519,14 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>אגומס
+שמעון</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>דוד
 אנדי</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>אגומס
-שמעון</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,14 +586,14 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
+          <t>ארד
+אלכסיי</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
           <t>משה החופל
 אסף</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>ארד
-אלכסיי</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -652,14 +652,14 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
+          <t>מטמוני
+דימנטמן</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
           <t>נפמן
 סדון</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>מטמוני
-דימנטמן</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
+          <t>אגומס
+דותן</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
           <t>יונג
 כהן</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>אגומס
-דותן</t>
         </is>
       </c>
       <c r="F11" s="3" t="n"/>
@@ -770,14 +770,14 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
+          <t>דוד
+אנזו</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
           <t>דובר
 כלפה</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>דוד
-אנזו</t>
         </is>
       </c>
       <c r="F14" s="3" t="n"/>
@@ -827,14 +827,14 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
+          <t>עמיחי
+אסף</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
           <t>משה
 ניסנוב</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>עמיחי
-אסף</t>
         </is>
       </c>
       <c r="F17" s="3" t="n"/>
@@ -878,26 +878,26 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Andy
-Saspo</t>
+          <t>אלכסי
+דורון</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>David
-Sauveur</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>Lotem
-Enzo</t>
+          <t>אנדי
+שגיא</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>Benichou
-Guetta</t>
+          <t>מטמוני
+דימנטמן</t>
         </is>
       </c>
       <c r="G20" s="3" t="n"/>
@@ -930,8 +930,8 @@
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>Sinai
-Yoni</t>
+          <t>יואל
+רוני</t>
         </is>
       </c>
       <c r="H22" s="3" t="n"/>
@@ -945,26 +945,26 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Noe
-Ben</t>
+          <t>לואיס
+לוטם</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>Daboush
-Dael</t>
+          <t>כהן
+יונג</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>Moshe
-Alex</t>
+          <t>עמרי
+אבנר</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>Noa
-Alisa</t>
+          <t>אגומס
+סיני</t>
         </is>
       </c>
       <c r="G23" s="3" t="n"/>
@@ -1011,32 +1011,32 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Alisa
-Dana</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>Attia
-Dan</t>
+          <t>יואל 
+רוני</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>Elliot
-Ilan</t>
+          <t>שראל
+נתנאל</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>Lea
-Celine</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>Jason
-Leon</t>
+          <t>ליאור
+דעאל</t>
         </is>
       </c>
       <c r="H26" s="3" t="n"/>
@@ -1078,26 +1078,26 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Shana
-Helena</t>
+          <t>דובר
+כלפה</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Jeremy
-Yoel</t>
+          <t>רווה
+קריספין</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>Leo
-Yona</t>
+          <t>ארד
+עמיחי</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>Serguei
-Alexei</t>
+          <t>משה
+אסף</t>
         </is>
       </c>
       <c r="G29" s="3" t="n"/>
@@ -1144,20 +1144,20 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Alexei
-Nora</t>
+          <t>דוד
+אנזו</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>Sanson
-Serge</t>
+          <t>שמעון
+אנדי</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>Solal
-Elsa</t>
+          <t xml:space="preserve">מטמוני
+דימנטמן </t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
@@ -1205,20 +1205,20 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Elsa
-Carla</t>
+          <t>יונג
+לואיס</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-ליאור</t>
+          <t>דורון
+אלכסי</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>דורון
-משה החופל</t>
+          <t>לוטם
+כהן</t>
         </is>
       </c>
       <c r="F35" s="3" t="n"/>
@@ -1262,20 +1262,20 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>משה החופל
-אלכסיי</t>
+          <t>שראל
+נתנאל</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-שגיא</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>אגומס
+סיני</t>
         </is>
       </c>
       <c r="F38" s="3" t="n"/>
@@ -1319,20 +1319,20 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>סדון
-מטמוני</t>
+          <t>עמיחי
+דעאל</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-לואיס</t>
+          <t>יואל 
+רוני</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-יונג</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="F41" s="3" t="n"/>
@@ -1376,26 +1376,26 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>יונג
-כהן</t>
+          <t>Andy
+Saspo</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>אגומס
-דותן</t>
+          <t>David
+Sauveur</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>סיני
-רווה</t>
+          <t>Lotem
+Enzo</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>דובר
-כלפה</t>
+          <t>Benichou
+Sinai</t>
         </is>
       </c>
       <c r="G44" s="3" t="n"/>
@@ -1428,8 +1428,8 @@
       <c r="F46" s="3" t="n"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>דוד
-אנזו</t>
+          <t>יואל
+רוני</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -1443,26 +1443,26 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>ארד
-שמעון</t>
+          <t>לואיס
+לוטם</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>משה
-ניסנוב</t>
+          <t>כהן
+יונג</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>עמיחי
-אסף</t>
+          <t>עמרי
+אבנר</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>Andy
-Saspo</t>
+          <t>אגומס
+סיני</t>
         </is>
       </c>
       <c r="G47" s="3" t="n"/>
@@ -1509,32 +1509,32 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Saspo
-Andy</t>
+          <t>Sinai
+Yoni</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>David
-Sauveur</t>
+          <t>Noe
+Ben</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>Lotem
-Enzo</t>
+          <t>Daboush
+Dael</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>Benichou
-Sinai</t>
+          <t>Moshe
+Alex</t>
         </is>
       </c>
       <c r="G50" s="3" t="inlineStr">
         <is>
-          <t>Yoni
-Noe</t>
+          <t>Noa
+Alisa</t>
         </is>
       </c>
       <c r="H50" s="3" t="n"/>
@@ -1576,26 +1576,26 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Ben
-Daboush</t>
+          <t>Dana
+Attia</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>Dael
-Moshe</t>
+          <t>Dan
+Elliot</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>Alex
-Noa</t>
+          <t>Ilan
+Lea</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>Alisa
-Dana</t>
+          <t>Celine
+Jason</t>
         </is>
       </c>
       <c r="G53" s="3" t="n"/>
@@ -1642,20 +1642,20 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Dana
-Attia</t>
+          <t>Jason
+Leon</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>Dan
-Elliot</t>
+          <t>Shana
+Helena</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>Ilan
-Lea</t>
+          <t>Jeremy
+Yoel</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
@@ -1703,20 +1703,20 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Lea
-Celine</t>
+          <t>Yoel
+Leo</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>Jason
-Leon</t>
+          <t>Yona
+Serguei</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>Shana
-Helena</t>
+          <t>Alexei
+Nora</t>
         </is>
       </c>
       <c r="F59" s="3" t="n"/>
@@ -1760,20 +1760,20 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Helena
-Jeremy</t>
+          <t>Nora
+Sanson</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>Yoel
-Leo</t>
+          <t>Serge
+Elsa</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>Yona
-Serguei</t>
+          <t>Carla
+אלכסיי</t>
         </is>
       </c>
       <c r="F62" s="3" t="n"/>
@@ -1817,20 +1817,20 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Serguei
-Alexei</t>
+          <t>אלכסיי
+משה החופל</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>Nora
-Sanson</t>
+          <t>דותן
+ניסנוב</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>Serge
-Elsa</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="F65" s="3" t="n"/>
@@ -1874,26 +1874,26 @@
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Elsa
-Carla</t>
+          <t>סדון
+שגיא</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-ליאור</t>
+          <t>דימנטמן
+אבנר</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>דורון
-משה החופל</t>
+          <t>ליאור
+דובר</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לוטם</t>
+          <t>כלפה
+רווה</t>
         </is>
       </c>
       <c r="G68" s="3" t="n"/>
@@ -1926,8 +1926,8 @@
       <c r="F70" s="3" t="n"/>
       <c r="G70" s="3" t="inlineStr">
         <is>
-          <t>שגיא
-נפמן</t>
+          <t>ארד
+משה</t>
         </is>
       </c>
       <c r="H70" s="3" t="n"/>
@@ -1941,26 +1941,26 @@
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>סדון
+          <t>אסף
+דוד</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
+שמעון</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
 מטמוני</t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>דימנטמן
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>יונג
 לואיס</t>
-        </is>
-      </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>אבנר
-יונג</t>
-        </is>
-      </c>
-      <c r="F71" s="3" t="inlineStr">
-        <is>
-          <t>כהן
-אגומס</t>
         </is>
       </c>
       <c r="G71" s="3" t="n"/>
@@ -2007,32 +2007,32 @@
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
+          <t>לואיס
+דורון</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>לוטם
+כהן</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
           <t>אגומס
-דותן</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
-          <t>סיני
-רווה</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>דובר
-כלפה</t>
+סיני</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>דוד
-אנזו</t>
+          <t>עמיחי
+David</t>
         </is>
       </c>
       <c r="G74" s="3" t="inlineStr">
         <is>
-          <t>ארד
-שמעון</t>
+          <t>Andy
+Saspo</t>
         </is>
       </c>
       <c r="H74" s="3" t="n"/>
@@ -2074,26 +2074,26 @@
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>משה
-ניסנוב</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
-        <is>
-          <t>עמיחי
-אסף</t>
-        </is>
-      </c>
-      <c r="E77" s="3" t="inlineStr">
-        <is>
-          <t>Andy
-Saspo</t>
-        </is>
-      </c>
-      <c r="F77" s="3" t="inlineStr">
-        <is>
           <t>David
 Sauveur</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>Lotem
+Enzo</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>Benichou
+Guetta</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>Sinai
+Yoni</t>
         </is>
       </c>
       <c r="G77" s="3" t="n"/>
@@ -2140,20 +2140,20 @@
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>Sauveur
-Lotem</t>
+          <t>Yoni
+Noe</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>Enzo
-Benichou</t>
+          <t>Ben
+Daboush</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>Guetta
-Sinai</t>
+          <t>Dael
+Moshe</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
@@ -2201,20 +2201,20 @@
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>Sinai
-Yoni</t>
+          <t>Moshe
+Alex</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>Noe
-Ben</t>
+          <t>Noa
+Alisa</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>Daboush
-Dael</t>
+          <t>Dana
+Attia</t>
         </is>
       </c>
       <c r="F83" s="3" t="n"/>
@@ -2258,20 +2258,20 @@
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>Dael
-Moshe</t>
+          <t>Attia
+Dan</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>Alex
-Noa</t>
+          <t>Elliot
+Ilan</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>Alisa
-Dana</t>
+          <t>Lea
+Celine</t>
         </is>
       </c>
       <c r="F86" s="3" t="n"/>
@@ -2315,20 +2315,20 @@
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>Dana
-Attia</t>
+          <t>Celine
+Jason</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>Dan
-Elliot</t>
+          <t>Leon
+Shana</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>Ilan
-Lea</t>
+          <t>Helena
+Jeremy</t>
         </is>
       </c>
       <c r="F89" s="3" t="n"/>
@@ -2363,12 +2363,1010 @@
       <c r="G91" s="3" t="n"/>
       <c r="H91" s="3" t="n"/>
     </row>
+    <row r="92">
+      <c r="A92" s="3" t="n"/>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>Jeremy
+Yoel</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>Leo
+Yona</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>Serguei
+Alexei</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="inlineStr">
+        <is>
+          <t>Nora
+Sanson</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="n"/>
+      <c r="H92" s="3" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n"/>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="3" t="n"/>
+      <c r="E93" s="3" t="n"/>
+      <c r="F93" s="3" t="n"/>
+      <c r="G93" s="3" t="n"/>
+      <c r="H93" s="3" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n"/>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="n"/>
+      <c r="D94" s="3" t="n"/>
+      <c r="E94" s="3" t="n"/>
+      <c r="F94" s="3" t="n"/>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>Serge
+Solal</t>
+        </is>
+      </c>
+      <c r="H94" s="3" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n"/>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>Carla
+אלכסיי</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>משה החופל
+דותן</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>ניסנוב
+נפמן</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>סדון
+שגיא</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="n"/>
+      <c r="H95" s="3" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="n"/>
+      <c r="D96" s="3" t="n"/>
+      <c r="E96" s="3" t="n"/>
+      <c r="F96" s="3" t="n"/>
+      <c r="G96" s="3" t="n"/>
+      <c r="H96" s="3" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+      <c r="E97" s="3" t="n"/>
+      <c r="F97" s="3" t="n"/>
+      <c r="G97" s="3" t="n"/>
+      <c r="H97" s="3" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n"/>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>שגיא
+דימנטמן</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+ליאור</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>דובר
+כלפה</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="inlineStr">
+        <is>
+          <t>רווה
+ארד</t>
+        </is>
+      </c>
+      <c r="G98" s="3" t="inlineStr">
+        <is>
+          <t>משה
+אסף</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n"/>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+      <c r="E99" s="3" t="n"/>
+      <c r="F99" s="3" t="n"/>
+      <c r="G99" s="3" t="n"/>
+      <c r="H99" s="3" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n"/>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="n"/>
+      <c r="D100" s="3" t="n"/>
+      <c r="E100" s="3" t="n"/>
+      <c r="F100" s="3" t="n"/>
+      <c r="G100" s="3" t="n"/>
+      <c r="H100" s="3" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n"/>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>דוד
+אנזו</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>שמעון
+אנדי</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>מטמוני
+יונג</t>
+        </is>
+      </c>
+      <c r="F101" s="3" t="inlineStr">
+        <is>
+          <t>לואיס
+דורון</t>
+        </is>
+      </c>
+      <c r="G101" s="3" t="n"/>
+      <c r="H101" s="3" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n"/>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="n"/>
+      <c r="D102" s="3" t="n"/>
+      <c r="E102" s="3" t="n"/>
+      <c r="F102" s="3" t="n"/>
+      <c r="G102" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H102" s="3" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n"/>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+      <c r="E103" s="3" t="n"/>
+      <c r="F103" s="3" t="n"/>
+      <c r="G103" s="3" t="n"/>
+      <c r="H103" s="3" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n"/>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>דורון
+לוטם</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>כהן
+אגומס</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>סיני
+עמיחי</t>
+        </is>
+      </c>
+      <c r="F104" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G104" s="3" t="n"/>
+      <c r="H104" s="3" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n"/>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+      <c r="E105" s="3" t="n"/>
+      <c r="F105" s="3" t="n"/>
+      <c r="G105" s="3" t="n"/>
+      <c r="H105" s="3" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n"/>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="n"/>
+      <c r="D106" s="3" t="n"/>
+      <c r="E106" s="3" t="n"/>
+      <c r="F106" s="3" t="n"/>
+      <c r="G106" s="3" t="n"/>
+      <c r="H106" s="3" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n"/>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>עמיחי
+David</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>Andy
+Saspo</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Sauveur
+Lotem</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="n"/>
+      <c r="G107" s="3" t="n"/>
+      <c r="H107" s="3" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n"/>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="n"/>
+      <c r="D108" s="3" t="n"/>
+      <c r="E108" s="3" t="n"/>
+      <c r="F108" s="3" t="n"/>
+      <c r="G108" s="3" t="n"/>
+      <c r="H108" s="3" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n"/>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="n"/>
+      <c r="D109" s="3" t="n"/>
+      <c r="E109" s="3" t="n"/>
+      <c r="F109" s="3" t="n"/>
+      <c r="G109" s="3" t="n"/>
+      <c r="H109" s="3" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n"/>
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>Lotem
+Enzo</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>Benichou
+Guetta</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>Sinai
+Yoni</t>
+        </is>
+      </c>
+      <c r="F110" s="3" t="n"/>
+      <c r="G110" s="3" t="n"/>
+      <c r="H110" s="3" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n"/>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="n"/>
+      <c r="D111" s="3" t="n"/>
+      <c r="E111" s="3" t="n"/>
+      <c r="F111" s="3" t="n"/>
+      <c r="G111" s="3" t="n"/>
+      <c r="H111" s="3" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n"/>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="n"/>
+      <c r="D112" s="3" t="n"/>
+      <c r="E112" s="3" t="n"/>
+      <c r="F112" s="3" t="n"/>
+      <c r="G112" s="3" t="n"/>
+      <c r="H112" s="3" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n"/>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>Yoni
+Noe</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>Ben
+Daboush</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>Dael
+Moshe</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="n"/>
+      <c r="G113" s="3" t="n"/>
+      <c r="H113" s="3" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n"/>
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="n"/>
+      <c r="D114" s="3" t="n"/>
+      <c r="E114" s="3" t="n"/>
+      <c r="F114" s="3" t="n"/>
+      <c r="G114" s="3" t="n"/>
+      <c r="H114" s="3" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n"/>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="n"/>
+      <c r="D115" s="3" t="n"/>
+      <c r="E115" s="3" t="n"/>
+      <c r="F115" s="3" t="n"/>
+      <c r="G115" s="3" t="n"/>
+      <c r="H115" s="3" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n"/>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>Moshe
+Alex</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>Noa
+Alisa</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>Dana
+Attia</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="inlineStr">
+        <is>
+          <t>Dan
+Elliot</t>
+        </is>
+      </c>
+      <c r="G116" s="3" t="n"/>
+      <c r="H116" s="3" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n"/>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="n"/>
+      <c r="D117" s="3" t="n"/>
+      <c r="E117" s="3" t="n"/>
+      <c r="F117" s="3" t="n"/>
+      <c r="G117" s="3" t="n"/>
+      <c r="H117" s="3" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n"/>
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="n"/>
+      <c r="D118" s="3" t="n"/>
+      <c r="E118" s="3" t="n"/>
+      <c r="F118" s="3" t="n"/>
+      <c r="G118" s="3" t="inlineStr">
+        <is>
+          <t>Ilan
+Lea</t>
+        </is>
+      </c>
+      <c r="H118" s="3" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n"/>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>Celine
+Jason</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>Leon
+Shana</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>Helena
+Jeremy</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>Yoel
+Leo</t>
+        </is>
+      </c>
+      <c r="G119" s="3" t="n"/>
+      <c r="H119" s="3" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="n"/>
+      <c r="D120" s="3" t="n"/>
+      <c r="E120" s="3" t="n"/>
+      <c r="F120" s="3" t="n"/>
+      <c r="G120" s="3" t="n"/>
+      <c r="H120" s="3" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n"/>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="n"/>
+      <c r="D121" s="3" t="n"/>
+      <c r="E121" s="3" t="n"/>
+      <c r="F121" s="3" t="n"/>
+      <c r="G121" s="3" t="n"/>
+      <c r="H121" s="3" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n"/>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>Leo
+Yona</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>Serguei
+Alexei</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>Nora
+Sanson</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="inlineStr">
+        <is>
+          <t>Serge
+Solal</t>
+        </is>
+      </c>
+      <c r="G122" s="3" t="inlineStr">
+        <is>
+          <t>Elsa
+Carla</t>
+        </is>
+      </c>
+      <c r="H122" s="3" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n"/>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="n"/>
+      <c r="D123" s="3" t="n"/>
+      <c r="E123" s="3" t="n"/>
+      <c r="F123" s="3" t="n"/>
+      <c r="G123" s="3" t="n"/>
+      <c r="H123" s="3" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n"/>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="n"/>
+      <c r="D124" s="3" t="n"/>
+      <c r="E124" s="3" t="n"/>
+      <c r="F124" s="3" t="n"/>
+      <c r="G124" s="3" t="n"/>
+      <c r="H124" s="3" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="n"/>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>אלכסיי
+משה החופל</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>דותן
+ניסנוב</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>נפמן
+סדון</t>
+        </is>
+      </c>
+      <c r="F125" s="3" t="inlineStr">
+        <is>
+          <t>שגיא
+דימנטמן</t>
+        </is>
+      </c>
+      <c r="G125" s="3" t="n"/>
+      <c r="H125" s="3" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="n"/>
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="n"/>
+      <c r="D126" s="3" t="n"/>
+      <c r="E126" s="3" t="n"/>
+      <c r="F126" s="3" t="n"/>
+      <c r="G126" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H126" s="3" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="n"/>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="n"/>
+      <c r="D127" s="3" t="n"/>
+      <c r="E127" s="3" t="n"/>
+      <c r="F127" s="3" t="n"/>
+      <c r="G127" s="3" t="n"/>
+      <c r="H127" s="3" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="n"/>
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>דימנטמן
+אבנר</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t>ליאור
+דובר</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>כלפה
+רווה</t>
+        </is>
+      </c>
+      <c r="F128" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G128" s="3" t="n"/>
+      <c r="H128" s="3" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="n"/>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="n"/>
+      <c r="D129" s="3" t="n"/>
+      <c r="E129" s="3" t="n"/>
+      <c r="F129" s="3" t="n"/>
+      <c r="G129" s="3" t="n"/>
+      <c r="H129" s="3" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="n"/>
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="n"/>
+      <c r="D130" s="3" t="n"/>
+      <c r="E130" s="3" t="n"/>
+      <c r="F130" s="3" t="n"/>
+      <c r="G130" s="3" t="n"/>
+      <c r="H130" s="3" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="n"/>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>רווה
+ארד</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>משה
+אסף</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>דוד
+אנזו</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="n"/>
+      <c r="G131" s="3" t="n"/>
+      <c r="H131" s="3" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="n"/>
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="n"/>
+      <c r="D132" s="3" t="n"/>
+      <c r="E132" s="3" t="n"/>
+      <c r="F132" s="3" t="n"/>
+      <c r="G132" s="3" t="n"/>
+      <c r="H132" s="3" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="n"/>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="n"/>
+      <c r="D133" s="3" t="n"/>
+      <c r="E133" s="3" t="n"/>
+      <c r="F133" s="3" t="n"/>
+      <c r="G133" s="3" t="n"/>
+      <c r="H133" s="3" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="n"/>
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
+שמעון</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
+מטמוני</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>יונג
+לואיס</t>
+        </is>
+      </c>
+      <c r="F134" s="3" t="n"/>
+      <c r="G134" s="3" t="n"/>
+      <c r="H134" s="3" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="n"/>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="n"/>
+      <c r="D135" s="3" t="n"/>
+      <c r="E135" s="3" t="n"/>
+      <c r="F135" s="3" t="n"/>
+      <c r="G135" s="3" t="n"/>
+      <c r="H135" s="3" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="n"/>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="n"/>
+      <c r="D136" s="3" t="n"/>
+      <c r="E136" s="3" t="n"/>
+      <c r="F136" s="3" t="n"/>
+      <c r="G136" s="3" t="n"/>
+      <c r="H136" s="3" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="n"/>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>לואיס
+דורון</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>לוטם
+כהן</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>אגומס
+סיני</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="n"/>
+      <c r="G137" s="3" t="n"/>
+      <c r="H137" s="3" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="n"/>
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="n"/>
+      <c r="D138" s="3" t="n"/>
+      <c r="E138" s="3" t="n"/>
+      <c r="F138" s="3" t="n"/>
+      <c r="G138" s="3" t="n"/>
+      <c r="H138" s="3" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="n"/>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="n"/>
+      <c r="D139" s="3" t="n"/>
+      <c r="E139" s="3" t="n"/>
+      <c r="F139" s="3" t="n"/>
+      <c r="G139" s="3" t="n"/>
+      <c r="H139" s="3" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="123">
+  <mergeCells count="189">
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A47"/>
     <mergeCell ref="A48:A71"/>
-    <mergeCell ref="A72:A91"/>
+    <mergeCell ref="A72:A95"/>
+    <mergeCell ref="A96:A119"/>
+    <mergeCell ref="A120:A139"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -2399,6 +3397,22 @@
     <mergeCell ref="C83:C85"/>
     <mergeCell ref="C86:C88"/>
     <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C137:C139"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
@@ -2429,6 +3443,22 @@
     <mergeCell ref="D83:D85"/>
     <mergeCell ref="D86:D88"/>
     <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="D137:D139"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
@@ -2459,6 +3489,22 @@
     <mergeCell ref="E83:E85"/>
     <mergeCell ref="E86:E88"/>
     <mergeCell ref="E89:E91"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="E137:E139"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F19"/>
@@ -2477,6 +3523,16 @@
     <mergeCell ref="F74:F76"/>
     <mergeCell ref="F77:F79"/>
     <mergeCell ref="F80:F91"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="F104:F115"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="F119:F121"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="F128:F139"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G21"/>
     <mergeCell ref="G22:G25"/>
@@ -2487,7 +3543,13 @@
     <mergeCell ref="G54:G69"/>
     <mergeCell ref="G70:G73"/>
     <mergeCell ref="G74:G77"/>
-    <mergeCell ref="G78:G91"/>
+    <mergeCell ref="G78:G93"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="G102:G117"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="G126:G139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,13 +452,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -513,32 +513,32 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>אסרף
-לישי</t>
+          <t>סיני
+רווה</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>אור
-לומיאנסקי</t>
+          <t>אגומס
+שמעון</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>משה החופל
-ניסנוב</t>
+          <t>דוד
+אנדי</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>דובר
+כלפה</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>שגיא
-דותן</t>
+          <t>ליאור
+אנזו</t>
         </is>
       </c>
       <c r="H2" s="3" t="n"/>
@@ -580,26 +580,26 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-ליאור</t>
+          <t>דורון
+משה</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>דובר
-כלפה</t>
+          <t>ארד
+אלכסיי</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>רווה
-קריספין</t>
+          <t>משה החופל
+אסף</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>ארד
-משה</t>
+          <t>ניסנוב
+עמיחי</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -646,20 +646,20 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>משה
-אסף</t>
+          <t>לוטם
+שגיא</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>דוד
-אנדי</t>
+          <t>מטמוני
+דימנטמן</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-שמעון</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -707,20 +707,20 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>שמעון
-יונג</t>
+          <t>לואיס
+אבנר</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-דוד</t>
+          <t>אגומס
+דותן</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>מטמוני
-דימנטמן</t>
+          <t>יונג
+איתי כהן</t>
         </is>
       </c>
       <c r="F11" s="3" t="n"/>
@@ -764,20 +764,20 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
+          <t>סיני
+רווה</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>יונג
-לואיס</t>
+          <t>דוד
+אנזו</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>דורון
-אלכסיי</t>
+          <t>דובר
+כלפה</t>
         </is>
       </c>
       <c r="F14" s="3" t="n"/>
@@ -821,20 +821,20 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לוטם</t>
+          <t>ארד
+שמעון</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-שראל</t>
+          <t>עמיחי
+אסף</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>שרעבי
-דבוש</t>
+          <t>משה
+ניסנוב</t>
         </is>
       </c>
       <c r="F17" s="3" t="n"/>
@@ -878,26 +878,26 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>דבוש
-פיאצה</t>
+          <t>אלכסיי
+דורון</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>אגומס
-סיני</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>עמיחי
-דעאל</t>
+          <t>אנדי
+שגיא</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>יואל
-רוני</t>
+          <t>מטמוני
+דימנטמן</t>
         </is>
       </c>
       <c r="G20" s="3" t="n"/>
@@ -930,8 +930,8 @@
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="inlineStr">
         <is>
-          <t>דמיטרי
-שבצוב</t>
+          <t>יואל
+רוני</t>
         </is>
       </c>
       <c r="H22" s="3" t="n"/>
@@ -945,26 +945,26 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>אסרף
-לישי</t>
+          <t>לואיס
+לוטם</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>אור
-לומיאנסקי</t>
+          <t>איתי כהן
+יונג</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>משה החופל
-ניסנוב</t>
+          <t>דותן
+אבנר</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>אגומס
+סיני</t>
         </is>
       </c>
       <c r="G23" s="3" t="n"/>
@@ -1011,32 +1011,32 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>סדון
-שגיא</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>דותן
-אבנר</t>
+          <t>יואל 
+רוני</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
+          <t>שראל
+שרעבי</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>דמיטרי
+שבצוב</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
           <t>ליאור
-דובר</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>כלפה
-רווה</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>קריספין
-ארד</t>
+דעאל</t>
         </is>
       </c>
       <c r="H26" s="3" t="n"/>
@@ -1078,26 +1078,26 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
+          <t>דובר
+כלפה</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>רווה
+קריספין</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>ארד
+עמיחי</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
           <t>משה
 אסף</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>דוד
-אנדי</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>אנזו
-שמעון</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>מטמוני
-דימנטמן</t>
         </is>
       </c>
       <c r="G29" s="3" t="n"/>
@@ -1144,20 +1144,20 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
+          <t>דוד
+אנזו</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>יונג
-לואיס</t>
+          <t>שמעון
+אנדי</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>דורון
-אלכסיי</t>
+          <t xml:space="preserve">מטמוני
+דימנטמן </t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
@@ -1205,20 +1205,20 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לוטם</t>
+          <t>יונג
+לואיס</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-שראל</t>
+          <t>דורון
+אלכסיי</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>שרעבי
-דבוש</t>
+          <t>לוטם
+איתי כהן</t>
         </is>
       </c>
       <c r="F35" s="3" t="n"/>
@@ -1262,20 +1262,20 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
+          <t>שראל
+שרעבי</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
           <t>דבוש
 פיאצה</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>אגומס
 סיני</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>עמיחי
-דעאל</t>
         </is>
       </c>
       <c r="F38" s="3" t="n"/>
@@ -1319,20 +1319,20 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>דעאל
-יואל</t>
+          <t>עמיחי
+דעאל</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>רוני
-דמיטרי</t>
+          <t>יואל 
+רוני</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>שבצוב
-אסרף</t>
+          <t>דמיטרי
+שבצוב</t>
         </is>
       </c>
       <c r="F41" s="3" t="n"/>
@@ -1428,8 +1428,8 @@
       <c r="F46" s="3" t="n"/>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>שגיא
-דותן</t>
+          <t>דותן
+שגיא</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -1455,8 +1455,8 @@
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>רווה
-קריספין</t>
+          <t>קריספין
+רווה</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
@@ -1509,31 +1509,31 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>משה
+          <t>אנזו
 אסף</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>דוד
-אנדי</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>אנזו
+          <t>יונג
 שמעון</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>מטמוני
-דימנטמן</t>
+          <t>דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="G50" s="3" t="inlineStr">
         <is>
-          <t>יונג
+          <t>דורון
 לואיס</t>
         </is>
       </c>
@@ -1576,25 +1576,25 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>דורון
-אלכסיי</t>
+          <t>אלכסיי
+לוטם</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-איתי כהן</t>
+          <t>איתי כהן
+שראל</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>שראל
+          <t>דבוש
 שרעבי</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>דבוש
+          <t>אגומס
 פיאצה</t>
         </is>
       </c>
@@ -1642,20 +1642,20 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>פיאצה
-אגומס</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
           <t>סיני
 עמיחי</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>דעאל
 יואל</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>דמיטרי
+רוני</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
@@ -1703,20 +1703,20 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>יואל
-רוני</t>
+          <t>אסרף
+שבצוב</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>דמיטרי
-שבצוב</t>
+          <t>אור
+לישי</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>אסרף
-לישי</t>
+          <t>לומיאנסקי
+משה החופל</t>
         </is>
       </c>
       <c r="F59" s="3" t="n"/>
@@ -1760,20 +1760,20 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>לישי
-אור</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>לומיאנסקי
-משה החופל</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
           <t>ניסנוב
 נפמן</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>סדון
+שגיא</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+דותן</t>
         </is>
       </c>
       <c r="F62" s="3" t="n"/>
@@ -1817,20 +1817,20 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>דובר
+ליאור</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>שגיא
-דותן</t>
+          <t>כלפה
+רווה</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-ליאור</t>
+          <t>ארד
+קריספין</t>
         </is>
       </c>
       <c r="F65" s="3" t="n"/>
@@ -1874,26 +1874,26 @@
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>ליאור
-דובר</t>
+          <t>אסף
+משה</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>כלפה
-רווה</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>קריספין
-ארד</t>
+          <t>אנזו
+שמעון</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>משה
-אסף</t>
+          <t>דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="G68" s="3" t="n"/>
@@ -1926,8 +1926,8 @@
       <c r="F70" s="3" t="n"/>
       <c r="G70" s="3" t="inlineStr">
         <is>
-          <t>דוד
-אנדי</t>
+          <t>יונג
+לואיס</t>
         </is>
       </c>
       <c r="H70" s="3" t="n"/>
@@ -1941,26 +1941,26 @@
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-שמעון</t>
+          <t>אלכסיי
+דורון</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>מטמוני
-דימנטמן</t>
+          <t>איתי כהן
+לוטם</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>יונג
-לואיס</t>
+          <t>שראל
+שרעבי</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>דורון
-אלכסיי</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="G71" s="3" t="n"/>
@@ -2007,32 +2007,32 @@
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לוטם</t>
+          <t>אגומס
+סיני</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-שראל</t>
+          <t>דעאל
+עמיחי</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>שרעבי
-דבוש</t>
+          <t>יואל
+רוני</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>פיאצה
-אגומס</t>
+          <t>דמיטרי
+שבצוב</t>
         </is>
       </c>
       <c r="G74" s="3" t="inlineStr">
         <is>
-          <t>סיני
-עמיחי</t>
+          <t>אסרף
+לישי</t>
         </is>
       </c>
       <c r="H74" s="3" t="n"/>
@@ -2074,26 +2074,26 @@
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>דעאל
-יואל</t>
+          <t>אור
+לומיאנסקי</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>רוני
-דמיטרי</t>
+          <t>משה החופל
+ניסנוב</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>שבצוב
-אסרף</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>לישי
-אור</t>
+          <t>דותן
+שגיא</t>
         </is>
       </c>
       <c r="G77" s="3" t="n"/>
@@ -2140,20 +2140,20 @@
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>אור
-לומיאנסקי</t>
+          <t>אבנר
+ליאור</t>
         </is>
       </c>
       <c r="D80" s="3" t="inlineStr">
         <is>
-          <t>משה החופל
-ניסנוב</t>
+          <t>דובר
+כלפה</t>
         </is>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>קריספין
+רווה</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
@@ -2201,20 +2201,20 @@
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>סדון
-שגיא</t>
+          <t>ארד
+משה</t>
         </is>
       </c>
       <c r="D83" s="3" t="inlineStr">
         <is>
-          <t>דותן
-אבנר</t>
+          <t>אנזו
+אסף</t>
         </is>
       </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>ליאור
-דובר</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="F83" s="3" t="n"/>
@@ -2258,20 +2258,20 @@
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>דובר
-כלפה</t>
+          <t>יונג
+שמעון</t>
         </is>
       </c>
       <c r="D86" s="3" t="inlineStr">
         <is>
-          <t>רווה
-קריספין</t>
+          <t>דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>ארד
-משה</t>
+          <t>דורון
+לואיס</t>
         </is>
       </c>
       <c r="F86" s="3" t="n"/>
@@ -2315,20 +2315,20 @@
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>משה
-אסף</t>
+          <t>אלכסיי
+לוטם</t>
         </is>
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>דוד
-אנדי</t>
+          <t>איתי כהן
+שראל</t>
         </is>
       </c>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-שמעון</t>
+          <t>דבוש
+שרעבי</t>
         </is>
       </c>
       <c r="F89" s="3" t="n"/>
@@ -2363,12 +2363,1010 @@
       <c r="G91" s="3" t="n"/>
       <c r="H91" s="3" t="n"/>
     </row>
+    <row r="92">
+      <c r="A92" s="3" t="n"/>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>אגומס
+פיאצה</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>סיני
+עמיחי</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>דעאל
+יואל</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="inlineStr">
+        <is>
+          <t>דמיטרי
+רוני</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="n"/>
+      <c r="H92" s="3" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n"/>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="3" t="n"/>
+      <c r="E93" s="3" t="n"/>
+      <c r="F93" s="3" t="n"/>
+      <c r="G93" s="3" t="n"/>
+      <c r="H93" s="3" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n"/>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="n"/>
+      <c r="D94" s="3" t="n"/>
+      <c r="E94" s="3" t="n"/>
+      <c r="F94" s="3" t="n"/>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>אסרף
+שבצוב</t>
+        </is>
+      </c>
+      <c r="H94" s="3" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n"/>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>אור
+לישי</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>לומיאנסקי
+משה החופל</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>ניסנוב
+נפמן</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>סדון
+שגיא</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="n"/>
+      <c r="H95" s="3" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="n"/>
+      <c r="D96" s="3" t="n"/>
+      <c r="E96" s="3" t="n"/>
+      <c r="F96" s="3" t="n"/>
+      <c r="G96" s="3" t="n"/>
+      <c r="H96" s="3" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+      <c r="E97" s="3" t="n"/>
+      <c r="F97" s="3" t="n"/>
+      <c r="G97" s="3" t="n"/>
+      <c r="H97" s="3" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n"/>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+דותן</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>דובר
+ליאור</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>כלפה
+רווה</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="inlineStr">
+        <is>
+          <t>ארד
+קריספין</t>
+        </is>
+      </c>
+      <c r="G98" s="3" t="inlineStr">
+        <is>
+          <t>אסף
+משה</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n"/>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+      <c r="E99" s="3" t="n"/>
+      <c r="F99" s="3" t="n"/>
+      <c r="G99" s="3" t="n"/>
+      <c r="H99" s="3" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n"/>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="n"/>
+      <c r="D100" s="3" t="n"/>
+      <c r="E100" s="3" t="n"/>
+      <c r="F100" s="3" t="n"/>
+      <c r="G100" s="3" t="n"/>
+      <c r="H100" s="3" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n"/>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
+דוד</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
+שמעון</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="F101" s="3" t="inlineStr">
+        <is>
+          <t>יונג
+לואיס</t>
+        </is>
+      </c>
+      <c r="G101" s="3" t="n"/>
+      <c r="H101" s="3" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n"/>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="n"/>
+      <c r="D102" s="3" t="n"/>
+      <c r="E102" s="3" t="n"/>
+      <c r="F102" s="3" t="n"/>
+      <c r="G102" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H102" s="3" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n"/>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+      <c r="E103" s="3" t="n"/>
+      <c r="F103" s="3" t="n"/>
+      <c r="G103" s="3" t="n"/>
+      <c r="H103" s="3" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n"/>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>אלכסיי
+דורון</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+לוטם</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>שראל
+שרעבי</t>
+        </is>
+      </c>
+      <c r="F104" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G104" s="3" t="n"/>
+      <c r="H104" s="3" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n"/>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+      <c r="E105" s="3" t="n"/>
+      <c r="F105" s="3" t="n"/>
+      <c r="G105" s="3" t="n"/>
+      <c r="H105" s="3" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n"/>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="n"/>
+      <c r="D106" s="3" t="n"/>
+      <c r="E106" s="3" t="n"/>
+      <c r="F106" s="3" t="n"/>
+      <c r="G106" s="3" t="n"/>
+      <c r="H106" s="3" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n"/>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>דבוש
+פיאצה</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>אגומס
+סיני</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>דעאל
+עמיחי</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="n"/>
+      <c r="G107" s="3" t="n"/>
+      <c r="H107" s="3" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n"/>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="n"/>
+      <c r="D108" s="3" t="n"/>
+      <c r="E108" s="3" t="n"/>
+      <c r="F108" s="3" t="n"/>
+      <c r="G108" s="3" t="n"/>
+      <c r="H108" s="3" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n"/>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="n"/>
+      <c r="D109" s="3" t="n"/>
+      <c r="E109" s="3" t="n"/>
+      <c r="F109" s="3" t="n"/>
+      <c r="G109" s="3" t="n"/>
+      <c r="H109" s="3" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n"/>
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>יואל
+רוני</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>דמיטרי
+שבצוב</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>אסרף
+לישי</t>
+        </is>
+      </c>
+      <c r="F110" s="3" t="n"/>
+      <c r="G110" s="3" t="n"/>
+      <c r="H110" s="3" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n"/>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="n"/>
+      <c r="D111" s="3" t="n"/>
+      <c r="E111" s="3" t="n"/>
+      <c r="F111" s="3" t="n"/>
+      <c r="G111" s="3" t="n"/>
+      <c r="H111" s="3" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n"/>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="n"/>
+      <c r="D112" s="3" t="n"/>
+      <c r="E112" s="3" t="n"/>
+      <c r="F112" s="3" t="n"/>
+      <c r="G112" s="3" t="n"/>
+      <c r="H112" s="3" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n"/>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>אור
+לומיאנסקי</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>משה החופל
+ניסנוב</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>נפמן
+סדון</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="n"/>
+      <c r="G113" s="3" t="n"/>
+      <c r="H113" s="3" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n"/>
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="n"/>
+      <c r="D114" s="3" t="n"/>
+      <c r="E114" s="3" t="n"/>
+      <c r="F114" s="3" t="n"/>
+      <c r="G114" s="3" t="n"/>
+      <c r="H114" s="3" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n"/>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="n"/>
+      <c r="D115" s="3" t="n"/>
+      <c r="E115" s="3" t="n"/>
+      <c r="F115" s="3" t="n"/>
+      <c r="G115" s="3" t="n"/>
+      <c r="H115" s="3" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n"/>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>דותן
+שגיא</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+ליאור</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>דובר
+כלפה</t>
+        </is>
+      </c>
+      <c r="F116" s="3" t="inlineStr">
+        <is>
+          <t>קריספין
+רווה</t>
+        </is>
+      </c>
+      <c r="G116" s="3" t="n"/>
+      <c r="H116" s="3" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n"/>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="n"/>
+      <c r="D117" s="3" t="n"/>
+      <c r="E117" s="3" t="n"/>
+      <c r="F117" s="3" t="n"/>
+      <c r="G117" s="3" t="n"/>
+      <c r="H117" s="3" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n"/>
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="n"/>
+      <c r="D118" s="3" t="n"/>
+      <c r="E118" s="3" t="n"/>
+      <c r="F118" s="3" t="n"/>
+      <c r="G118" s="3" t="inlineStr">
+        <is>
+          <t>ארד
+משה</t>
+        </is>
+      </c>
+      <c r="H118" s="3" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n"/>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
+אסף</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
+דוד</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>יונג
+שמעון</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="inlineStr">
+        <is>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="G119" s="3" t="n"/>
+      <c r="H119" s="3" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="n"/>
+      <c r="D120" s="3" t="n"/>
+      <c r="E120" s="3" t="n"/>
+      <c r="F120" s="3" t="n"/>
+      <c r="G120" s="3" t="n"/>
+      <c r="H120" s="3" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n"/>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="n"/>
+      <c r="D121" s="3" t="n"/>
+      <c r="E121" s="3" t="n"/>
+      <c r="F121" s="3" t="n"/>
+      <c r="G121" s="3" t="n"/>
+      <c r="H121" s="3" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n"/>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>דורון
+לואיס</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>אלכסיי
+לוטם</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+שראל</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="inlineStr">
+        <is>
+          <t>דבוש
+שרעבי</t>
+        </is>
+      </c>
+      <c r="G122" s="3" t="inlineStr">
+        <is>
+          <t>אגומס
+פיאצה</t>
+        </is>
+      </c>
+      <c r="H122" s="3" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n"/>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="n"/>
+      <c r="D123" s="3" t="n"/>
+      <c r="E123" s="3" t="n"/>
+      <c r="F123" s="3" t="n"/>
+      <c r="G123" s="3" t="n"/>
+      <c r="H123" s="3" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n"/>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="n"/>
+      <c r="D124" s="3" t="n"/>
+      <c r="E124" s="3" t="n"/>
+      <c r="F124" s="3" t="n"/>
+      <c r="G124" s="3" t="n"/>
+      <c r="H124" s="3" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="n"/>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>סיני
+עמיחי</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>דעאל
+יואל</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>דמיטרי
+רוני</t>
+        </is>
+      </c>
+      <c r="F125" s="3" t="inlineStr">
+        <is>
+          <t>אסרף
+שבצוב</t>
+        </is>
+      </c>
+      <c r="G125" s="3" t="n"/>
+      <c r="H125" s="3" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="n"/>
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="n"/>
+      <c r="D126" s="3" t="n"/>
+      <c r="E126" s="3" t="n"/>
+      <c r="F126" s="3" t="n"/>
+      <c r="G126" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H126" s="3" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="n"/>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="n"/>
+      <c r="D127" s="3" t="n"/>
+      <c r="E127" s="3" t="n"/>
+      <c r="F127" s="3" t="n"/>
+      <c r="G127" s="3" t="n"/>
+      <c r="H127" s="3" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="n"/>
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>אור
+לישי</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t>לומיאנסקי
+משה החופל</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>ניסנוב
+נפמן</t>
+        </is>
+      </c>
+      <c r="F128" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G128" s="3" t="n"/>
+      <c r="H128" s="3" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="n"/>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="n"/>
+      <c r="D129" s="3" t="n"/>
+      <c r="E129" s="3" t="n"/>
+      <c r="F129" s="3" t="n"/>
+      <c r="G129" s="3" t="n"/>
+      <c r="H129" s="3" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="n"/>
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="n"/>
+      <c r="D130" s="3" t="n"/>
+      <c r="E130" s="3" t="n"/>
+      <c r="F130" s="3" t="n"/>
+      <c r="G130" s="3" t="n"/>
+      <c r="H130" s="3" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="n"/>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>סדון
+שגיא</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+דותן</t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>דובר
+ליאור</t>
+        </is>
+      </c>
+      <c r="F131" s="3" t="n"/>
+      <c r="G131" s="3" t="n"/>
+      <c r="H131" s="3" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="n"/>
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="n"/>
+      <c r="D132" s="3" t="n"/>
+      <c r="E132" s="3" t="n"/>
+      <c r="F132" s="3" t="n"/>
+      <c r="G132" s="3" t="n"/>
+      <c r="H132" s="3" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="n"/>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="n"/>
+      <c r="D133" s="3" t="n"/>
+      <c r="E133" s="3" t="n"/>
+      <c r="F133" s="3" t="n"/>
+      <c r="G133" s="3" t="n"/>
+      <c r="H133" s="3" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="n"/>
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>כלפה
+רווה</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
+        <is>
+          <t>ארד
+קריספין</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>אסף
+משה</t>
+        </is>
+      </c>
+      <c r="F134" s="3" t="n"/>
+      <c r="G134" s="3" t="n"/>
+      <c r="H134" s="3" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="n"/>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="n"/>
+      <c r="D135" s="3" t="n"/>
+      <c r="E135" s="3" t="n"/>
+      <c r="F135" s="3" t="n"/>
+      <c r="G135" s="3" t="n"/>
+      <c r="H135" s="3" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="n"/>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="n"/>
+      <c r="D136" s="3" t="n"/>
+      <c r="E136" s="3" t="n"/>
+      <c r="F136" s="3" t="n"/>
+      <c r="G136" s="3" t="n"/>
+      <c r="H136" s="3" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="n"/>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
+דוד</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
+שמעון</t>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="F137" s="3" t="n"/>
+      <c r="G137" s="3" t="n"/>
+      <c r="H137" s="3" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="n"/>
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="n"/>
+      <c r="D138" s="3" t="n"/>
+      <c r="E138" s="3" t="n"/>
+      <c r="F138" s="3" t="n"/>
+      <c r="G138" s="3" t="n"/>
+      <c r="H138" s="3" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="n"/>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="n"/>
+      <c r="D139" s="3" t="n"/>
+      <c r="E139" s="3" t="n"/>
+      <c r="F139" s="3" t="n"/>
+      <c r="G139" s="3" t="n"/>
+      <c r="H139" s="3" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="123">
+  <mergeCells count="189">
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A47"/>
     <mergeCell ref="A48:A71"/>
-    <mergeCell ref="A72:A91"/>
+    <mergeCell ref="A72:A95"/>
+    <mergeCell ref="A96:A119"/>
+    <mergeCell ref="A120:A139"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -2399,6 +3397,22 @@
     <mergeCell ref="C83:C85"/>
     <mergeCell ref="C86:C88"/>
     <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C137:C139"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
@@ -2429,6 +3443,22 @@
     <mergeCell ref="D83:D85"/>
     <mergeCell ref="D86:D88"/>
     <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="D137:D139"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
@@ -2459,6 +3489,22 @@
     <mergeCell ref="E83:E85"/>
     <mergeCell ref="E86:E88"/>
     <mergeCell ref="E89:E91"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="E137:E139"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F19"/>
@@ -2477,6 +3523,16 @@
     <mergeCell ref="F74:F76"/>
     <mergeCell ref="F77:F79"/>
     <mergeCell ref="F80:F91"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="F104:F115"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="F119:F121"/>
+    <mergeCell ref="F122:F124"/>
+    <mergeCell ref="F125:F127"/>
+    <mergeCell ref="F128:F139"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G21"/>
     <mergeCell ref="G22:G25"/>
@@ -2487,7 +3543,13 @@
     <mergeCell ref="G54:G69"/>
     <mergeCell ref="G70:G73"/>
     <mergeCell ref="G74:G77"/>
-    <mergeCell ref="G78:G91"/>
+    <mergeCell ref="G78:G93"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="G102:G117"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="G126:G139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,13 +452,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -1367,10 +1367,1507 @@
       <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n"/>
     </row>
+    <row r="44">
+      <c r="A44" s="3" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>אסרף
+לישי</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>לומיאנסקי
+ניסנוב</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>אור
+משה החופל</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>נפמן
+סדון</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="n"/>
+      <c r="H44" s="3" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+      <c r="E45" s="3" t="n"/>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="n"/>
+      <c r="H45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" s="3" t="n"/>
+      <c r="E46" s="3" t="n"/>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>דותן
+שגיא</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>דובר
+ליאור</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+רווה</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>כלפה
+קריספין</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>אסף
+משה</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="n"/>
+      <c r="H47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="n"/>
+      <c r="D48" s="3" t="n"/>
+      <c r="E48" s="3" t="n"/>
+      <c r="F48" s="3" t="n"/>
+      <c r="G48" s="3" t="n"/>
+      <c r="H48" s="3" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="n"/>
+      <c r="H49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
+שמעון</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
+דוד</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>ארד
+יונג</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>לואיס
+לוטם</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="3" t="n"/>
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
+      <c r="H51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n"/>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="n"/>
+      <c r="D52" s="3" t="n"/>
+      <c r="E52" s="3" t="n"/>
+      <c r="F52" s="3" t="n"/>
+      <c r="G52" s="3" t="n"/>
+      <c r="H52" s="3" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+אלכסיי</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>שראל
+שרעבי</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>אגומס
+פיאצה</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="inlineStr">
+        <is>
+          <t>דבוש
+דורון</t>
+        </is>
+      </c>
+      <c r="G53" s="3" t="n"/>
+      <c r="H53" s="3" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="n"/>
+      <c r="D54" s="3" t="n"/>
+      <c r="E54" s="3" t="n"/>
+      <c r="F54" s="3" t="n"/>
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="n"/>
+      <c r="G55" s="3" t="n"/>
+      <c r="H55" s="3" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>יואל
+סיני</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>דמיטרי
+עמיחי</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>דעאל
+שבצוב</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G56" s="3" t="n"/>
+      <c r="H56" s="3" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="n"/>
+      <c r="H57" s="3" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="n"/>
+      <c r="D58" s="3" t="n"/>
+      <c r="E58" s="3" t="n"/>
+      <c r="F58" s="3" t="n"/>
+      <c r="G58" s="3" t="n"/>
+      <c r="H58" s="3" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>אור
+אסרף</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>לומיאנסקי
+רוני</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>משה החופל
+נפמן</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="n"/>
+      <c r="H59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n"/>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="n"/>
+      <c r="D60" s="3" t="n"/>
+      <c r="E60" s="3" t="n"/>
+      <c r="F60" s="3" t="n"/>
+      <c r="G60" s="3" t="n"/>
+      <c r="H60" s="3" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n"/>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="3" t="n"/>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="n"/>
+      <c r="H61" s="3" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n"/>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>לישי
+שגיא</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>ניסנוב
+סדון</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>דובר
+ליאור</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n"/>
+      <c r="G62" s="3" t="n"/>
+      <c r="H62" s="3" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n"/>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
+      <c r="H63" s="3" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n"/>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="n"/>
+      <c r="D64" s="3" t="n"/>
+      <c r="E64" s="3" t="n"/>
+      <c r="F64" s="3" t="n"/>
+      <c r="G64" s="3" t="n"/>
+      <c r="H64" s="3" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n"/>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>כלפה
+רווה</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+קריספין</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>דותן
+משה</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n"/>
+      <c r="G65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n"/>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="n"/>
+      <c r="D66" s="3" t="n"/>
+      <c r="E66" s="3" t="n"/>
+      <c r="F66" s="3" t="n"/>
+      <c r="G66" s="3" t="n"/>
+      <c r="H66" s="3" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n"/>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="3" t="n"/>
+      <c r="E67" s="3" t="n"/>
+      <c r="F67" s="3" t="n"/>
+      <c r="G67" s="3" t="n"/>
+      <c r="H67" s="3" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n"/>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
+דוד</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
+ארד</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>אסף
+שמעון</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="inlineStr">
+        <is>
+          <t>יונג
+לואיס</t>
+        </is>
+      </c>
+      <c r="G68" s="3" t="n"/>
+      <c r="H68" s="3" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n"/>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="n"/>
+      <c r="D69" s="3" t="n"/>
+      <c r="E69" s="3" t="n"/>
+      <c r="F69" s="3" t="n"/>
+      <c r="G69" s="3" t="n"/>
+      <c r="H69" s="3" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n"/>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="n"/>
+      <c r="D70" s="3" t="n"/>
+      <c r="E70" s="3" t="n"/>
+      <c r="F70" s="3" t="n"/>
+      <c r="G70" s="3" t="inlineStr">
+        <is>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="H70" s="3" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n"/>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>אלכסיי
+לוטם</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>דורון
+שראל</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>דבוש
+פיאצה</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>אגומס
+איתי כהן</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="n"/>
+      <c r="H71" s="3" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="n"/>
+      <c r="D72" s="3" t="n"/>
+      <c r="E72" s="3" t="n"/>
+      <c r="F72" s="3" t="n"/>
+      <c r="G72" s="3" t="n"/>
+      <c r="H72" s="3" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n"/>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="n"/>
+      <c r="D73" s="3" t="n"/>
+      <c r="E73" s="3" t="n"/>
+      <c r="F73" s="3" t="n"/>
+      <c r="G73" s="3" t="n"/>
+      <c r="H73" s="3" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n"/>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>סיני
+שרעבי</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>דעאל
+יואל</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>דמיטרי
+עמיחי</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="inlineStr">
+        <is>
+          <t>רוני
+שבצוב</t>
+        </is>
+      </c>
+      <c r="G74" s="3" t="inlineStr">
+        <is>
+          <t>אסרף
+לישי</t>
+        </is>
+      </c>
+      <c r="H74" s="3" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n"/>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="n"/>
+      <c r="D75" s="3" t="n"/>
+      <c r="E75" s="3" t="n"/>
+      <c r="F75" s="3" t="n"/>
+      <c r="G75" s="3" t="n"/>
+      <c r="H75" s="3" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n"/>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="n"/>
+      <c r="D76" s="3" t="n"/>
+      <c r="E76" s="3" t="n"/>
+      <c r="F76" s="3" t="n"/>
+      <c r="G76" s="3" t="n"/>
+      <c r="H76" s="3" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n"/>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>אור
+משה החופל</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>לומיאנסקי
+סדון</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>דותן
+שגיא</t>
+        </is>
+      </c>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+נפמן</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="n"/>
+      <c r="H77" s="3" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n"/>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="n"/>
+      <c r="D78" s="3" t="n"/>
+      <c r="E78" s="3" t="n"/>
+      <c r="F78" s="3" t="n"/>
+      <c r="G78" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n"/>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="n"/>
+      <c r="D79" s="3" t="n"/>
+      <c r="E79" s="3" t="n"/>
+      <c r="F79" s="3" t="n"/>
+      <c r="G79" s="3" t="n"/>
+      <c r="H79" s="3" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n"/>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>דובר
+ניסנוב</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>כלפה
+קריספין</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>ליאור
+רווה</t>
+        </is>
+      </c>
+      <c r="F80" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G80" s="3" t="n"/>
+      <c r="H80" s="3" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n"/>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="n"/>
+      <c r="D81" s="3" t="n"/>
+      <c r="E81" s="3" t="n"/>
+      <c r="F81" s="3" t="n"/>
+      <c r="G81" s="3" t="n"/>
+      <c r="H81" s="3" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n"/>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="n"/>
+      <c r="D82" s="3" t="n"/>
+      <c r="E82" s="3" t="n"/>
+      <c r="F82" s="3" t="n"/>
+      <c r="G82" s="3" t="n"/>
+      <c r="H82" s="3" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n"/>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>אסף
+ארד</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
+דוד</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
+משה</t>
+        </is>
+      </c>
+      <c r="F83" s="3" t="n"/>
+      <c r="G83" s="3" t="n"/>
+      <c r="H83" s="3" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n"/>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="n"/>
+      <c r="D84" s="3" t="n"/>
+      <c r="E84" s="3" t="n"/>
+      <c r="F84" s="3" t="n"/>
+      <c r="G84" s="3" t="n"/>
+      <c r="H84" s="3" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n"/>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="n"/>
+      <c r="D85" s="3" t="n"/>
+      <c r="E85" s="3" t="n"/>
+      <c r="F85" s="3" t="n"/>
+      <c r="G85" s="3" t="n"/>
+      <c r="H85" s="3" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n"/>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>יונג
+שמעון</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>אלכסיי
+לואיס</t>
+        </is>
+      </c>
+      <c r="F86" s="3" t="n"/>
+      <c r="G86" s="3" t="n"/>
+      <c r="H86" s="3" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n"/>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="n"/>
+      <c r="D87" s="3" t="n"/>
+      <c r="E87" s="3" t="n"/>
+      <c r="F87" s="3" t="n"/>
+      <c r="G87" s="3" t="n"/>
+      <c r="H87" s="3" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n"/>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="n"/>
+      <c r="D88" s="3" t="n"/>
+      <c r="E88" s="3" t="n"/>
+      <c r="F88" s="3" t="n"/>
+      <c r="G88" s="3" t="n"/>
+      <c r="H88" s="3" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n"/>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+דורון</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>דבוש
+לוטם</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>שראל
+שרעבי</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="n"/>
+      <c r="G89" s="3" t="n"/>
+      <c r="H89" s="3" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n"/>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="n"/>
+      <c r="D90" s="3" t="n"/>
+      <c r="E90" s="3" t="n"/>
+      <c r="F90" s="3" t="n"/>
+      <c r="G90" s="3" t="n"/>
+      <c r="H90" s="3" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n"/>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="n"/>
+      <c r="D91" s="3" t="n"/>
+      <c r="E91" s="3" t="n"/>
+      <c r="F91" s="3" t="n"/>
+      <c r="G91" s="3" t="n"/>
+      <c r="H91" s="3" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n"/>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>אגומס
+סיני</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>דעאל
+עמיחי</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>יואל
+רוני</t>
+        </is>
+      </c>
+      <c r="F92" s="3" t="inlineStr">
+        <is>
+          <t>דמיטרי
+שבצוב</t>
+        </is>
+      </c>
+      <c r="G92" s="3" t="n"/>
+      <c r="H92" s="3" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n"/>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="3" t="n"/>
+      <c r="E93" s="3" t="n"/>
+      <c r="F93" s="3" t="n"/>
+      <c r="G93" s="3" t="n"/>
+      <c r="H93" s="3" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n"/>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="n"/>
+      <c r="D94" s="3" t="n"/>
+      <c r="E94" s="3" t="n"/>
+      <c r="F94" s="3" t="n"/>
+      <c r="G94" s="3" t="inlineStr">
+        <is>
+          <t>אור
+אסרף</t>
+        </is>
+      </c>
+      <c r="H94" s="3" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n"/>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>לישי
+פיאצה</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>ניסנוב
+נפמן</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>משה החופל
+שגיא</t>
+        </is>
+      </c>
+      <c r="F95" s="3" t="inlineStr">
+        <is>
+          <t>דותן
+לומיאנסקי</t>
+        </is>
+      </c>
+      <c r="G95" s="3" t="n"/>
+      <c r="H95" s="3" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="n"/>
+      <c r="D96" s="3" t="n"/>
+      <c r="E96" s="3" t="n"/>
+      <c r="F96" s="3" t="n"/>
+      <c r="G96" s="3" t="n"/>
+      <c r="H96" s="3" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+      <c r="E97" s="3" t="n"/>
+      <c r="F97" s="3" t="n"/>
+      <c r="G97" s="3" t="n"/>
+      <c r="H97" s="3" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n"/>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+דובר</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>כלפה
+סדון</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>ארד
+רווה</t>
+        </is>
+      </c>
+      <c r="F98" s="3" t="inlineStr">
+        <is>
+          <t>ליאור
+קריספין</t>
+        </is>
+      </c>
+      <c r="G98" s="3" t="inlineStr">
+        <is>
+          <t>אסף
+משה</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n"/>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+      <c r="E99" s="3" t="n"/>
+      <c r="F99" s="3" t="n"/>
+      <c r="G99" s="3" t="n"/>
+      <c r="H99" s="3" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n"/>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="n"/>
+      <c r="D100" s="3" t="n"/>
+      <c r="E100" s="3" t="n"/>
+      <c r="F100" s="3" t="n"/>
+      <c r="G100" s="3" t="n"/>
+      <c r="H100" s="3" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n"/>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
+דוד</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
+שמעון</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="F101" s="3" t="inlineStr">
+        <is>
+          <t>אלכסיי
+דורון</t>
+        </is>
+      </c>
+      <c r="G101" s="3" t="n"/>
+      <c r="H101" s="3" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n"/>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="n"/>
+      <c r="D102" s="3" t="n"/>
+      <c r="E102" s="3" t="n"/>
+      <c r="F102" s="3" t="n"/>
+      <c r="G102" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H102" s="3" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n"/>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+      <c r="E103" s="3" t="n"/>
+      <c r="F103" s="3" t="n"/>
+      <c r="G103" s="3" t="n"/>
+      <c r="H103" s="3" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n"/>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>לואיס
+לוטם</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+שרעבי</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>דבוש
+שראל</t>
+        </is>
+      </c>
+      <c r="F104" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G104" s="3" t="n"/>
+      <c r="H104" s="3" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n"/>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+      <c r="E105" s="3" t="n"/>
+      <c r="F105" s="3" t="n"/>
+      <c r="G105" s="3" t="n"/>
+      <c r="H105" s="3" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n"/>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="n"/>
+      <c r="D106" s="3" t="n"/>
+      <c r="E106" s="3" t="n"/>
+      <c r="F106" s="3" t="n"/>
+      <c r="G106" s="3" t="n"/>
+      <c r="H106" s="3" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n"/>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>אגומס
+פיאצה</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>יונג
+עמיחי</t>
+        </is>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>יואל
+סיני</t>
+        </is>
+      </c>
+      <c r="F107" s="3" t="n"/>
+      <c r="G107" s="3" t="n"/>
+      <c r="H107" s="3" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n"/>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="n"/>
+      <c r="D108" s="3" t="n"/>
+      <c r="E108" s="3" t="n"/>
+      <c r="F108" s="3" t="n"/>
+      <c r="G108" s="3" t="n"/>
+      <c r="H108" s="3" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n"/>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="n"/>
+      <c r="D109" s="3" t="n"/>
+      <c r="E109" s="3" t="n"/>
+      <c r="F109" s="3" t="n"/>
+      <c r="G109" s="3" t="n"/>
+      <c r="H109" s="3" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n"/>
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>דעאל
+רוני</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>דמיטרי
+לישי</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>אסרף
+שבצוב</t>
+        </is>
+      </c>
+      <c r="F110" s="3" t="n"/>
+      <c r="G110" s="3" t="n"/>
+      <c r="H110" s="3" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n"/>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="n"/>
+      <c r="D111" s="3" t="n"/>
+      <c r="E111" s="3" t="n"/>
+      <c r="F111" s="3" t="n"/>
+      <c r="G111" s="3" t="n"/>
+      <c r="H111" s="3" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n"/>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="n"/>
+      <c r="D112" s="3" t="n"/>
+      <c r="E112" s="3" t="n"/>
+      <c r="F112" s="3" t="n"/>
+      <c r="G112" s="3" t="n"/>
+      <c r="H112" s="3" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n"/>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>אור
+ניסנוב</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>משה החופל
+נפמן</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>לומיאנסקי
+סדון</t>
+        </is>
+      </c>
+      <c r="F113" s="3" t="n"/>
+      <c r="G113" s="3" t="n"/>
+      <c r="H113" s="3" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n"/>
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="n"/>
+      <c r="D114" s="3" t="n"/>
+      <c r="E114" s="3" t="n"/>
+      <c r="F114" s="3" t="n"/>
+      <c r="G114" s="3" t="n"/>
+      <c r="H114" s="3" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n"/>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="n"/>
+      <c r="D115" s="3" t="n"/>
+      <c r="E115" s="3" t="n"/>
+      <c r="F115" s="3" t="n"/>
+      <c r="G115" s="3" t="n"/>
+      <c r="H115" s="3" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="156">
     <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A43"/>
+    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="A48:A71"/>
+    <mergeCell ref="A72:A95"/>
+    <mergeCell ref="A96:A115"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -1385,6 +2882,30 @@
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C113:C115"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
@@ -1399,6 +2920,30 @@
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="D113:D115"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
@@ -1413,6 +2958,30 @@
     <mergeCell ref="E35:E37"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="E113:E115"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="F8:F19"/>
@@ -1421,11 +2990,35 @@
     <mergeCell ref="F26:F28"/>
     <mergeCell ref="F29:F31"/>
     <mergeCell ref="F32:F43"/>
+    <mergeCell ref="F44:F46"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="F56:F67"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="F74:F76"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="F80:F91"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="F101:F103"/>
+    <mergeCell ref="F104:F115"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G21"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G30:G43"/>
+    <mergeCell ref="G30:G45"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G54:G69"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="G78:G93"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="G102:G115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -6,7 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Watch List" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="שבצ״כ" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,102 +452,111 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>יום</t>
         </is>
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Time</t>
+          <t>שעה</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Entrance</t>
+          <t>ש.ג.</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Rear</t>
+          <t>בטונדות</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Penthouse</t>
+          <t>פנטאוז</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>ימח תחתון</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Patrol</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="n"/>
+          <t>פטרול</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>שבחים 2</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>א</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>סיני
-רווה</t>
+          <t>דעאל
+עמיחי</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>אגומס
-שמעון</t>
+          <t>אבנר
+ניסנוב</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>דוד
-אנדי</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>דובר
-כלפה</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>ליאור
-אנזו</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -556,12 +565,13 @@
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C4" s="3" t="n"/>
@@ -570,111 +580,122 @@
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="3" t="n"/>
       <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>דורון
-משה</t>
+          <t>לומיאנסקי
+ליאור</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>ארד
-אלכסיי</t>
+          <t>רווה
+קריספין</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>משה החופל
-אסף</t>
+          <t>כלפה
+דובר</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>ניסנוב
-עמיחי</t>
+          <t>מטמוני
+דימנטמן</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
       <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="G6" s="3" t="n"/>
       <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>ארד
+משה</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-שגיא</t>
+          <t>אלכסיי
+דותן</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>מטמוני
-דימנטמן</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>יואל
+רוני</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>אנזו
+אסף</t>
         </is>
       </c>
       <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
+      <c r="I8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>ב</t>
+        </is>
+      </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -683,12 +704,13 @@
       <c r="F9" s="3" t="n"/>
       <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="C10" s="3" t="n"/>
@@ -697,41 +719,53 @@
       <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
+      <c r="I10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>לואיס
-אבנר</t>
+          <t>פיאצה
+דבוש</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>אגומס
-דותן</t>
+          <t>רוני
+יואל</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>יונג
-איתי כהן</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+          <t>איתי כהן
+יונג</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>שמעון
+לוטם</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">שראל
+שרעבי </t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
+      <c r="I11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="C12" s="3" t="n"/>
@@ -740,12 +774,13 @@
       <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
+      <c r="I12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
@@ -754,55 +789,67 @@
       <c r="F13" s="3" t="n"/>
       <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
+      <c r="I13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
           <t>סיני
-רווה</t>
+אסרף</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>דוד
-אנזו</t>
+          <t>דעאל
+אגומס</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>דובר
-כלפה</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="n"/>
+          <t>עמיחי
+דורון</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>דימה
+שבצוב</t>
+        </is>
+      </c>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
+      <c r="I14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="3" t="n"/>
       <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
+      <c r="I15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C16" s="3" t="n"/>
@@ -811,41 +858,51 @@
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
+      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>ארד
-שמעון</t>
+          <t>קריספין
+רווה</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>עמיחי
-אסף</t>
+          <t>דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>משה
-ניסנוב</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="n"/>
+          <t>לומיאנסקי
+אבנר</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>ליאור</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C18" s="3" t="n"/>
@@ -854,12 +911,13 @@
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
+      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C19" s="3" t="n"/>
@@ -867,47 +925,48 @@
       <c r="E19" s="3" t="n"/>
       <c r="F19" s="3" t="n"/>
       <c r="G19" s="3" t="n"/>
-      <c r="H19" s="3" t="n"/>
+      <c r="H19" s="3" t="inlineStr">
+        <is>
+          <t>משה</t>
+        </is>
+      </c>
+      <c r="I19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
+          <t>כלפה
+דובר</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
           <t>אלכסיי
-דורון</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>נפמן
-סדון</t>
+ארד</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-שגיא</t>
-        </is>
-      </c>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>מטמוני
-דימנטמן</t>
-        </is>
-      </c>
+          <t>אסף
+לואיס</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
+      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C21" s="3" t="n"/>
@@ -916,69 +975,62 @@
       <c r="F21" s="3" t="n"/>
       <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="3" t="n"/>
       <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>יואל
-רוני</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>דותן</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>לואיס
-לוטם</t>
+          <t>אנזו
+דוד</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
+          <t>שגיא
+סדון</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
 יונג</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>דותן
-אבנר</t>
-        </is>
-      </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>אגומס
-סיני</t>
-        </is>
-      </c>
+      <c r="F23" s="3" t="n"/>
       <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
-        <is>
-          <t>Sunday</t>
-        </is>
-      </c>
+      <c r="A24" s="3" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C24" s="3" t="n"/>
@@ -987,12 +1039,13 @@
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
+      <c r="I24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C25" s="3" t="n"/>
@@ -1000,52 +1053,48 @@
       <c r="E25" s="3" t="n"/>
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
-      <c r="H25" s="3" t="n"/>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>דבוש
-פיאצה</t>
+          <t>פיאצה
+דבוש</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>יואל 
-רוני</t>
+          <t>סיני
+איתי כהן</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>דמיטרי
-שבצוב</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>ליאור
-דעאל</t>
-        </is>
-      </c>
+          <t>שרעבי
+שראל</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
+      <c r="I26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C27" s="3" t="n"/>
@@ -1054,12 +1103,13 @@
       <c r="F27" s="3" t="n"/>
       <c r="G27" s="3" t="n"/>
       <c r="H27" s="3" t="n"/>
+      <c r="I27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C28" s="3" t="n"/>
@@ -1068,111 +1118,122 @@
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
+      <c r="I28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>דובר
-כלפה</t>
+          <t>יואל
+רוני</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>רווה
-קריספין</t>
+          <t>לוטם
+לישי</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>ארד
+          <t>אסרף
+נפמן</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>דעאל
 עמיחי</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>משה
-אסף</t>
         </is>
       </c>
       <c r="G29" s="3" t="n"/>
       <c r="H29" s="3" t="n"/>
+      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="3" t="n"/>
       <c r="F30" s="3" t="n"/>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="3" t="n"/>
       <c r="F31" s="3" t="n"/>
-      <c r="G31" s="3" t="n"/>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>דימה
+רווה</t>
+        </is>
+      </c>
       <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>דוד
-אנזו</t>
+          <t>דורון
+קריספין</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>שמעון
-אנדי</t>
+          <t>דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">מטמוני
-דימנטמן </t>
+          <t>אלכסיי
+לומיאנסקי</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>אבנר
+ליאור</t>
         </is>
       </c>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n"/>
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>ג</t>
+        </is>
+      </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="C33" s="3" t="n"/>
@@ -1181,12 +1242,13 @@
       <c r="F33" s="3" t="n"/>
       <c r="G33" s="3" t="n"/>
       <c r="H33" s="3" t="n"/>
+      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="C34" s="3" t="n"/>
@@ -1195,41 +1257,53 @@
       <c r="F34" s="3" t="n"/>
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
+      <c r="I34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>יונג
+          <t>ארד
+משה</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>דובר
+כלפה</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>אסף
+דותן</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
 לואיס</t>
         </is>
       </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>דורון
-אלכסיי</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>לוטם
-איתי כהן</t>
-        </is>
-      </c>
-      <c r="F35" s="3" t="n"/>
-      <c r="G35" s="3" t="n"/>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>סדון
+שגיא</t>
+        </is>
+      </c>
       <c r="H35" s="3" t="n"/>
+      <c r="I35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="C36" s="3" t="n"/>
@@ -1238,12 +1312,13 @@
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
       <c r="H36" s="3" t="n"/>
+      <c r="I36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="C37" s="3" t="n"/>
@@ -1252,18 +1327,19 @@
       <c r="F37" s="3" t="n"/>
       <c r="G37" s="3" t="n"/>
       <c r="H37" s="3" t="n"/>
+      <c r="I37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1274,33 +1350,44 @@
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>אגומס
+          <t>יונג
+לישי</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>לוטם
 סיני</t>
         </is>
       </c>
-      <c r="F38" s="3" t="n"/>
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
+      <c r="I38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n"/>
       <c r="E39" s="3" t="n"/>
       <c r="F39" s="3" t="n"/>
-      <c r="G39" s="3" t="n"/>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="H39" s="3" t="n"/>
+      <c r="I39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C40" s="3" t="n"/>
@@ -1309,41 +1396,51 @@
       <c r="F40" s="3" t="n"/>
       <c r="G40" s="3" t="n"/>
       <c r="H40" s="3" t="n"/>
+      <c r="I40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>עמיחי
-דעאל</t>
+          <t>שראל
+שרעבי</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>יואל 
-רוני</t>
+          <t>דעאל
+נפמן</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>דמיטרי
-שבצוב</t>
-        </is>
-      </c>
-      <c r="F41" s="3" t="n"/>
+          <t>איתי כהן
+עמיחי</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="G41" s="3" t="n"/>
-      <c r="H41" s="3" t="n"/>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>אסרף</t>
+        </is>
+      </c>
+      <c r="I41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C42" s="3" t="n"/>
@@ -1352,12 +1449,13 @@
       <c r="F42" s="3" t="n"/>
       <c r="G42" s="3" t="n"/>
       <c r="H42" s="3" t="n"/>
+      <c r="I42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C43" s="3" t="n"/>
@@ -1365,47 +1463,48 @@
       <c r="E43" s="3" t="n"/>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
-      <c r="H43" s="3" t="n"/>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>יואל</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>אסרף
-לישי</t>
+          <t>דורון
+דימה</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>לומיאנסקי
-ניסנוב</t>
+          <t>קריספין
+רווה</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>אור
-משה החופל</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>נפמן
-סדון</t>
-        </is>
-      </c>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="n"/>
       <c r="G44" s="3" t="n"/>
       <c r="H44" s="3" t="n"/>
+      <c r="I44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C45" s="3" t="n"/>
@@ -1414,69 +1513,62 @@
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
+      <c r="I45" s="3" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C46" s="3" t="n"/>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="3" t="n"/>
       <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>דותן
-שגיא</t>
-        </is>
-      </c>
-      <c r="H46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
+      <c r="H46" s="3" t="inlineStr">
+        <is>
+          <t>רוני</t>
+        </is>
+      </c>
+      <c r="I46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
+          <t>יואל
+רוני</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
           <t>דובר
-ליאור</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>אבנר
-רווה</t>
+משה</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>כלפה
-קריספין</t>
-        </is>
-      </c>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>אסף
-משה</t>
-        </is>
-      </c>
+          <t>אלכסיי
+לומיאנסקי</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
+      <c r="I47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
+      <c r="A48" s="3" t="n"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C48" s="3" t="n"/>
@@ -1485,12 +1577,13 @@
       <c r="F48" s="3" t="n"/>
       <c r="G48" s="3" t="n"/>
       <c r="H48" s="3" t="n"/>
+      <c r="I48" s="3" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C49" s="3" t="n"/>
@@ -1498,19 +1591,24 @@
       <c r="E49" s="3" t="n"/>
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
-      <c r="H49" s="3" t="n"/>
+      <c r="H49" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-שמעון</t>
+          <t>דותן
+ליאור</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
@@ -1521,29 +1619,20 @@
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="inlineStr">
-        <is>
-          <t>ארד
-יונג</t>
-        </is>
-      </c>
-      <c r="G50" s="3" t="inlineStr">
-        <is>
-          <t>לואיס
-לוטם</t>
-        </is>
-      </c>
+          <t>אסף
+שגיא</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="n"/>
+      <c r="G50" s="3" t="n"/>
       <c r="H50" s="3" t="n"/>
+      <c r="I50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n"/>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C51" s="3" t="n"/>
@@ -1552,12 +1641,13 @@
       <c r="F51" s="3" t="n"/>
       <c r="G51" s="3" t="n"/>
       <c r="H51" s="3" t="n"/>
+      <c r="I51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C52" s="3" t="n"/>
@@ -1566,111 +1656,122 @@
       <c r="F52" s="3" t="n"/>
       <c r="G52" s="3" t="n"/>
       <c r="H52" s="3" t="n"/>
+      <c r="I52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n"/>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
+          <t>אנזו
+סדון</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>דבוש
+פיאצה</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
           <t>איתי כהן
-אלכסיי</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>שראל
-שרעבי</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr">
-        <is>
-          <t>אגומס
-פיאצה</t>
+עמיחי</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>דבוש
-דורון</t>
+          <t>יונג
+סיני</t>
         </is>
       </c>
       <c r="G53" s="3" t="n"/>
       <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n"/>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C54" s="3" t="n"/>
       <c r="D54" s="3" t="n"/>
       <c r="E54" s="3" t="n"/>
       <c r="F54" s="3" t="n"/>
-      <c r="G54" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="G54" s="3" t="n"/>
       <c r="H54" s="3" t="n"/>
+      <c r="I54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="C55" s="3" t="n"/>
       <c r="D55" s="3" t="n"/>
       <c r="E55" s="3" t="n"/>
       <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="n"/>
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>אור
+לישי</t>
+        </is>
+      </c>
       <c r="H55" s="3" t="n"/>
+      <c r="I55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n"/>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
+          <t>שראל
+שרעבי</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
           <t>יואל
-סיני</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>דמיטרי
-עמיחי</t>
+רוני</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>דעאל
-שבצוב</t>
+          <t>אסרף
+שמעון</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>אגומס
+דורון</t>
         </is>
       </c>
       <c r="G56" s="3" t="n"/>
       <c r="H56" s="3" t="n"/>
+      <c r="I56" s="3" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n"/>
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>ד</t>
+        </is>
+      </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="C57" s="3" t="n"/>
@@ -1679,12 +1780,13 @@
       <c r="F57" s="3" t="n"/>
       <c r="G57" s="3" t="n"/>
       <c r="H57" s="3" t="n"/>
+      <c r="I57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n"/>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="C58" s="3" t="n"/>
@@ -1693,41 +1795,53 @@
       <c r="F58" s="3" t="n"/>
       <c r="G58" s="3" t="n"/>
       <c r="H58" s="3" t="n"/>
+      <c r="I58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n"/>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>אור
-אסרף</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>לומיאנסקי
-רוני</t>
+          <t>נפמן
+קריספין</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>משה החופל
-נפמן</t>
-        </is>
-      </c>
-      <c r="F59" s="3" t="n"/>
-      <c r="G59" s="3" t="n"/>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="inlineStr">
+        <is>
+          <t>ליאור
+רווה</t>
+        </is>
+      </c>
+      <c r="G59" s="3" t="inlineStr">
+        <is>
+          <t>דובר
+משה</t>
+        </is>
+      </c>
       <c r="H59" s="3" t="n"/>
+      <c r="I59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n"/>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="C60" s="3" t="n"/>
@@ -1736,12 +1850,13 @@
       <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="n"/>
       <c r="H60" s="3" t="n"/>
+      <c r="I60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="C61" s="3" t="n"/>
@@ -1750,55 +1865,67 @@
       <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="n"/>
       <c r="H61" s="3" t="n"/>
+      <c r="I61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n"/>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>לישי
+          <t>אלכסיי
+לומיאנסקי</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
+אסף</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
+דוד</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>דותן
 שגיא</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>ניסנוב
-סדון</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>דובר
-ליאור</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="n"/>
       <c r="G62" s="3" t="n"/>
       <c r="H62" s="3" t="n"/>
+      <c r="I62" s="3" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n"/>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C63" s="3" t="n"/>
       <c r="D63" s="3" t="n"/>
       <c r="E63" s="3" t="n"/>
       <c r="F63" s="3" t="n"/>
-      <c r="G63" s="3" t="n"/>
+      <c r="G63" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="H63" s="3" t="n"/>
+      <c r="I63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C64" s="3" t="n"/>
@@ -1807,41 +1934,51 @@
       <c r="F64" s="3" t="n"/>
       <c r="G64" s="3" t="n"/>
       <c r="H64" s="3" t="n"/>
+      <c r="I64" s="3" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n"/>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>כלפה
-רווה</t>
+          <t>יונג
+סדון</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-קריספין</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>דותן
-משה</t>
-        </is>
-      </c>
-      <c r="F65" s="3" t="n"/>
+          <t>איתי כהן
+עמיחי</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="G65" s="3" t="n"/>
-      <c r="H65" s="3" t="n"/>
+      <c r="H65" s="3" t="inlineStr">
+        <is>
+          <t>שרעבי</t>
+        </is>
+      </c>
+      <c r="I65" s="3" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n"/>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C66" s="3" t="n"/>
@@ -1850,12 +1987,13 @@
       <c r="F66" s="3" t="n"/>
       <c r="G66" s="3" t="n"/>
       <c r="H66" s="3" t="n"/>
+      <c r="I66" s="3" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n"/>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C67" s="3" t="n"/>
@@ -1863,47 +2001,48 @@
       <c r="E67" s="3" t="n"/>
       <c r="F67" s="3" t="n"/>
       <c r="G67" s="3" t="n"/>
-      <c r="H67" s="3" t="n"/>
+      <c r="H67" s="3" t="inlineStr">
+        <is>
+          <t>סיני</t>
+        </is>
+      </c>
+      <c r="I67" s="3" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n"/>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-דוד</t>
+          <t>לישי
+סיני</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-ארד</t>
+          <t>אור
+נפמן</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>אסף
-שמעון</t>
-        </is>
-      </c>
-      <c r="F68" s="3" t="inlineStr">
-        <is>
-          <t>יונג
-לואיס</t>
-        </is>
-      </c>
+          <t>שמעון
+שראל</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="n"/>
       <c r="G68" s="3" t="n"/>
       <c r="H68" s="3" t="n"/>
+      <c r="I68" s="3" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n"/>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C69" s="3" t="n"/>
@@ -1912,69 +2051,62 @@
       <c r="F69" s="3" t="n"/>
       <c r="G69" s="3" t="n"/>
       <c r="H69" s="3" t="n"/>
+      <c r="I69" s="3" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n"/>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C70" s="3" t="n"/>
       <c r="D70" s="3" t="n"/>
       <c r="E70" s="3" t="n"/>
       <c r="F70" s="3" t="n"/>
-      <c r="G70" s="3" t="inlineStr">
-        <is>
-          <t>דימנטמן
-מטמוני</t>
-        </is>
-      </c>
-      <c r="H70" s="3" t="n"/>
+      <c r="G70" s="3" t="n"/>
+      <c r="H70" s="3" t="inlineStr">
+        <is>
+          <t>יואל</t>
+        </is>
+      </c>
+      <c r="I70" s="3" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n"/>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לוטם</t>
+          <t>יואל
+רוני</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
+          <t>אגומס
+אסרף</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
           <t>דורון
-שראל</t>
-        </is>
-      </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>דבוש
-פיאצה</t>
-        </is>
-      </c>
-      <c r="F71" s="3" t="inlineStr">
-        <is>
-          <t>אגומס
-איתי כהן</t>
-        </is>
-      </c>
+קריספין</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="n"/>
       <c r="G71" s="3" t="n"/>
       <c r="H71" s="3" t="n"/>
+      <c r="I71" s="3" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
+      <c r="A72" s="3" t="n"/>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C72" s="3" t="n"/>
@@ -1983,12 +2115,13 @@
       <c r="F72" s="3" t="n"/>
       <c r="G72" s="3" t="n"/>
       <c r="H72" s="3" t="n"/>
+      <c r="I72" s="3" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n"/>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C73" s="3" t="n"/>
@@ -1996,52 +2129,48 @@
       <c r="E73" s="3" t="n"/>
       <c r="F73" s="3" t="n"/>
       <c r="G73" s="3" t="n"/>
-      <c r="H73" s="3" t="n"/>
+      <c r="H73" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I73" s="3" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n"/>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>סיני
-שרעבי</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>דעאל
-יואל</t>
+          <t>אבנר
+רווה</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>דמיטרי
-עמיחי</t>
-        </is>
-      </c>
-      <c r="F74" s="3" t="inlineStr">
-        <is>
-          <t>רוני
-שבצוב</t>
-        </is>
-      </c>
-      <c r="G74" s="3" t="inlineStr">
-        <is>
-          <t>אסרף
-לישי</t>
-        </is>
-      </c>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="F74" s="3" t="n"/>
+      <c r="G74" s="3" t="n"/>
       <c r="H74" s="3" t="n"/>
+      <c r="I74" s="3" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n"/>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C75" s="3" t="n"/>
@@ -2050,12 +2179,13 @@
       <c r="F75" s="3" t="n"/>
       <c r="G75" s="3" t="n"/>
       <c r="H75" s="3" t="n"/>
+      <c r="I75" s="3" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n"/>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C76" s="3" t="n"/>
@@ -2064,810 +2194,14 @@
       <c r="F76" s="3" t="n"/>
       <c r="G76" s="3" t="n"/>
       <c r="H76" s="3" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="n"/>
-      <c r="B77" s="3" t="inlineStr">
-        <is>
-          <t>05:00</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>אור
-משה החופל</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
-        <is>
-          <t>לומיאנסקי
-סדון</t>
-        </is>
-      </c>
-      <c r="E77" s="3" t="inlineStr">
-        <is>
-          <t>דותן
-שגיא</t>
-        </is>
-      </c>
-      <c r="F77" s="3" t="inlineStr">
-        <is>
-          <t>אבנר
-נפמן</t>
-        </is>
-      </c>
-      <c r="G77" s="3" t="n"/>
-      <c r="H77" s="3" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="n"/>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>06:00</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="n"/>
-      <c r="D78" s="3" t="n"/>
-      <c r="E78" s="3" t="n"/>
-      <c r="F78" s="3" t="n"/>
-      <c r="G78" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H78" s="3" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="n"/>
-      <c r="B79" s="3" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="n"/>
-      <c r="D79" s="3" t="n"/>
-      <c r="E79" s="3" t="n"/>
-      <c r="F79" s="3" t="n"/>
-      <c r="G79" s="3" t="n"/>
-      <c r="H79" s="3" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="3" t="n"/>
-      <c r="B80" s="3" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>דובר
-ניסנוב</t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
-        <is>
-          <t>כלפה
-קריספין</t>
-        </is>
-      </c>
-      <c r="E80" s="3" t="inlineStr">
-        <is>
-          <t>ליאור
-רווה</t>
-        </is>
-      </c>
-      <c r="F80" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G80" s="3" t="n"/>
-      <c r="H80" s="3" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="3" t="n"/>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="n"/>
-      <c r="D81" s="3" t="n"/>
-      <c r="E81" s="3" t="n"/>
-      <c r="F81" s="3" t="n"/>
-      <c r="G81" s="3" t="n"/>
-      <c r="H81" s="3" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="n"/>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="n"/>
-      <c r="D82" s="3" t="n"/>
-      <c r="E82" s="3" t="n"/>
-      <c r="F82" s="3" t="n"/>
-      <c r="G82" s="3" t="n"/>
-      <c r="H82" s="3" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="n"/>
-      <c r="B83" s="3" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>אסף
-ארד</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>אנדי
-דוד</t>
-        </is>
-      </c>
-      <c r="E83" s="3" t="inlineStr">
-        <is>
-          <t>אנזו
-משה</t>
-        </is>
-      </c>
-      <c r="F83" s="3" t="n"/>
-      <c r="G83" s="3" t="n"/>
-      <c r="H83" s="3" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="n"/>
-      <c r="B84" s="3" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="C84" s="3" t="n"/>
-      <c r="D84" s="3" t="n"/>
-      <c r="E84" s="3" t="n"/>
-      <c r="F84" s="3" t="n"/>
-      <c r="G84" s="3" t="n"/>
-      <c r="H84" s="3" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="n"/>
-      <c r="B85" s="3" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="n"/>
-      <c r="D85" s="3" t="n"/>
-      <c r="E85" s="3" t="n"/>
-      <c r="F85" s="3" t="n"/>
-      <c r="G85" s="3" t="n"/>
-      <c r="H85" s="3" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="n"/>
-      <c r="B86" s="3" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr">
-        <is>
-          <t>יונג
-שמעון</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
-        <is>
-          <t>דימנטמן
-מטמוני</t>
-        </is>
-      </c>
-      <c r="E86" s="3" t="inlineStr">
-        <is>
-          <t>אלכסיי
-לואיס</t>
-        </is>
-      </c>
-      <c r="F86" s="3" t="n"/>
-      <c r="G86" s="3" t="n"/>
-      <c r="H86" s="3" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="n"/>
-      <c r="B87" s="3" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="C87" s="3" t="n"/>
-      <c r="D87" s="3" t="n"/>
-      <c r="E87" s="3" t="n"/>
-      <c r="F87" s="3" t="n"/>
-      <c r="G87" s="3" t="n"/>
-      <c r="H87" s="3" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="n"/>
-      <c r="B88" s="3" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="C88" s="3" t="n"/>
-      <c r="D88" s="3" t="n"/>
-      <c r="E88" s="3" t="n"/>
-      <c r="F88" s="3" t="n"/>
-      <c r="G88" s="3" t="n"/>
-      <c r="H88" s="3" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="n"/>
-      <c r="B89" s="3" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="C89" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-דורון</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
-        <is>
-          <t>דבוש
-לוטם</t>
-        </is>
-      </c>
-      <c r="E89" s="3" t="inlineStr">
-        <is>
-          <t>שראל
-שרעבי</t>
-        </is>
-      </c>
-      <c r="F89" s="3" t="n"/>
-      <c r="G89" s="3" t="n"/>
-      <c r="H89" s="3" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="n"/>
-      <c r="B90" s="3" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="C90" s="3" t="n"/>
-      <c r="D90" s="3" t="n"/>
-      <c r="E90" s="3" t="n"/>
-      <c r="F90" s="3" t="n"/>
-      <c r="G90" s="3" t="n"/>
-      <c r="H90" s="3" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="n"/>
-      <c r="B91" s="3" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="n"/>
-      <c r="D91" s="3" t="n"/>
-      <c r="E91" s="3" t="n"/>
-      <c r="F91" s="3" t="n"/>
-      <c r="G91" s="3" t="n"/>
-      <c r="H91" s="3" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="n"/>
-      <c r="B92" s="3" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="C92" s="3" t="inlineStr">
-        <is>
-          <t>אגומס
-סיני</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
-          <t>דעאל
-עמיחי</t>
-        </is>
-      </c>
-      <c r="E92" s="3" t="inlineStr">
-        <is>
-          <t>יואל
-רוני</t>
-        </is>
-      </c>
-      <c r="F92" s="3" t="inlineStr">
-        <is>
-          <t>דמיטרי
-שבצוב</t>
-        </is>
-      </c>
-      <c r="G92" s="3" t="n"/>
-      <c r="H92" s="3" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="n"/>
-      <c r="B93" s="3" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="n"/>
-      <c r="D93" s="3" t="n"/>
-      <c r="E93" s="3" t="n"/>
-      <c r="F93" s="3" t="n"/>
-      <c r="G93" s="3" t="n"/>
-      <c r="H93" s="3" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="n"/>
-      <c r="B94" s="3" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="n"/>
-      <c r="D94" s="3" t="n"/>
-      <c r="E94" s="3" t="n"/>
-      <c r="F94" s="3" t="n"/>
-      <c r="G94" s="3" t="inlineStr">
-        <is>
-          <t>אור
-אסרף</t>
-        </is>
-      </c>
-      <c r="H94" s="3" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="n"/>
-      <c r="B95" s="3" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>לישי
-פיאצה</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="inlineStr">
-        <is>
-          <t>ניסנוב
-נפמן</t>
-        </is>
-      </c>
-      <c r="E95" s="3" t="inlineStr">
-        <is>
-          <t>משה החופל
-שגיא</t>
-        </is>
-      </c>
-      <c r="F95" s="3" t="inlineStr">
-        <is>
-          <t>דותן
-לומיאנסקי</t>
-        </is>
-      </c>
-      <c r="G95" s="3" t="n"/>
-      <c r="H95" s="3" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="3" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B96" s="3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="n"/>
-      <c r="D96" s="3" t="n"/>
-      <c r="E96" s="3" t="n"/>
-      <c r="F96" s="3" t="n"/>
-      <c r="G96" s="3" t="n"/>
-      <c r="H96" s="3" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="3" t="n"/>
-      <c r="B97" s="3" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="C97" s="3" t="n"/>
-      <c r="D97" s="3" t="n"/>
-      <c r="E97" s="3" t="n"/>
-      <c r="F97" s="3" t="n"/>
-      <c r="G97" s="3" t="n"/>
-      <c r="H97" s="3" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="3" t="n"/>
-      <c r="B98" s="3" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>אבנר
-דובר</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
-        <is>
-          <t>כלפה
-סדון</t>
-        </is>
-      </c>
-      <c r="E98" s="3" t="inlineStr">
-        <is>
-          <t>ארד
-רווה</t>
-        </is>
-      </c>
-      <c r="F98" s="3" t="inlineStr">
-        <is>
-          <t>ליאור
-קריספין</t>
-        </is>
-      </c>
-      <c r="G98" s="3" t="inlineStr">
-        <is>
-          <t>אסף
-משה</t>
-        </is>
-      </c>
-      <c r="H98" s="3" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="n"/>
-      <c r="B99" s="3" t="inlineStr">
-        <is>
-          <t>03:00</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="n"/>
-      <c r="D99" s="3" t="n"/>
-      <c r="E99" s="3" t="n"/>
-      <c r="F99" s="3" t="n"/>
-      <c r="G99" s="3" t="n"/>
-      <c r="H99" s="3" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="n"/>
-      <c r="B100" s="3" t="inlineStr">
-        <is>
-          <t>04:00</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="n"/>
-      <c r="D100" s="3" t="n"/>
-      <c r="E100" s="3" t="n"/>
-      <c r="F100" s="3" t="n"/>
-      <c r="G100" s="3" t="n"/>
-      <c r="H100" s="3" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="n"/>
-      <c r="B101" s="3" t="inlineStr">
-        <is>
-          <t>05:00</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>אנדי
-דוד</t>
-        </is>
-      </c>
-      <c r="D101" s="3" t="inlineStr">
-        <is>
-          <t>אנזו
-שמעון</t>
-        </is>
-      </c>
-      <c r="E101" s="3" t="inlineStr">
-        <is>
-          <t>דימנטמן
-מטמוני</t>
-        </is>
-      </c>
-      <c r="F101" s="3" t="inlineStr">
-        <is>
-          <t>אלכסיי
-דורון</t>
-        </is>
-      </c>
-      <c r="G101" s="3" t="n"/>
-      <c r="H101" s="3" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="3" t="n"/>
-      <c r="B102" s="3" t="inlineStr">
-        <is>
-          <t>06:00</t>
-        </is>
-      </c>
-      <c r="C102" s="3" t="n"/>
-      <c r="D102" s="3" t="n"/>
-      <c r="E102" s="3" t="n"/>
-      <c r="F102" s="3" t="n"/>
-      <c r="G102" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H102" s="3" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="3" t="n"/>
-      <c r="B103" s="3" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="C103" s="3" t="n"/>
-      <c r="D103" s="3" t="n"/>
-      <c r="E103" s="3" t="n"/>
-      <c r="F103" s="3" t="n"/>
-      <c r="G103" s="3" t="n"/>
-      <c r="H103" s="3" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="n"/>
-      <c r="B104" s="3" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t>לואיס
-לוטם</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-שרעבי</t>
-        </is>
-      </c>
-      <c r="E104" s="3" t="inlineStr">
-        <is>
-          <t>דבוש
-שראל</t>
-        </is>
-      </c>
-      <c r="F104" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G104" s="3" t="n"/>
-      <c r="H104" s="3" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="n"/>
-      <c r="B105" s="3" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="n"/>
-      <c r="D105" s="3" t="n"/>
-      <c r="E105" s="3" t="n"/>
-      <c r="F105" s="3" t="n"/>
-      <c r="G105" s="3" t="n"/>
-      <c r="H105" s="3" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="3" t="n"/>
-      <c r="B106" s="3" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="n"/>
-      <c r="D106" s="3" t="n"/>
-      <c r="E106" s="3" t="n"/>
-      <c r="F106" s="3" t="n"/>
-      <c r="G106" s="3" t="n"/>
-      <c r="H106" s="3" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="3" t="n"/>
-      <c r="B107" s="3" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>אגומס
-פיאצה</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
-        <is>
-          <t>יונג
-עמיחי</t>
-        </is>
-      </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>יואל
-סיני</t>
-        </is>
-      </c>
-      <c r="F107" s="3" t="n"/>
-      <c r="G107" s="3" t="n"/>
-      <c r="H107" s="3" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="3" t="n"/>
-      <c r="B108" s="3" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="n"/>
-      <c r="D108" s="3" t="n"/>
-      <c r="E108" s="3" t="n"/>
-      <c r="F108" s="3" t="n"/>
-      <c r="G108" s="3" t="n"/>
-      <c r="H108" s="3" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="n"/>
-      <c r="B109" s="3" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="C109" s="3" t="n"/>
-      <c r="D109" s="3" t="n"/>
-      <c r="E109" s="3" t="n"/>
-      <c r="F109" s="3" t="n"/>
-      <c r="G109" s="3" t="n"/>
-      <c r="H109" s="3" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="n"/>
-      <c r="B110" s="3" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>דעאל
-רוני</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr">
-        <is>
-          <t>דמיטרי
-לישי</t>
-        </is>
-      </c>
-      <c r="E110" s="3" t="inlineStr">
-        <is>
-          <t>אסרף
-שבצוב</t>
-        </is>
-      </c>
-      <c r="F110" s="3" t="n"/>
-      <c r="G110" s="3" t="n"/>
-      <c r="H110" s="3" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="3" t="n"/>
-      <c r="B111" s="3" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="n"/>
-      <c r="D111" s="3" t="n"/>
-      <c r="E111" s="3" t="n"/>
-      <c r="F111" s="3" t="n"/>
-      <c r="G111" s="3" t="n"/>
-      <c r="H111" s="3" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="n"/>
-      <c r="B112" s="3" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="C112" s="3" t="n"/>
-      <c r="D112" s="3" t="n"/>
-      <c r="E112" s="3" t="n"/>
-      <c r="F112" s="3" t="n"/>
-      <c r="G112" s="3" t="n"/>
-      <c r="H112" s="3" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="n"/>
-      <c r="B113" s="3" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>אור
-ניסנוב</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr">
-        <is>
-          <t>משה החופל
-נפמן</t>
-        </is>
-      </c>
-      <c r="E113" s="3" t="inlineStr">
-        <is>
-          <t>לומיאנסקי
-סדון</t>
-        </is>
-      </c>
-      <c r="F113" s="3" t="n"/>
-      <c r="G113" s="3" t="n"/>
-      <c r="H113" s="3" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="n"/>
-      <c r="B114" s="3" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="n"/>
-      <c r="D114" s="3" t="n"/>
-      <c r="E114" s="3" t="n"/>
-      <c r="F114" s="3" t="n"/>
-      <c r="G114" s="3" t="n"/>
-      <c r="H114" s="3" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="3" t="n"/>
-      <c r="B115" s="3" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="n"/>
-      <c r="D115" s="3" t="n"/>
-      <c r="E115" s="3" t="n"/>
-      <c r="F115" s="3" t="n"/>
-      <c r="G115" s="3" t="n"/>
-      <c r="H115" s="3" t="n"/>
+      <c r="I76" s="3" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="156">
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A47"/>
-    <mergeCell ref="A48:A71"/>
-    <mergeCell ref="A72:A95"/>
-    <mergeCell ref="A96:A115"/>
+  <mergeCells count="118">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A32"/>
+    <mergeCell ref="A33:A56"/>
+    <mergeCell ref="A57:A76"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -2893,19 +2227,6 @@
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="C71:C73"/>
     <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="C113:C115"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
@@ -2931,19 +2252,6 @@
     <mergeCell ref="D68:D70"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="D113:D115"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
@@ -2969,56 +2277,45 @@
     <mergeCell ref="E68:E70"/>
     <mergeCell ref="E71:E73"/>
     <mergeCell ref="E74:E76"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="E113:E115"/>
     <mergeCell ref="F2:F4"/>
     <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F28"/>
     <mergeCell ref="F29:F31"/>
-    <mergeCell ref="F32:F43"/>
-    <mergeCell ref="F44:F46"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="F41:F52"/>
     <mergeCell ref="F53:F55"/>
-    <mergeCell ref="F56:F67"/>
-    <mergeCell ref="F68:F70"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="F80:F91"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="F98:F100"/>
-    <mergeCell ref="F101:F103"/>
-    <mergeCell ref="F104:F115"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="G6:G21"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="G30:G45"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G54:G69"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="G78:G93"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="G102:G115"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F65:F76"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G15:G30"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="G39:G54"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="G63:G76"/>
+    <mergeCell ref="H2:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H25:H40"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="H49:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="H70:H72"/>
+    <mergeCell ref="H73:H76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,12 +455,11 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -499,12 +498,7 @@
           <t>פטרול</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>שבחים 2</t>
-        </is>
-      </c>
-      <c r="I1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -545,12 +539,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n"/>
+      <c r="H2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n"/>
@@ -565,7 +554,6 @@
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n"/>
@@ -580,7 +568,6 @@
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="3" t="n"/>
       <c r="H4" s="3" t="n"/>
-      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n"/>
@@ -615,7 +602,6 @@
       </c>
       <c r="G5" s="3" t="n"/>
       <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n"/>
@@ -630,7 +616,6 @@
       <c r="F6" s="3" t="n"/>
       <c r="G6" s="3" t="n"/>
       <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n"/>
@@ -650,7 +635,6 @@
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n"/>
@@ -685,7 +669,6 @@
       </c>
       <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
@@ -704,7 +687,6 @@
       <c r="F9" s="3" t="n"/>
       <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
-      <c r="I9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n"/>
@@ -719,7 +701,6 @@
       <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
-      <c r="I10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n"/>
@@ -759,7 +740,6 @@
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
-      <c r="I11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n"/>
@@ -774,7 +754,6 @@
       <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
-      <c r="I12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n"/>
@@ -789,7 +768,6 @@
       <c r="F13" s="3" t="n"/>
       <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
-      <c r="I13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n"/>
@@ -824,7 +802,6 @@
       </c>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
-      <c r="I14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n"/>
@@ -843,7 +820,6 @@
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n"/>
@@ -858,7 +834,6 @@
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n"/>
@@ -891,12 +866,7 @@
         </is>
       </c>
       <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>ליאור</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n"/>
@@ -911,7 +881,6 @@
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n"/>
@@ -925,12 +894,7 @@
       <c r="E19" s="3" t="n"/>
       <c r="F19" s="3" t="n"/>
       <c r="G19" s="3" t="n"/>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>משה</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n"/>
@@ -960,7 +924,6 @@
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
-      <c r="I20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n"/>
@@ -975,7 +938,6 @@
       <c r="F21" s="3" t="n"/>
       <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
-      <c r="I21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n"/>
@@ -989,12 +951,7 @@
       <c r="E22" s="3" t="n"/>
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>דותן</t>
-        </is>
-      </c>
-      <c r="I22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n"/>
@@ -1005,8 +962,8 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-דוד</t>
+          <t>לוטם
+איתי כהן</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1017,14 +974,13 @@
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>אנדי
+          <t>לישי
 יונג</t>
         </is>
       </c>
       <c r="F23" s="3" t="n"/>
       <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
-      <c r="I23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n"/>
@@ -1039,7 +995,6 @@
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
-      <c r="I24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n"/>
@@ -1053,12 +1008,7 @@
       <c r="E25" s="3" t="n"/>
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I25" s="3" t="n"/>
+      <c r="H25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n"/>
@@ -1075,8 +1025,8 @@
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>סיני
-איתי כהן</t>
+          <t>אסרף
+עמיחי</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1088,7 +1038,6 @@
       <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
-      <c r="I26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n"/>
@@ -1103,7 +1052,6 @@
       <c r="F27" s="3" t="n"/>
       <c r="G27" s="3" t="n"/>
       <c r="H27" s="3" t="n"/>
-      <c r="I27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n"/>
@@ -1118,7 +1066,6 @@
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
-      <c r="I28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n"/>
@@ -1129,31 +1076,30 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>יואל
-רוני</t>
+          <t>דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-לישי</t>
+          <t>דעאל
+אגומס</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>אסרף
-נפמן</t>
+          <t>אנזו
+אנדי</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>דעאל
-עמיחי</t>
+          <t xml:space="preserve"> אבנר
+דוד</t>
         </is>
       </c>
       <c r="G29" s="3" t="n"/>
       <c r="H29" s="3" t="n"/>
-      <c r="I29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n"/>
@@ -1168,7 +1114,6 @@
       <c r="F30" s="3" t="n"/>
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
-      <c r="I30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n"/>
@@ -1183,12 +1128,11 @@
       <c r="F31" s="3" t="n"/>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>דימה
-רווה</t>
+          <t>ליאור
+משה</t>
         </is>
       </c>
       <c r="H31" s="3" t="n"/>
-      <c r="I31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n"/>
@@ -1199,14 +1143,14 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>דורון
+          <t>רווה
 קריספין</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
+          <t>כלפה
+דובר</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1217,13 +1161,12 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-ליאור</t>
+          <t>יואל
+ארד</t>
         </is>
       </c>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
-      <c r="I32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
@@ -1242,7 +1185,6 @@
       <c r="F33" s="3" t="n"/>
       <c r="G33" s="3" t="n"/>
       <c r="H33" s="3" t="n"/>
-      <c r="I33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n"/>
@@ -1257,7 +1199,6 @@
       <c r="F34" s="3" t="n"/>
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
-      <c r="I34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n"/>
@@ -1268,36 +1209,35 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>ארד
-משה</t>
-        </is>
-      </c>
-      <c r="D35" s="3" t="inlineStr">
-        <is>
-          <t>דובר
-כלפה</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
           <t>אסף
 דותן</t>
         </is>
       </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>לוטם
+סיני</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+עמיחי</t>
+        </is>
+      </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-לואיס</t>
+          <t>לואיס
+שגיא</t>
         </is>
       </c>
       <c r="G35" s="3" t="inlineStr">
         <is>
-          <t>סדון
-שגיא</t>
+          <t>יונג
+סדון</t>
         </is>
       </c>
       <c r="H35" s="3" t="n"/>
-      <c r="I35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n"/>
@@ -1312,7 +1252,6 @@
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
       <c r="H36" s="3" t="n"/>
-      <c r="I36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n"/>
@@ -1327,7 +1266,6 @@
       <c r="F37" s="3" t="n"/>
       <c r="G37" s="3" t="n"/>
       <c r="H37" s="3" t="n"/>
-      <c r="I37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n"/>
@@ -1338,31 +1276,30 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-דוד</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
           <t>דבוש
 פיאצה</t>
         </is>
       </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>שראל
+שרעבי</t>
+        </is>
+      </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>יונג
-לישי</t>
+          <t>דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-סיני</t>
+          <t>אנזו
+אסרף</t>
         </is>
       </c>
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
-      <c r="I38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n"/>
@@ -1381,7 +1318,6 @@
         </is>
       </c>
       <c r="H39" s="3" t="n"/>
-      <c r="I39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n"/>
@@ -1396,7 +1332,6 @@
       <c r="F40" s="3" t="n"/>
       <c r="G40" s="3" t="n"/>
       <c r="H40" s="3" t="n"/>
-      <c r="I40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n"/>
@@ -1407,20 +1342,20 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>דעאל
-נפמן</t>
+          <t>אגומס
+ליאור</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-עמיחי</t>
+          <t>דובר
+משה</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
@@ -1429,12 +1364,7 @@
         </is>
       </c>
       <c r="G41" s="3" t="n"/>
-      <c r="H41" s="3" t="inlineStr">
-        <is>
-          <t>אסרף</t>
-        </is>
-      </c>
-      <c r="I41" s="3" t="n"/>
+      <c r="H41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n"/>
@@ -1449,7 +1379,6 @@
       <c r="F42" s="3" t="n"/>
       <c r="G42" s="3" t="n"/>
       <c r="H42" s="3" t="n"/>
-      <c r="I42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n"/>
@@ -1463,12 +1392,7 @@
       <c r="E43" s="3" t="n"/>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
-      <c r="H43" s="3" t="inlineStr">
-        <is>
-          <t>יואל</t>
-        </is>
-      </c>
-      <c r="I43" s="3" t="n"/>
+      <c r="H43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n"/>
@@ -1479,26 +1403,25 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>דורון
-דימה</t>
+          <t>דותן
+רווה</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>קריספין
-רווה</t>
+          <t>אלכסיי
+לומיאנסקי</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
+          <t>יואל
+סיני</t>
         </is>
       </c>
       <c r="F44" s="3" t="n"/>
       <c r="G44" s="3" t="n"/>
       <c r="H44" s="3" t="n"/>
-      <c r="I44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n"/>
@@ -1513,7 +1436,6 @@
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
-      <c r="I45" s="3" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n"/>
@@ -1527,12 +1449,7 @@
       <c r="E46" s="3" t="n"/>
       <c r="F46" s="3" t="n"/>
       <c r="G46" s="3" t="n"/>
-      <c r="H46" s="3" t="inlineStr">
-        <is>
-          <t>רוני</t>
-        </is>
-      </c>
-      <c r="I46" s="3" t="n"/>
+      <c r="H46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n"/>
@@ -1543,26 +1460,25 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>יואל
-רוני</t>
+          <t>איתי כהן
+עמיחי</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>דובר
-משה</t>
+          <t>אסף
+שגיא</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לומיאנסקי</t>
+          <t>יונג
+סדון</t>
         </is>
       </c>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
-      <c r="I47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n"/>
@@ -1577,7 +1493,6 @@
       <c r="F48" s="3" t="n"/>
       <c r="G48" s="3" t="n"/>
       <c r="H48" s="3" t="n"/>
-      <c r="I48" s="3" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n"/>
@@ -1591,12 +1506,7 @@
       <c r="E49" s="3" t="n"/>
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
-      <c r="H49" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I49" s="3" t="n"/>
+      <c r="H49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n"/>
@@ -1607,26 +1517,25 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>דותן
-ליאור</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-דוד</t>
+          <t>שראל
+שרעבי</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>אסף
-שגיא</t>
+          <t>אגומס
+אסרף</t>
         </is>
       </c>
       <c r="F50" s="3" t="n"/>
       <c r="G50" s="3" t="n"/>
       <c r="H50" s="3" t="n"/>
-      <c r="I50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n"/>
@@ -1641,7 +1550,6 @@
       <c r="F51" s="3" t="n"/>
       <c r="G51" s="3" t="n"/>
       <c r="H51" s="3" t="n"/>
-      <c r="I51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n"/>
@@ -1656,7 +1564,6 @@
       <c r="F52" s="3" t="n"/>
       <c r="G52" s="3" t="n"/>
       <c r="H52" s="3" t="n"/>
-      <c r="I52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n"/>
@@ -1667,31 +1574,30 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
+דוד</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
           <t>אנזו
-סדון</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>דבוש
-פיאצה</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-עמיחי</t>
+ליאור</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>יונג
-סיני</t>
+          <t>דובר
+משה</t>
         </is>
       </c>
       <c r="G53" s="3" t="n"/>
       <c r="H53" s="3" t="n"/>
-      <c r="I53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n"/>
@@ -1706,7 +1612,6 @@
       <c r="F54" s="3" t="n"/>
       <c r="G54" s="3" t="n"/>
       <c r="H54" s="3" t="n"/>
-      <c r="I54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n"/>
@@ -1722,11 +1627,10 @@
       <c r="G55" s="3" t="inlineStr">
         <is>
           <t>אור
-לישי</t>
+רווה</t>
         </is>
       </c>
       <c r="H55" s="3" t="n"/>
-      <c r="I55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n"/>
@@ -1737,31 +1641,30 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
+          <t>אלכסיי
+לומיאנסקי</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>יואל
-רוני</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>אסרף
-שמעון</t>
+          <t>דותן
+יואל</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>אגומס
-דורון</t>
+          <t>דורון
+סיני</t>
         </is>
       </c>
       <c r="G56" s="3" t="n"/>
       <c r="H56" s="3" t="n"/>
-      <c r="I56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
@@ -1780,7 +1683,6 @@
       <c r="F57" s="3" t="n"/>
       <c r="G57" s="3" t="n"/>
       <c r="H57" s="3" t="n"/>
-      <c r="I57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n"/>
@@ -1795,7 +1697,6 @@
       <c r="F58" s="3" t="n"/>
       <c r="G58" s="3" t="n"/>
       <c r="H58" s="3" t="n"/>
-      <c r="I58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n"/>
@@ -1806,36 +1707,35 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
+          <t>אסף
+שמעון</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
           <t>דימה
 שבצוב</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>נפמן
-קריספין</t>
-        </is>
-      </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
+          <t>איתי כהן
+עמיחי</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>ליאור
-רווה</t>
+          <t>יונג
+שגיא</t>
         </is>
       </c>
       <c r="G59" s="3" t="inlineStr">
         <is>
-          <t>דובר
-משה</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="H59" s="3" t="n"/>
-      <c r="I59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n"/>
@@ -1850,7 +1750,6 @@
       <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="n"/>
       <c r="H60" s="3" t="n"/>
-      <c r="I60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n"/>
@@ -1865,7 +1764,6 @@
       <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="n"/>
       <c r="H61" s="3" t="n"/>
-      <c r="I61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n"/>
@@ -1876,31 +1774,30 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לומיאנסקי</t>
+          <t>אגומס
+אסרף</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-אסף</t>
+          <t>שראל
+שרעבי</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
         <is>
           <t>אנדי
 דוד</t>
         </is>
       </c>
-      <c r="F62" s="3" t="inlineStr">
-        <is>
-          <t>דותן
-שגיא</t>
-        </is>
-      </c>
       <c r="G62" s="3" t="n"/>
       <c r="H62" s="3" t="n"/>
-      <c r="I62" s="3" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n"/>
@@ -1919,7 +1816,6 @@
         </is>
       </c>
       <c r="H63" s="3" t="n"/>
-      <c r="I63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n"/>
@@ -1934,7 +1830,6 @@
       <c r="F64" s="3" t="n"/>
       <c r="G64" s="3" t="n"/>
       <c r="H64" s="3" t="n"/>
-      <c r="I64" s="3" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n"/>
@@ -1945,20 +1840,20 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>יונג
-סדון</t>
+          <t>ליאור
+רווה</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>דבוש
-פיאצה</t>
+          <t>דובר
+משה</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-עמיחי</t>
+          <t>אלכסיי
+לומיאנסקי</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
@@ -1967,12 +1862,7 @@
         </is>
       </c>
       <c r="G65" s="3" t="n"/>
-      <c r="H65" s="3" t="inlineStr">
-        <is>
-          <t>שרעבי</t>
-        </is>
-      </c>
-      <c r="I65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n"/>
@@ -1987,7 +1877,6 @@
       <c r="F66" s="3" t="n"/>
       <c r="G66" s="3" t="n"/>
       <c r="H66" s="3" t="n"/>
-      <c r="I66" s="3" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n"/>
@@ -2001,12 +1890,7 @@
       <c r="E67" s="3" t="n"/>
       <c r="F67" s="3" t="n"/>
       <c r="G67" s="3" t="n"/>
-      <c r="H67" s="3" t="inlineStr">
-        <is>
-          <t>סיני</t>
-        </is>
-      </c>
-      <c r="I67" s="3" t="n"/>
+      <c r="H67" s="3" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n"/>
@@ -2017,26 +1901,25 @@
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>לישי
-סיני</t>
+          <t>אור
+יואל</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>אור
-נפמן</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>שמעון
-שראל</t>
+          <t>דותן
+שמעון</t>
         </is>
       </c>
       <c r="F68" s="3" t="n"/>
       <c r="G68" s="3" t="n"/>
       <c r="H68" s="3" t="n"/>
-      <c r="I68" s="3" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n"/>
@@ -2051,7 +1934,6 @@
       <c r="F69" s="3" t="n"/>
       <c r="G69" s="3" t="n"/>
       <c r="H69" s="3" t="n"/>
-      <c r="I69" s="3" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n"/>
@@ -2065,12 +1947,7 @@
       <c r="E70" s="3" t="n"/>
       <c r="F70" s="3" t="n"/>
       <c r="G70" s="3" t="n"/>
-      <c r="H70" s="3" t="inlineStr">
-        <is>
-          <t>יואל</t>
-        </is>
-      </c>
-      <c r="I70" s="3" t="n"/>
+      <c r="H70" s="3" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n"/>
@@ -2081,26 +1958,25 @@
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>יואל
-רוני</t>
+          <t>אסף
+דורון</t>
         </is>
       </c>
       <c r="D71" s="3" t="inlineStr">
         <is>
-          <t>אגומס
-אסרף</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>דורון
-קריספין</t>
+          <t>יונג
+שגיא</t>
         </is>
       </c>
       <c r="F71" s="3" t="n"/>
       <c r="G71" s="3" t="n"/>
       <c r="H71" s="3" t="n"/>
-      <c r="I71" s="3" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n"/>
@@ -2115,7 +1991,6 @@
       <c r="F72" s="3" t="n"/>
       <c r="G72" s="3" t="n"/>
       <c r="H72" s="3" t="n"/>
-      <c r="I72" s="3" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n"/>
@@ -2129,12 +2004,7 @@
       <c r="E73" s="3" t="n"/>
       <c r="F73" s="3" t="n"/>
       <c r="G73" s="3" t="n"/>
-      <c r="H73" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I73" s="3" t="n"/>
+      <c r="H73" s="3" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n"/>
@@ -2145,26 +2015,25 @@
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>דימה
-שבצוב</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
+          <t>עמיחי
+שראל</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
           <t>אבנר
-רווה</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>דימנטמן
-מטמוני</t>
+אסרף</t>
         </is>
       </c>
       <c r="F74" s="3" t="n"/>
       <c r="G74" s="3" t="n"/>
       <c r="H74" s="3" t="n"/>
-      <c r="I74" s="3" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n"/>
@@ -2179,7 +2048,6 @@
       <c r="F75" s="3" t="n"/>
       <c r="G75" s="3" t="n"/>
       <c r="H75" s="3" t="n"/>
-      <c r="I75" s="3" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n"/>
@@ -2194,10 +2062,9 @@
       <c r="F76" s="3" t="n"/>
       <c r="G76" s="3" t="n"/>
       <c r="H76" s="3" t="n"/>
-      <c r="I76" s="3" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
+  <mergeCells count="105">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A32"/>
     <mergeCell ref="A33:A56"/>
@@ -2303,19 +2170,6 @@
     <mergeCell ref="G55:G58"/>
     <mergeCell ref="G59:G62"/>
     <mergeCell ref="G63:G76"/>
-    <mergeCell ref="H2:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="H25:H40"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="H49:H64"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="H70:H72"/>
-    <mergeCell ref="H73:H76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,12 +454,11 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,62 +489,53 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>ימח תחתון</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>פטרול</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>א</t>
+          <t>ד</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>דעאל
-עמיחי</t>
+          <t>דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-ניסנוב</t>
+          <t>אנזו
+משה</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>דימה
-שבצוב</t>
+          <t>דובר
+רווה</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
+          <t>יונג
+סיני</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
@@ -553,13 +543,12 @@
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="C4" s="3" t="n"/>
@@ -567,118 +556,99 @@
       <c r="E4" s="3" t="n"/>
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>לומיאנסקי
-ליאור</t>
+          <t>אסף
+אסרף</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>רווה
-קריספין</t>
+          <t>שגיא
+משה החופל</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>כלפה
-דובר</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>מטמוני
-דימנטמן</t>
-        </is>
-      </c>
+          <t>דורון
+שמעון</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="n"/>
       <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="n"/>
       <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>נפמן
+סדון</t>
+        </is>
+      </c>
       <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>ארד
-משה</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-דותן</t>
+          <t>איתי כהן
+עמיחי</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-דוד</t>
+          <t>אור
+יואל</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>יואל
-רוני</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>אנזו
-אסף</t>
-        </is>
-      </c>
+          <t>דימה
+שבצוב</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="n"/>
       <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>ב</t>
-        </is>
-      </c>
+      <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
@@ -686,66 +656,57 @@
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
       <c r="G9" s="3" t="n"/>
-      <c r="H9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>פיאצה
-דבוש</t>
+          <t>דותן
+אגומס</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>רוני
-יואל</t>
+          <t>אלכסיי
+לומיאנסקי</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-יונג</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>שמעון
-לוטם</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">שראל
-שרעבי </t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="n"/>
+          <t>שראל
+פיאצה</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C12" s="3" t="n"/>
@@ -753,13 +714,12 @@
       <c r="E12" s="3" t="n"/>
       <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
-      <c r="H12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
@@ -767,65 +727,53 @@
       <c r="E13" s="3" t="n"/>
       <c r="F13" s="3" t="n"/>
       <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>סיני
-אסרף</t>
+          <t>בן
+נח</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>דעאל
-אגומס</t>
+          <t>ארד
+דעאל</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>עמיחי
-דורון</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>דימה
-שבצוב</t>
-        </is>
-      </c>
+          <t>לואיס
+אבנר</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="3" t="n"/>
       <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C16" s="3" t="n"/>
@@ -833,13 +781,12 @@
       <c r="E16" s="3" t="n"/>
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -850,29 +797,24 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
+          <t>שמעון
+משה</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
           <t>דימנטמן
 מטמוני</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>לומיאנסקי
-אבנר</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
       <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C18" s="3" t="n"/>
@@ -880,13 +822,12 @@
       <c r="E18" s="3" t="n"/>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C19" s="3" t="n"/>
@@ -894,42 +835,40 @@
       <c r="E19" s="3" t="n"/>
       <c r="F19" s="3" t="n"/>
       <c r="G19" s="3" t="n"/>
-      <c r="H19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>כלפה
-דובר</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-ארד</t>
+          <t>אסף
+יונג</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>אסף
-לואיס</t>
+          <t>דורון
+שגיא</t>
         </is>
       </c>
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
-      <c r="H20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C21" s="3" t="n"/>
@@ -937,56 +876,62 @@
       <c r="E21" s="3" t="n"/>
       <c r="F21" s="3" t="n"/>
       <c r="G21" s="3" t="n"/>
-      <c r="H21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="3" t="n"/>
-      <c r="F22" s="3" t="n"/>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>דובר
+כלפה</t>
+        </is>
+      </c>
       <c r="G22" s="3" t="n"/>
-      <c r="H22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-איתי כהן</t>
+          <t>איתי כהן
+אבנר</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>שגיא
-סדון</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>לישי
-יונג</t>
+          <t>אור
+דותן</t>
         </is>
       </c>
       <c r="F23" s="3" t="n"/>
       <c r="G23" s="3" t="n"/>
-      <c r="H23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n"/>
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>ה</t>
+        </is>
+      </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="C24" s="3" t="n"/>
@@ -994,13 +939,12 @@
       <c r="E24" s="3" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
-      <c r="H24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="C25" s="3" t="n"/>
@@ -1008,42 +952,45 @@
       <c r="E25" s="3" t="n"/>
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
-      <c r="H25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>פיאצה
-דבוש</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>אסרף
-עמיחי</t>
+          <t>אגומס
+דעאל</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>שרעבי
+          <t>אלכסיי
+לומיאנסקי</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>ארד
 שראל</t>
         </is>
       </c>
-      <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="n"/>
-      <c r="H26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="C27" s="3" t="n"/>
@@ -1051,13 +998,12 @@
       <c r="E27" s="3" t="n"/>
       <c r="F27" s="3" t="n"/>
       <c r="G27" s="3" t="n"/>
-      <c r="H27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="C28" s="3" t="n"/>
@@ -1065,118 +1011,99 @@
       <c r="E28" s="3" t="n"/>
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
-      <c r="H28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
+          <t>עמיחי
+לואיס</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>דעאל
-אגומס</t>
+          <t>קריספין
+רווה</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-אנדי</t>
-        </is>
-      </c>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> אבנר
-דוד</t>
-        </is>
-      </c>
+          <t>משה
+שמעון</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="n"/>
       <c r="G29" s="3" t="n"/>
-      <c r="H29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="3" t="n"/>
-      <c r="F30" s="3" t="n"/>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
       <c r="G30" s="3" t="n"/>
-      <c r="H30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="3" t="n"/>
       <c r="F31" s="3" t="n"/>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>ליאור
-משה</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>רווה
-קריספין</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>כלפה
-דובר</t>
+          <t>אסף
+יונג</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לומיאנסקי</t>
-        </is>
-      </c>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>יואל
-ארד</t>
-        </is>
-      </c>
+          <t>דורון
+שגיא</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="n"/>
       <c r="G32" s="3" t="n"/>
-      <c r="H32" s="3" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
-        <is>
-          <t>ג</t>
-        </is>
-      </c>
+      <c r="A33" s="3" t="n"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C33" s="3" t="n"/>
@@ -1184,66 +1111,57 @@
       <c r="E33" s="3" t="n"/>
       <c r="F33" s="3" t="n"/>
       <c r="G33" s="3" t="n"/>
-      <c r="H33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="3" t="n"/>
-      <c r="F34" s="3" t="n"/>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="G34" s="3" t="n"/>
-      <c r="H34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>אסף
-דותן</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-סיני</t>
+          <t>אור
+אסרף</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
           <t>איתי כהן
-עמיחי</t>
-        </is>
-      </c>
-      <c r="F35" s="3" t="inlineStr">
-        <is>
-          <t>לואיס
-שגיא</t>
-        </is>
-      </c>
-      <c r="G35" s="3" t="inlineStr">
-        <is>
-          <t>יונג
-סדון</t>
-        </is>
-      </c>
-      <c r="H35" s="3" t="n"/>
+אבנר</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C36" s="3" t="n"/>
@@ -1251,13 +1169,12 @@
       <c r="E36" s="3" t="n"/>
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
-      <c r="H36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C37" s="3" t="n"/>
@@ -1265,65 +1182,53 @@
       <c r="E37" s="3" t="n"/>
       <c r="F37" s="3" t="n"/>
       <c r="G37" s="3" t="n"/>
-      <c r="H37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>דבוש
-פיאצה</t>
+          <t>לוטם
+סיני</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>שראל
+          <t>אנזו
 שרעבי</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
-        </is>
-      </c>
-      <c r="F38" s="3" t="inlineStr">
-        <is>
-          <t>אנזו
-אסרף</t>
-        </is>
-      </c>
+          <t>אנדי
+דוד</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="n"/>
       <c r="G38" s="3" t="n"/>
-      <c r="H38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n"/>
       <c r="E39" s="3" t="n"/>
       <c r="F39" s="3" t="n"/>
-      <c r="G39" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C40" s="3" t="n"/>
@@ -1331,46 +1236,40 @@
       <c r="E40" s="3" t="n"/>
       <c r="F40" s="3" t="n"/>
       <c r="G40" s="3" t="n"/>
-      <c r="H40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-דוד</t>
+          <t>דותן
+ליאור</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
+          <t>אלכסיי
+לומיאנסקי</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
           <t>אגומס
-ליאור</t>
-        </is>
-      </c>
-      <c r="E41" s="3" t="inlineStr">
-        <is>
-          <t>דובר
-משה</t>
-        </is>
-      </c>
-      <c r="F41" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+דעאל</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="n"/>
-      <c r="H41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C42" s="3" t="n"/>
@@ -1378,13 +1277,12 @@
       <c r="E42" s="3" t="n"/>
       <c r="F42" s="3" t="n"/>
       <c r="G42" s="3" t="n"/>
-      <c r="H42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C43" s="3" t="n"/>
@@ -1392,42 +1290,40 @@
       <c r="E43" s="3" t="n"/>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
-      <c r="H43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>דותן
-רווה</t>
+          <t>דובר
+יואל</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לומיאנסקי</t>
+          <t>ארד
+עמיחי</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>יואל
-סיני</t>
+          <t>כלפה
+לואיס</t>
         </is>
       </c>
       <c r="F44" s="3" t="n"/>
       <c r="G44" s="3" t="n"/>
-      <c r="H44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C45" s="3" t="n"/>
@@ -1435,56 +1331,62 @@
       <c r="E45" s="3" t="n"/>
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
-      <c r="H45" s="3" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="C46" s="3" t="n"/>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="3" t="n"/>
-      <c r="F46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>קריספין
+שמעון</t>
+        </is>
+      </c>
       <c r="G46" s="3" t="n"/>
-      <c r="H46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-עמיחי</t>
+          <t>דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>אסף
-שגיא</t>
+          <t>יונג
+נפמן</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>יונג
+          <t>דורון
 סדון</t>
         </is>
       </c>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
-      <c r="H47" s="3" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n"/>
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>ו</t>
+        </is>
+      </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="C48" s="3" t="n"/>
@@ -1492,13 +1394,12 @@
       <c r="E48" s="3" t="n"/>
       <c r="F48" s="3" t="n"/>
       <c r="G48" s="3" t="n"/>
-      <c r="H48" s="3" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="C49" s="3" t="n"/>
@@ -1506,42 +1407,45 @@
       <c r="E49" s="3" t="n"/>
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
-      <c r="H49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>דבוש
-פיאצה</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
+          <t>אור
+אסרף</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>אגומס
-אסרף</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="n"/>
+          <t>אבנר
+איתי כהן</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>לוטם
+שגיא</t>
+        </is>
+      </c>
       <c r="G50" s="3" t="n"/>
-      <c r="H50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n"/>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>03:00</t>
         </is>
       </c>
       <c r="C51" s="3" t="n"/>
@@ -1549,13 +1453,12 @@
       <c r="E51" s="3" t="n"/>
       <c r="F51" s="3" t="n"/>
       <c r="G51" s="3" t="n"/>
-      <c r="H51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="C52" s="3" t="n"/>
@@ -1563,118 +1466,99 @@
       <c r="E52" s="3" t="n"/>
       <c r="F52" s="3" t="n"/>
       <c r="G52" s="3" t="n"/>
-      <c r="H52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n"/>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
+          <t>אנזו
+שרעבי</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
+          <t>דוד
+סיני</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
           <t>אנדי
-דוד</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr">
-        <is>
-          <t>אנזו
 ליאור</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
-        <is>
-          <t>דובר
-משה</t>
-        </is>
-      </c>
+      <c r="F53" s="3" t="n"/>
       <c r="G53" s="3" t="n"/>
-      <c r="H53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n"/>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="C54" s="3" t="n"/>
       <c r="D54" s="3" t="n"/>
       <c r="E54" s="3" t="n"/>
-      <c r="F54" s="3" t="n"/>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t>דותן
+לומיאנסקי</t>
+        </is>
+      </c>
       <c r="G54" s="3" t="n"/>
-      <c r="H54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C55" s="3" t="n"/>
       <c r="D55" s="3" t="n"/>
       <c r="E55" s="3" t="n"/>
       <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="inlineStr">
-        <is>
-          <t>אור
-רווה</t>
-        </is>
-      </c>
-      <c r="H55" s="3" t="n"/>
+      <c r="G55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n"/>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
+          <t>ארד
+כלפה</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>יואל
+לואיס</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
           <t>אלכסיי
-לומיאנסקי</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>נפמן
-סדון</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t>דותן
-יואל</t>
-        </is>
-      </c>
-      <c r="F56" s="3" t="inlineStr">
-        <is>
-          <t>דורון
-סיני</t>
-        </is>
-      </c>
+עמיחי</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="n"/>
       <c r="G56" s="3" t="n"/>
-      <c r="H56" s="3" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
-        <is>
-          <t>ד</t>
-        </is>
-      </c>
+      <c r="A57" s="3" t="n"/>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C57" s="3" t="n"/>
@@ -1682,66 +1566,57 @@
       <c r="E57" s="3" t="n"/>
       <c r="F57" s="3" t="n"/>
       <c r="G57" s="3" t="n"/>
-      <c r="H57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n"/>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>01:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C58" s="3" t="n"/>
       <c r="D58" s="3" t="n"/>
       <c r="E58" s="3" t="n"/>
-      <c r="F58" s="3" t="n"/>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="G58" s="3" t="n"/>
-      <c r="H58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n"/>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>אסף
+          <t>קריספין
 שמעון</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>דימה
-שבצוב</t>
+          <t>דורון
+סדון</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-עמיחי</t>
-        </is>
-      </c>
-      <c r="F59" s="3" t="inlineStr">
-        <is>
-          <t>יונג
-שגיא</t>
-        </is>
-      </c>
-      <c r="G59" s="3" t="inlineStr">
-        <is>
-          <t>דבוש
-פיאצה</t>
-        </is>
-      </c>
-      <c r="H59" s="3" t="n"/>
+          <t>אגומס
+דעאל</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n"/>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C60" s="3" t="n"/>
@@ -1749,13 +1624,12 @@
       <c r="E60" s="3" t="n"/>
       <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="n"/>
-      <c r="H60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C61" s="3" t="n"/>
@@ -1763,65 +1637,53 @@
       <c r="E61" s="3" t="n"/>
       <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="n"/>
-      <c r="H61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n"/>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>אגומס
-אסרף</t>
+          <t>משה
+רווה</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
+          <t>אסף
+דימה</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="inlineStr">
-        <is>
-          <t>אנדי
-דוד</t>
-        </is>
-      </c>
+          <t>אור
+נפמן</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n"/>
       <c r="G62" s="3" t="n"/>
-      <c r="H62" s="3" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n"/>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C63" s="3" t="n"/>
       <c r="D63" s="3" t="n"/>
       <c r="E63" s="3" t="n"/>
       <c r="F63" s="3" t="n"/>
-      <c r="G63" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C64" s="3" t="n"/>
@@ -1829,46 +1691,40 @@
       <c r="E64" s="3" t="n"/>
       <c r="F64" s="3" t="n"/>
       <c r="G64" s="3" t="n"/>
-      <c r="H64" s="3" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n"/>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>ליאור
-רווה</t>
+          <t>דבוש
+שראל</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>דובר
-משה</t>
+          <t>פיאצה
+שבצוב</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לומיאנסקי</t>
-        </is>
-      </c>
-      <c r="F65" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+          <t>אבנר
+אסרף</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n"/>
       <c r="G65" s="3" t="n"/>
-      <c r="H65" s="3" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n"/>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="C66" s="3" t="n"/>
@@ -1876,13 +1732,12 @@
       <c r="E66" s="3" t="n"/>
       <c r="F66" s="3" t="n"/>
       <c r="G66" s="3" t="n"/>
-      <c r="H66" s="3" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n"/>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C67" s="3" t="n"/>
@@ -1890,185 +1745,12 @@
       <c r="E67" s="3" t="n"/>
       <c r="F67" s="3" t="n"/>
       <c r="G67" s="3" t="n"/>
-      <c r="H67" s="3" t="n"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="n"/>
-      <c r="B68" s="3" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="C68" s="3" t="inlineStr">
-        <is>
-          <t>אור
-יואל</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
-          <t>נפמן
-סדון</t>
-        </is>
-      </c>
-      <c r="E68" s="3" t="inlineStr">
-        <is>
-          <t>דותן
-שמעון</t>
-        </is>
-      </c>
-      <c r="F68" s="3" t="n"/>
-      <c r="G68" s="3" t="n"/>
-      <c r="H68" s="3" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="n"/>
-      <c r="B69" s="3" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="n"/>
-      <c r="D69" s="3" t="n"/>
-      <c r="E69" s="3" t="n"/>
-      <c r="F69" s="3" t="n"/>
-      <c r="G69" s="3" t="n"/>
-      <c r="H69" s="3" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="n"/>
-      <c r="B70" s="3" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="n"/>
-      <c r="D70" s="3" t="n"/>
-      <c r="E70" s="3" t="n"/>
-      <c r="F70" s="3" t="n"/>
-      <c r="G70" s="3" t="n"/>
-      <c r="H70" s="3" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="n"/>
-      <c r="B71" s="3" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>אסף
-דורון</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>דימה
-שבצוב</t>
-        </is>
-      </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>יונג
-שגיא</t>
-        </is>
-      </c>
-      <c r="F71" s="3" t="n"/>
-      <c r="G71" s="3" t="n"/>
-      <c r="H71" s="3" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="n"/>
-      <c r="B72" s="3" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="n"/>
-      <c r="D72" s="3" t="n"/>
-      <c r="E72" s="3" t="n"/>
-      <c r="F72" s="3" t="n"/>
-      <c r="G72" s="3" t="n"/>
-      <c r="H72" s="3" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="n"/>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="n"/>
-      <c r="D73" s="3" t="n"/>
-      <c r="E73" s="3" t="n"/>
-      <c r="F73" s="3" t="n"/>
-      <c r="G73" s="3" t="n"/>
-      <c r="H73" s="3" t="n"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="n"/>
-      <c r="B74" s="3" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>דבוש
-פיאצה</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
-          <t>עמיחי
-שראל</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>אבנר
-אסרף</t>
-        </is>
-      </c>
-      <c r="F74" s="3" t="n"/>
-      <c r="G74" s="3" t="n"/>
-      <c r="H74" s="3" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="n"/>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="n"/>
-      <c r="D75" s="3" t="n"/>
-      <c r="E75" s="3" t="n"/>
-      <c r="F75" s="3" t="n"/>
-      <c r="G75" s="3" t="n"/>
-      <c r="H75" s="3" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="3" t="n"/>
-      <c r="B76" s="3" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="n"/>
-      <c r="D76" s="3" t="n"/>
-      <c r="E76" s="3" t="n"/>
-      <c r="F76" s="3" t="n"/>
-      <c r="G76" s="3" t="n"/>
-      <c r="H76" s="3" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="105">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A32"/>
-    <mergeCell ref="A33:A56"/>
-    <mergeCell ref="A57:A76"/>
+  <mergeCells count="80">
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="A48:A67"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -2091,9 +1773,6 @@
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="C62:C64"/>
     <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C74:C76"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
@@ -2116,9 +1795,6 @@
     <mergeCell ref="D59:D61"/>
     <mergeCell ref="D62:D64"/>
     <mergeCell ref="D65:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="D74:D76"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
@@ -2141,35 +1817,17 @@
     <mergeCell ref="E59:E61"/>
     <mergeCell ref="E62:E64"/>
     <mergeCell ref="E65:E67"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F28"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="F41:F52"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="F62:F64"/>
-    <mergeCell ref="F65:F76"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="G15:G30"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="G39:G54"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="G63:G76"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F10:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="F34:F45"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F58:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -457,7 +457,7 @@
     <col width="16" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -597,8 +597,7 @@
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G6" s="3" t="n"/>
@@ -667,11 +666,7 @@
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
     </row>
     <row r="11">
@@ -1052,8 +1047,7 @@
       <c r="E30" s="3" t="n"/>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G30" s="3" t="n"/>
@@ -1122,11 +1116,7 @@
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="3" t="n"/>
-      <c r="F34" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="F34" s="3" t="n"/>
       <c r="G34" s="3" t="n"/>
     </row>
     <row r="35">
@@ -1300,14 +1290,14 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>דובר
+          <t>דימנטמן
+מטמוני</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>ארד
 יואל</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>ארד
-עמיחי</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
@@ -1344,8 +1334,8 @@
       <c r="E46" s="3" t="n"/>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>קריספין
-שמעון</t>
+          <t>דובר
+קריספין</t>
         </is>
       </c>
       <c r="G46" s="3" t="n"/>
@@ -1359,14 +1349,14 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
+          <t>איתי כהן
+עמיחי</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
           <t>יונג
-נפמן</t>
+שמעון</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -1417,26 +1407,26 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>דימה
+          <t>נפמן
+שגיא</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>אור
+דימה</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+אסרף</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
 שבצוב</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>אור
-אסרף</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>אבנר
-איתי כהן</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="inlineStr">
-        <is>
-          <t>לוטם
-שגיא</t>
         </is>
       </c>
       <c r="G50" s="3" t="n"/>
@@ -1476,20 +1466,20 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-שרעבי</t>
+          <t>ארד
+יואל</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>דוד
-סיני</t>
+          <t>לואיס
+מטמוני</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-ליאור</t>
+          <t>דותן
+דימנטמן</t>
         </is>
       </c>
       <c r="F53" s="3" t="n"/>
@@ -1507,8 +1497,7 @@
       <c r="E54" s="3" t="n"/>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>דותן
-לומיאנסקי</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G54" s="3" t="n"/>
@@ -1535,20 +1524,20 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>ארד
-כלפה</t>
+          <t>כלפה
+קריספין</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>יואל
-לואיס</t>
+          <t>איתי כהן
+עמיחי</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-עמיחי</t>
+          <t>יונג
+סדון</t>
         </is>
       </c>
       <c r="F56" s="3" t="n"/>
@@ -1577,11 +1566,7 @@
       <c r="C58" s="3" t="n"/>
       <c r="D58" s="3" t="n"/>
       <c r="E58" s="3" t="n"/>
-      <c r="F58" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="F58" s="3" t="n"/>
       <c r="G58" s="3" t="n"/>
     </row>
     <row r="59">
@@ -1593,20 +1578,20 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>קריספין
+          <t>דורון
+נפמן</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>אור
 שמעון</t>
         </is>
       </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>דורון
-סדון</t>
-        </is>
-      </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>אגומס
-דעאל</t>
+          <t>אסרף
+דימה</t>
         </is>
       </c>
       <c r="F59" s="3" t="n"/>
@@ -1647,20 +1632,20 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>משה
+          <t>ארד
+יואל</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>לואיס
+מרדש</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>אסף
 רווה</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>אסף
-דימה</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>אור
-נפמן</t>
         </is>
       </c>
       <c r="F62" s="3" t="n"/>
@@ -1701,20 +1686,20 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
+          <t>כלפה
+קריספין</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>משה
+פיאצה</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
           <t>דבוש
-שראל</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>פיאצה
 שבצוב</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>אבנר
-אסרף</t>
         </is>
       </c>
       <c r="F65" s="3" t="n"/>
@@ -1747,7 +1732,7 @@
       <c r="G67" s="3" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="77">
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A47"/>
     <mergeCell ref="A48:A67"/>
@@ -1818,16 +1803,13 @@
     <mergeCell ref="E62:E64"/>
     <mergeCell ref="E65:E67"/>
     <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F21"/>
+    <mergeCell ref="F6:F21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="F34:F45"/>
+    <mergeCell ref="F30:F45"/>
     <mergeCell ref="F46:F49"/>
     <mergeCell ref="F50:F53"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F58:F67"/>
+    <mergeCell ref="F54:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -1290,20 +1290,20 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
+          <t>משה
+עמיחי</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
           <t>דבוש
 פיאצה</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>מרדש
 ניסנוב</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>קריספין
-רווה</t>
         </is>
       </c>
       <c r="F44" s="3" t="n"/>
@@ -1334,8 +1334,8 @@
       <c r="E46" s="3" t="n"/>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
+          <t>אגומס
+דעאל</t>
         </is>
       </c>
       <c r="G46" s="3" t="n"/>
@@ -1349,20 +1349,20 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
+          <t>שראל
+שרעבי</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>יונג
+שגיא</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
           <t>דימנטמן
 מטמוני</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>אגומס
-דעאל</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t>משה
-עמיחי</t>
         </is>
       </c>
       <c r="F47" s="3" t="n"/>
@@ -1407,20 +1407,20 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>יונג
-שגיא</t>
+          <t>דובר
+כלפה</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>קריספין
+רווה</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
         <is>
           <t>אנדי
 דוד</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>ארד
-יואל</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
@@ -1466,20 +1466,20 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>דותן
+          <t>נפמן
+סדון</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>לואיס
 שמעון</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>דורון
-לואיס</t>
-        </is>
-      </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>דובר
-כלפה</t>
+          <t>ארד
+יואל</t>
         </is>
       </c>
       <c r="F53" s="3" t="n"/>
@@ -1524,20 +1524,20 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>קריספין
-רווה</t>
+          <t>אור
+דותן</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>אור
-אסף</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>אסף
+דורון</t>
         </is>
       </c>
       <c r="F56" s="3" t="n"/>
@@ -1578,20 +1578,20 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>דימה
-שבצוב</t>
+          <t>אסרף
+ליאור</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>אנזו
-אסרף</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
         <is>
           <t>לוטם
 סיני</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+אנזו</t>
         </is>
       </c>
       <c r="F59" s="3" t="n"/>
@@ -1632,20 +1632,20 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-ניסנוב</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>ליאור
-מרדש</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
           <t>דבוש
 פיאצה</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>שראל
+שרעבי</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+עמיחי</t>
         </is>
       </c>
       <c r="F62" s="3" t="n"/>
@@ -1686,20 +1686,20 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
+          <t>אגומס
+דעאל</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
           <t>משה
-שגיא</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-עמיחי</t>
+ניסנוב</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
+          <t>קריספין
+רווה</t>
         </is>
       </c>
       <c r="F65" s="3" t="n"/>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -454,10 +454,10 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -1290,20 +1290,20 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>משה
-עמיחי</t>
+          <t>שראל
+שרעבי</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>מרדש
+ניסנוב</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>דבוש
 פיאצה</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>מרדש
-ניסנוב</t>
         </is>
       </c>
       <c r="F44" s="3" t="n"/>
@@ -1349,14 +1349,14 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
+          <t>עמיחי
+שגיא</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
           <t>יונג
-שגיא</t>
+משה</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
@@ -1407,26 +1407,26 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
+          <t>אלכסיי
+לומיאנסקי</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
+דוד</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>קריספין
+רווה</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
           <t>דובר
 כלפה</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>קריספין
-רווה</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>אנדי
-דוד</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="inlineStr">
-        <is>
-          <t>אלכסיי
-לומיאנסקי</t>
         </is>
       </c>
       <c r="G50" s="3" t="n"/>
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
+          <t>דורון
+שמעון</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
           <t>נפמן
 סדון</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>לואיס
-שמעון</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
@@ -1524,20 +1524,20 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>אור
-דותן</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
           <t>דימה
 שבצוב</t>
         </is>
       </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>אסף
+לואיס</t>
+        </is>
+      </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>אסף
-דורון</t>
+          <t>אבנר
+אור</t>
         </is>
       </c>
       <c r="F56" s="3" t="n"/>
@@ -1578,8 +1578,8 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>אסרף
-ליאור</t>
+          <t>אנזו
+דותן</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -1590,8 +1590,8 @@
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-אנזו</t>
+          <t>מרדש
+ניסנוב</t>
         </is>
       </c>
       <c r="F59" s="3" t="n"/>
@@ -1638,14 +1638,14 @@
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
+          <t>ליאור
+שגיא</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
           <t>שראל
 שרעבי</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-עמיחי</t>
         </is>
       </c>
       <c r="F62" s="3" t="n"/>
@@ -1686,20 +1686,20 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>אגומס
-דעאל</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>משה
-ניסנוב</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
           <t>קריספין
 רווה</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+עמיחי</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>אסרף
+משה</t>
         </is>
       </c>
       <c r="F65" s="3" t="n"/>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -597,7 +597,9 @@
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>נח
+דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="G6" s="3" t="n"/>
@@ -612,7 +614,11 @@
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="G7" s="3" t="n"/>
     </row>
     <row r="8">
@@ -798,7 +804,7 @@
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>אגומס
+          <t>לואיס
 דעאל</t>
         </is>
       </c>
@@ -846,14 +852,14 @@
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
+          <t>דובר
+כלפה</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
           <t>ארד
 יואל</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>כלפה
-לואיס</t>
         </is>
       </c>
       <c r="F20" s="3" t="n"/>
@@ -884,8 +890,8 @@
       <c r="E22" s="3" t="n"/>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-עמיחי</t>
+          <t>קריספין
+שמעון</t>
         </is>
       </c>
       <c r="G22" s="3" t="n"/>
@@ -899,20 +905,20 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
+          <t>נפמן
+סדון</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+לישי</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
           <t>דורון
-שמעון</t>
-        </is>
-      </c>
-      <c r="D23" s="3" t="inlineStr">
-        <is>
-          <t>סדון
-קריספין</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="inlineStr">
-        <is>
-          <t>יונג
-שגיא</t>
+יונג</t>
         </is>
       </c>
       <c r="F23" s="3" t="n"/>
@@ -957,26 +963,26 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>דובר
-נפמן</t>
+          <t>אבנר
+שגיא</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>אסרף
-דימה</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-אור</t>
+          <t>אור
+אסרף</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
           <t>לוטם
-שבצוב</t>
+סיני</t>
         </is>
       </c>
       <c r="G26" s="3" t="n"/>
@@ -1016,19 +1022,19 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>סיני
+          <t>אנזו
 שרעבי</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-דוד</t>
+          <t>דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>אנדי
+          <t>דותן
 ליאור</t>
         </is>
       </c>
@@ -1074,20 +1080,20 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
+          <t>אלכסיי
+לומיאנסקי</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
           <t>דעאל
-לומיאנסקי</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>ארד
-יואל</t>
+לואיס</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-דותן</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="F32" s="3" t="n"/>
@@ -1128,19 +1134,19 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>קריספין
+          <t>כלפה
 שמעון</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>כלפה
-לואיס</t>
+          <t>ארד
+יואל</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>דורון
+          <t>נפמן
 סדון</t>
         </is>
       </c>
@@ -1182,20 +1188,20 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
+          <t>מרדש
+משה</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
           <t>אסף
-נפמן</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="inlineStr">
-        <is>
-          <t>דימה
-שבצוב</t>
+דורון</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>אור
-אסרף</t>
+          <t>קריספין
+רווה</t>
         </is>
       </c>
       <c r="F38" s="3" t="n"/>
@@ -1236,20 +1242,20 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-אנזו</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-סיני</t>
+          <t>שראל
+שרעבי</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-ליאור</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="F41" s="3" t="n"/>
@@ -1281,461 +1287,10 @@
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="n"/>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>שראל
-שרעבי</t>
-        </is>
-      </c>
-      <c r="D44" s="3" t="inlineStr">
-        <is>
-          <t>מרדש
-ניסנוב</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>דבוש
-פיאצה</t>
-        </is>
-      </c>
-      <c r="F44" s="3" t="n"/>
-      <c r="G44" s="3" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="n"/>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="n"/>
-      <c r="D45" s="3" t="n"/>
-      <c r="E45" s="3" t="n"/>
-      <c r="F45" s="3" t="n"/>
-      <c r="G45" s="3" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="n"/>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="n"/>
-      <c r="D46" s="3" t="n"/>
-      <c r="E46" s="3" t="n"/>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>אגומס
-דעאל</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="n"/>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>23:00</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>עמיחי
-שגיא</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>יונג
-משה</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t>דימנטמן
-מטמוני</t>
-        </is>
-      </c>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
-        <is>
-          <t>שבת</t>
-        </is>
-      </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="n"/>
-      <c r="D48" s="3" t="n"/>
-      <c r="E48" s="3" t="n"/>
-      <c r="F48" s="3" t="n"/>
-      <c r="G48" s="3" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="n"/>
-      <c r="B49" s="3" t="inlineStr">
-        <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="n"/>
-      <c r="D49" s="3" t="n"/>
-      <c r="E49" s="3" t="n"/>
-      <c r="F49" s="3" t="n"/>
-      <c r="G49" s="3" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="n"/>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>אלכסיי
-לומיאנסקי</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>אנדי
-דוד</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr">
-        <is>
-          <t>קריספין
-רווה</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="inlineStr">
-        <is>
-          <t>דובר
-כלפה</t>
-        </is>
-      </c>
-      <c r="G50" s="3" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="n"/>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>03:00</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="n"/>
-      <c r="D51" s="3" t="n"/>
-      <c r="E51" s="3" t="n"/>
-      <c r="F51" s="3" t="n"/>
-      <c r="G51" s="3" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>04:00</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="n"/>
-      <c r="D52" s="3" t="n"/>
-      <c r="E52" s="3" t="n"/>
-      <c r="F52" s="3" t="n"/>
-      <c r="G52" s="3" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="n"/>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>05:00</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>דורון
-שמעון</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>נפמן
-סדון</t>
-        </is>
-      </c>
-      <c r="E53" s="3" t="inlineStr">
-        <is>
-          <t>ארד
-יואל</t>
-        </is>
-      </c>
-      <c r="F53" s="3" t="n"/>
-      <c r="G53" s="3" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="n"/>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>06:00</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="n"/>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="3" t="n"/>
-      <c r="F54" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G54" s="3" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="n"/>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="n"/>
-      <c r="D55" s="3" t="n"/>
-      <c r="E55" s="3" t="n"/>
-      <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="n"/>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t>דימה
-שבצוב</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
-        <is>
-          <t>אסף
-לואיס</t>
-        </is>
-      </c>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t>אבנר
-אור</t>
-        </is>
-      </c>
-      <c r="F56" s="3" t="n"/>
-      <c r="G56" s="3" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="n"/>
-      <c r="B57" s="3" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="n"/>
-      <c r="D57" s="3" t="n"/>
-      <c r="E57" s="3" t="n"/>
-      <c r="F57" s="3" t="n"/>
-      <c r="G57" s="3" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="n"/>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="n"/>
-      <c r="D58" s="3" t="n"/>
-      <c r="E58" s="3" t="n"/>
-      <c r="F58" s="3" t="n"/>
-      <c r="G58" s="3" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="n"/>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>אנזו
-דותן</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>לוטם
-סיני</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
-          <t>מרדש
-ניסנוב</t>
-        </is>
-      </c>
-      <c r="F59" s="3" t="n"/>
-      <c r="G59" s="3" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="n"/>
-      <c r="B60" s="3" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="n"/>
-      <c r="D60" s="3" t="n"/>
-      <c r="E60" s="3" t="n"/>
-      <c r="F60" s="3" t="n"/>
-      <c r="G60" s="3" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="n"/>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="n"/>
-      <c r="D61" s="3" t="n"/>
-      <c r="E61" s="3" t="n"/>
-      <c r="F61" s="3" t="n"/>
-      <c r="G61" s="3" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="n"/>
-      <c r="B62" s="3" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>דבוש
-פיאצה</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>ליאור
-שגיא</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>שראל
-שרעבי</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="n"/>
-      <c r="G62" s="3" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="n"/>
-      <c r="B63" s="3" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="n"/>
-      <c r="D63" s="3" t="n"/>
-      <c r="E63" s="3" t="n"/>
-      <c r="F63" s="3" t="n"/>
-      <c r="G63" s="3" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="n"/>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="n"/>
-      <c r="D64" s="3" t="n"/>
-      <c r="E64" s="3" t="n"/>
-      <c r="F64" s="3" t="n"/>
-      <c r="G64" s="3" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="n"/>
-      <c r="B65" s="3" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>קריספין
-רווה</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-עמיחי</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr">
-        <is>
-          <t>אסרף
-משה</t>
-        </is>
-      </c>
-      <c r="F65" s="3" t="n"/>
-      <c r="G65" s="3" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="n"/>
-      <c r="B66" s="3" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="n"/>
-      <c r="D66" s="3" t="n"/>
-      <c r="E66" s="3" t="n"/>
-      <c r="F66" s="3" t="n"/>
-      <c r="G66" s="3" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="n"/>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="n"/>
-      <c r="D67" s="3" t="n"/>
-      <c r="E67" s="3" t="n"/>
-      <c r="F67" s="3" t="n"/>
-      <c r="G67" s="3" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="49">
     <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A47"/>
-    <mergeCell ref="A48:A67"/>
+    <mergeCell ref="A24:A43"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -1750,14 +1305,6 @@
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C65:C67"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
@@ -1772,14 +1319,6 @@
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D65:D67"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
@@ -1794,22 +1333,11 @@
     <mergeCell ref="E35:E37"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="E65:E67"/>
     <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F21"/>
+    <mergeCell ref="F7:F21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F30:F45"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="F54:F67"/>
+    <mergeCell ref="F30:F43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -455,9 +455,9 @@
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -497,7 +497,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>ה</t>
+          <t>ו</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -507,26 +507,26 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>דבוש
-פיאצה</t>
+          <t>אבנר
+שגיא</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>אגומס
-דעאל</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לומיאנסקי</t>
+          <t>אור
+אסרף</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>ארד
-שראל</t>
+          <t>לוטם
+סיני</t>
         </is>
       </c>
       <c r="G2" s="3" t="n"/>
@@ -566,20 +566,20 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>עמיחי
-לואיס</t>
+          <t>אנזו
+שרעבי</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>קריספין
-רווה</t>
+          <t>דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>משה
-שמעון</t>
+          <t>דותן
+ליאור</t>
         </is>
       </c>
       <c r="F5" s="3" t="n"/>
@@ -597,9 +597,7 @@
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>נח
-דימנטמן
-מטמוני</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="G6" s="3" t="n"/>
@@ -614,11 +612,7 @@
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="3" t="n"/>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
       <c r="G7" s="3" t="n"/>
     </row>
     <row r="8">
@@ -630,20 +624,20 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>אלכסיי
+לומיאנסקי</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>אסף
-יונג</t>
+          <t>דעאל
+לואיס</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>דורון
-שגיא</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="F8" s="3" t="n"/>
@@ -684,20 +678,20 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>דימה
-שבצוב</t>
+          <t>כלפה
+שמעון</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>אור
-אסרף</t>
+          <t>ארד
+יואל</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-אבנר</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="F11" s="3" t="n"/>
@@ -738,20 +732,20 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-סיני</t>
+          <t>מרדש
+משה</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-שרעבי</t>
+          <t>אסף
+דורון</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-דוד</t>
+          <t>קריספין
+רווה</t>
         </is>
       </c>
       <c r="F14" s="3" t="n"/>
@@ -792,20 +786,20 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>דותן
-ליאור</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לומיאנסקי</t>
+          <t>שראל
+שרעבי</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>לואיס
-דעאל</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="F17" s="3" t="n"/>
@@ -846,20 +840,20 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
+          <t>לוטם
+סיני</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>דובר
-כלפה</t>
+          <t>אור
+אסרף</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>ארד
-יואל</t>
+          <t>אבנר
+איתי כהן</t>
         </is>
       </c>
       <c r="F20" s="3" t="n"/>
@@ -890,8 +884,8 @@
       <c r="E22" s="3" t="n"/>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>קריספין
-שמעון</t>
+          <t>דעאל
+לומיאנסקי</t>
         </is>
       </c>
       <c r="G22" s="3" t="n"/>
@@ -905,20 +899,20 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>שגיא
+ליאור</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-לישי</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>דורון
-יונג</t>
+          <t>אנזו
+כלפה</t>
         </is>
       </c>
       <c r="F23" s="3" t="n"/>
@@ -927,7 +921,7 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>ו</t>
+          <t>שבת</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -963,26 +957,26 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-שגיא</t>
+          <t>ארד
+יואל</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>דימה
-שבצוב</t>
+          <t>מרדש
+משה</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>אור
-אסרף</t>
+          <t>לואיס
+שמעון</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-סיני</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="G26" s="3" t="n"/>
@@ -1022,20 +1016,20 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-שרעבי</t>
+          <t>אסף
+דורון</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>דימנטמן
-מטמוני</t>
+          <t>קריספין
+רווה</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>דותן
-ליאור</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="F29" s="3" t="n"/>
@@ -1080,20 +1074,20 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי
-לומיאנסקי</t>
+          <t>שראל
+שרעבי</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>דעאל
-לואיס</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-דוד</t>
+          <t>אור
+אסרף</t>
         </is>
       </c>
       <c r="F32" s="3" t="n"/>
@@ -1134,20 +1128,20 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>כלפה
-שמעון</t>
+          <t>אבנר
+לומיאנסקי</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>ארד
-יואל</t>
+          <t>איתי כהן
+כלפה</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>לוטם
+סיני</t>
         </is>
       </c>
       <c r="F35" s="3" t="n"/>
@@ -1188,20 +1182,20 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>מרדש
-משה</t>
+          <t>דעאל
+שגיא</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>אסף
-דורון</t>
+          <t>לואיס
+אנזו</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>קריספין
-רווה</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="F38" s="3" t="n"/>
@@ -1242,20 +1236,20 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>דבוש
-פיאצה</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
+          <t>ארד
+יואל</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>דימה
-שבצוב</t>
+          <t>ליאור
+משה</t>
         </is>
       </c>
       <c r="F41" s="3" t="n"/>
@@ -1334,7 +1328,7 @@
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F7:F21"/>
+    <mergeCell ref="F6:F21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="F26:F29"/>
     <mergeCell ref="F30:F43"/>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,10 +1281,461 @@
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
     </row>
+    <row r="44">
+      <c r="A44" s="3" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>מרדש
+שמעון</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>דבוש
+פיאצה</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>אסף
+דורון</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="n"/>
+      <c r="G44" s="3" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+      <c r="E45" s="3" t="n"/>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" s="3" t="n"/>
+      <c r="E46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>קריספין
+רווה</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>אור
+אסרף</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>שראל
+שרעבי</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>דימה
+שבצוב</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>א</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="n"/>
+      <c r="D48" s="3" t="n"/>
+      <c r="E48" s="3" t="n"/>
+      <c r="F48" s="3" t="n"/>
+      <c r="G48" s="3" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
+לואיס</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>לוטם
+סיני</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+כלפה</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+דעאל</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="3" t="n"/>
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n"/>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="n"/>
+      <c r="D52" s="3" t="n"/>
+      <c r="E52" s="3" t="n"/>
+      <c r="F52" s="3" t="n"/>
+      <c r="G52" s="3" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>אנדי
+דוד</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>לומיאנסקי
+שגיא</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>נפמן
+סדון</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="n"/>
+      <c r="G53" s="3" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="n"/>
+      <c r="D54" s="3" t="n"/>
+      <c r="E54" s="3" t="n"/>
+      <c r="F54" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G54" s="3" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="n"/>
+      <c r="G55" s="3" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>דבוש
+פיאצה</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>ליאור
+משה</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>ארד
+יואל</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="n"/>
+      <c r="G56" s="3" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="n"/>
+      <c r="D58" s="3" t="n"/>
+      <c r="E58" s="3" t="n"/>
+      <c r="F58" s="3" t="n"/>
+      <c r="G58" s="3" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>אסף
+דורון</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>מרדש
+שמעון</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>קריספין
+רווה</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n"/>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="n"/>
+      <c r="D60" s="3" t="n"/>
+      <c r="E60" s="3" t="n"/>
+      <c r="F60" s="3" t="n"/>
+      <c r="G60" s="3" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n"/>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="3" t="n"/>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n"/>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>דותן
+ניסנוב</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>אור
+אסרף</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>שראל
+שרעבי</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="n"/>
+      <c r="G62" s="3" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n"/>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n"/>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="n"/>
+      <c r="D64" s="3" t="n"/>
+      <c r="E64" s="3" t="n"/>
+      <c r="F64" s="3" t="n"/>
+      <c r="G64" s="3" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n"/>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>דימה
+שבצוב</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>דובר
+כלפה</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>לוטם
+סיני</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n"/>
+      <c r="G65" s="3" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n"/>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="n"/>
+      <c r="D66" s="3" t="n"/>
+      <c r="E66" s="3" t="n"/>
+      <c r="F66" s="3" t="n"/>
+      <c r="G66" s="3" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n"/>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="3" t="n"/>
+      <c r="E67" s="3" t="n"/>
+      <c r="F67" s="3" t="n"/>
+      <c r="G67" s="3" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="77">
     <mergeCell ref="A2:A23"/>
-    <mergeCell ref="A24:A43"/>
+    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="A48:A67"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -1299,6 +1750,14 @@
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C40"/>
     <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C65:C67"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
@@ -1313,6 +1772,14 @@
     <mergeCell ref="D35:D37"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D65:D67"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
@@ -1327,11 +1794,22 @@
     <mergeCell ref="E35:E37"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="E65:E67"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="F6:F21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F30:F43"/>
+    <mergeCell ref="F30:F45"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="F54:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -456,7 +456,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
   </cols>
@@ -1296,14 +1296,14 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>דבוש
-פיאצה</t>
+          <t>אור
+דורון</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>אסף
-דורון</t>
+          <t>קריספין
+רווה</t>
         </is>
       </c>
       <c r="F44" s="3" t="n"/>
@@ -1334,8 +1334,8 @@
       <c r="E46" s="3" t="n"/>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>קריספין
-רווה</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="G46" s="3" t="n"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>אור
+          <t>אסף
 אסרף</t>
         </is>
       </c>
@@ -1407,26 +1407,26 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-לואיס</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
           <t>לוטם
 סיני</t>
         </is>
       </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>אבנר
+לומיאנסקי</t>
+        </is>
+      </c>
       <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>דעאל
+שגיא</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="inlineStr">
         <is>
           <t>איתי כהן
 כלפה</t>
-        </is>
-      </c>
-      <c r="F50" s="3" t="inlineStr">
-        <is>
-          <t>אבנר
-דעאל</t>
         </is>
       </c>
       <c r="G50" s="3" t="n"/>
@@ -1466,14 +1466,14 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
+          <t>אנזו
+לואיס</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
           <t>אנדי
 דוד</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>לומיאנסקי
-שגיא</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
@@ -1524,8 +1524,8 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>דבוש
-פיאצה</t>
+          <t>ארד
+יואל</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -1536,8 +1536,8 @@
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>ארד
-יואל</t>
+          <t>דורון
+שמעון</t>
         </is>
       </c>
       <c r="F56" s="3" t="n"/>
@@ -1578,20 +1578,20 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>אסף
-דורון</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>מרדש
-שמעון</t>
-        </is>
-      </c>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
           <t>קריספין
 רווה</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>דבוש
+פיאצה</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>אור
+מרדש</t>
         </is>
       </c>
       <c r="F59" s="3" t="n"/>
@@ -1632,20 +1632,20 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>דותן
-ניסנוב</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>אור
-אסרף</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
           <t>שראל
 שרעבי</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>יונג
+ניסנוב</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>דימנטמן
+מטמוני</t>
         </is>
       </c>
       <c r="F62" s="3" t="n"/>
@@ -1692,14 +1692,14 @@
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>דובר
-כלפה</t>
+          <t>דותן
+שגיא</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-סיני</t>
+          <t>אסף
+אסרף</t>
         </is>
       </c>
       <c r="F65" s="3" t="n"/>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,12 @@
   <cols>
     <col width="6" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -492,7 +493,12 @@
           <t>פטרול</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>כתת כוננות</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -507,29 +513,34 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>אסרף
+יונג</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>דורון
+שגיא</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>אבנר
-שגיא</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>דימה
-שבצוב</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>אור
-אסרף</t>
+ליאור</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-סיני</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="n"/>
+          <t>ארד
+יואל</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>11 חדר</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n"/>
@@ -543,6 +554,7 @@
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n"/>
@@ -556,6 +568,7 @@
       <c r="E4" s="3" t="n"/>
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n"/>
@@ -566,24 +579,25 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-שרעבי</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
           <t>דימנטמן
 מטמוני</t>
         </is>
       </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>אנזו
+לואיס</t>
+        </is>
+      </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>דותן
-ליאור</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="F5" s="3" t="n"/>
       <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n"/>
@@ -597,10 +611,11 @@
       <c r="E6" s="3" t="n"/>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>5 תורני רס"פ - חדר</t>
         </is>
       </c>
       <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n"/>
@@ -614,6 +629,7 @@
       <c r="E7" s="3" t="n"/>
       <c r="F7" s="3" t="n"/>
       <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n"/>
@@ -624,24 +640,29 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
+          <t>כלפה
+ניסנוב</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
           <t>אלכסיי
 לומיאנסקי</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>דעאל
-לואיס</t>
-        </is>
-      </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-דוד</t>
+          <t>אגומס
+דעאל</t>
         </is>
       </c>
       <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>9 חדר</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n"/>
@@ -655,6 +676,7 @@
       <c r="E9" s="3" t="n"/>
       <c r="F9" s="3" t="n"/>
       <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n"/>
@@ -668,6 +690,7 @@
       <c r="E10" s="3" t="n"/>
       <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
+      <c r="H10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n"/>
@@ -678,24 +701,25 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>כלפה
+          <t>קריספין
 שמעון</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>ארד
-יואל</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>איתי כהן
+שרעבי</t>
         </is>
       </c>
       <c r="F11" s="3" t="n"/>
       <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n"/>
@@ -709,6 +733,7 @@
       <c r="E12" s="3" t="n"/>
       <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n"/>
@@ -722,6 +747,7 @@
       <c r="E13" s="3" t="n"/>
       <c r="F13" s="3" t="n"/>
       <c r="G13" s="3" t="n"/>
+      <c r="H13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n"/>
@@ -732,24 +758,29 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>מרדש
-משה</t>
+          <t>לוטם
+סיני</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>אסף
-דורון</t>
+          <t>משה
+רווה</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>קריספין
-רווה</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>8 חדר</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n"/>
@@ -763,6 +794,7 @@
       <c r="E15" s="3" t="n"/>
       <c r="F15" s="3" t="n"/>
       <c r="G15" s="3" t="n"/>
+      <c r="H15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n"/>
@@ -776,6 +808,7 @@
       <c r="E16" s="3" t="n"/>
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
+      <c r="H16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n"/>
@@ -786,24 +819,25 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
+          <t>ארד
+יואל</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
           <t>דבוש
 פיאצה</t>
         </is>
       </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>שראל
-שרעבי</t>
-        </is>
-      </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>דימה
-שבצוב</t>
+          <t>אור
+שראל</t>
         </is>
       </c>
       <c r="F17" s="3" t="n"/>
       <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n"/>
@@ -817,6 +851,7 @@
       <c r="E18" s="3" t="n"/>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n"/>
@@ -830,6 +865,7 @@
       <c r="E19" s="3" t="n"/>
       <c r="F19" s="3" t="n"/>
       <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n"/>
@@ -840,24 +876,29 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-סיני</t>
+          <t>אנזו
+שגיא</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>אור
-אסרף</t>
+          <t>אבנר
+ליאור</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-איתי כהן</t>
+          <t>דורון
+מרדש</t>
         </is>
       </c>
       <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>10 חדר</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n"/>
@@ -871,6 +912,7 @@
       <c r="E21" s="3" t="n"/>
       <c r="F21" s="3" t="n"/>
       <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n"/>
@@ -884,11 +926,12 @@
       <c r="E22" s="3" t="n"/>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>דעאל
-לומיאנסקי</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n"/>
@@ -899,24 +942,25 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>שגיא
-ליאור</t>
+          <t>לואיס
+לומיאנסקי</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-דוד</t>
+          <t>דעאל
+כלפה</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>אנזו
-כלפה</t>
+          <t>אסף
+אסרף</t>
         </is>
       </c>
       <c r="F23" s="3" t="n"/>
       <c r="G23" s="3" t="n"/>
+      <c r="H23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
@@ -934,6 +978,7 @@
       <c r="E24" s="3" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
+      <c r="H24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n"/>
@@ -947,6 +992,7 @@
       <c r="E25" s="3" t="n"/>
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
+      <c r="H25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n"/>
@@ -957,29 +1003,34 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>ארד
-יואל</t>
+          <t>שראל
+שרעבי</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>מרדש
-משה</t>
+          <t>קריספין
+רווה</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>לואיס
+          <t>דימה
+שבצוב</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
 שמעון</t>
         </is>
       </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>נפמן
-סדון</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="n"/>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>6 חדר</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n"/>
@@ -993,6 +1044,7 @@
       <c r="E27" s="3" t="n"/>
       <c r="F27" s="3" t="n"/>
       <c r="G27" s="3" t="n"/>
+      <c r="H27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n"/>
@@ -1006,6 +1058,7 @@
       <c r="E28" s="3" t="n"/>
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
+      <c r="H28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n"/>
@@ -1016,24 +1069,25 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>אסף
-דורון</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>קריספין
-רווה</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
           <t>דבוש
 פיאצה</t>
         </is>
       </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>נפמן
+סדון</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>לוטם
+סיני</t>
+        </is>
+      </c>
       <c r="F29" s="3" t="n"/>
       <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n"/>
@@ -1047,10 +1101,11 @@
       <c r="E30" s="3" t="n"/>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>6 תורני רס"פ - חדר</t>
         </is>
       </c>
       <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n"/>
@@ -1064,6 +1119,7 @@
       <c r="E31" s="3" t="n"/>
       <c r="F31" s="3" t="n"/>
       <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n"/>
@@ -1074,24 +1130,29 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
+          <t>אבנר
+ליאור</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>דימה
-שבצוב</t>
+          <t>אור
+מרדש</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>אור
-אסרף</t>
+          <t>ארד
+יואל</t>
         </is>
       </c>
       <c r="F32" s="3" t="n"/>
-      <c r="G32" s="3" t="n"/>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>5 חדר</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n"/>
@@ -1105,6 +1166,7 @@
       <c r="E33" s="3" t="n"/>
       <c r="F33" s="3" t="n"/>
       <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n"/>
@@ -1118,6 +1180,7 @@
       <c r="E34" s="3" t="n"/>
       <c r="F34" s="3" t="n"/>
       <c r="G34" s="3" t="n"/>
+      <c r="H34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n"/>
@@ -1128,24 +1191,25 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-לומיאנסקי</t>
+          <t>אסף
+אסרף</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-כלפה</t>
+          <t>דורון
+שגיא</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-סיני</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="F35" s="3" t="n"/>
       <c r="G35" s="3" t="n"/>
+      <c r="H35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n"/>
@@ -1159,6 +1223,7 @@
       <c r="E36" s="3" t="n"/>
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
+      <c r="H36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n"/>
@@ -1172,6 +1237,7 @@
       <c r="E37" s="3" t="n"/>
       <c r="F37" s="3" t="n"/>
       <c r="G37" s="3" t="n"/>
+      <c r="H37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n"/>
@@ -1183,23 +1249,28 @@
       <c r="C38" s="3" t="inlineStr">
         <is>
           <t>דעאל
-שגיא</t>
+כלפה</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
           <t>לואיס
-אנזו</t>
+לומיאנסקי</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>אנדי
-דוד</t>
+          <t>אנזו
+משה</t>
         </is>
       </c>
       <c r="F38" s="3" t="n"/>
-      <c r="G38" s="3" t="n"/>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>11 חדר</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n"/>
@@ -1213,6 +1284,7 @@
       <c r="E39" s="3" t="n"/>
       <c r="F39" s="3" t="n"/>
       <c r="G39" s="3" t="n"/>
+      <c r="H39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n"/>
@@ -1226,6 +1298,7 @@
       <c r="E40" s="3" t="n"/>
       <c r="F40" s="3" t="n"/>
       <c r="G40" s="3" t="n"/>
+      <c r="H40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n"/>
@@ -1236,24 +1309,25 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>איתי כהן
+שמעון</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>ארד
-יואל</t>
+          <t>דבוש
+פיאצה</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>ליאור
-משה</t>
+          <t>שראל
+שרעבי</t>
         </is>
       </c>
       <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="n"/>
+      <c r="H41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n"/>
@@ -1267,6 +1341,7 @@
       <c r="E42" s="3" t="n"/>
       <c r="F42" s="3" t="n"/>
       <c r="G42" s="3" t="n"/>
+      <c r="H42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n"/>
@@ -1280,6 +1355,7 @@
       <c r="E43" s="3" t="n"/>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
+      <c r="H43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n"/>
@@ -1290,14 +1366,14 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>מרדש
-שמעון</t>
+          <t>נפמן
+סדון</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>אור
-דורון</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
@@ -1307,7 +1383,12 @@
         </is>
       </c>
       <c r="F44" s="3" t="n"/>
-      <c r="G44" s="3" t="n"/>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>7 חדר</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n"/>
@@ -1321,6 +1402,7 @@
       <c r="E45" s="3" t="n"/>
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
+      <c r="H45" s="3" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n"/>
@@ -1334,11 +1416,12 @@
       <c r="E46" s="3" t="n"/>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>דבוש
-פיאצה</t>
+          <t>לוטם
+סיני</t>
         </is>
       </c>
       <c r="G46" s="3" t="n"/>
+      <c r="H46" s="3" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n"/>
@@ -1349,24 +1432,25 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>אסף
-אסרף</t>
+          <t>ארד
+יואל</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
+          <t>אבנר
+ליאור</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>דימה
-שבצוב</t>
+          <t>אור
+מרדש</t>
         </is>
       </c>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
+      <c r="H47" s="3" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
@@ -1384,6 +1468,7 @@
       <c r="E48" s="3" t="n"/>
       <c r="F48" s="3" t="n"/>
       <c r="G48" s="3" t="n"/>
+      <c r="H48" s="3" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n"/>
@@ -1397,6 +1482,7 @@
       <c r="E49" s="3" t="n"/>
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
+      <c r="H49" s="3" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n"/>
@@ -1407,14 +1493,14 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>לוטם
-סיני</t>
+          <t>אנדי
+דוד</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>אבנר
-לומיאנסקי</t>
+          <t>אסף
+אסרף</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
@@ -1425,11 +1511,16 @@
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-כלפה</t>
-        </is>
-      </c>
-      <c r="G50" s="3" t="n"/>
+          <t>דורון
+משה</t>
+        </is>
+      </c>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>9 חדר</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n"/>
@@ -1443,6 +1534,7 @@
       <c r="E51" s="3" t="n"/>
       <c r="F51" s="3" t="n"/>
       <c r="G51" s="3" t="n"/>
+      <c r="H51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n"/>
@@ -1456,6 +1548,7 @@
       <c r="E52" s="3" t="n"/>
       <c r="F52" s="3" t="n"/>
       <c r="G52" s="3" t="n"/>
+      <c r="H52" s="3" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n"/>
@@ -1466,24 +1559,25 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
+          <t>דבוש
+פיאצה</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
           <t>אנזו
-לואיס</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>אנדי
-דוד</t>
+כלפה</t>
         </is>
       </c>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>נפמן
-סדון</t>
+          <t>לואיס
+לומיאנסקי</t>
         </is>
       </c>
       <c r="F53" s="3" t="n"/>
       <c r="G53" s="3" t="n"/>
+      <c r="H53" s="3" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n"/>
@@ -1497,10 +1591,11 @@
       <c r="E54" s="3" t="n"/>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>7 תורני רס"פ - חדר</t>
         </is>
       </c>
       <c r="G54" s="3" t="n"/>
+      <c r="H54" s="3" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n"/>
@@ -1514,6 +1609,7 @@
       <c r="E55" s="3" t="n"/>
       <c r="F55" s="3" t="n"/>
       <c r="G55" s="3" t="n"/>
+      <c r="H55" s="3" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n"/>
@@ -1524,24 +1620,29 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>ארד
-יואל</t>
+          <t>קריספין
+רווה</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>ליאור
-משה</t>
+          <t>שראל
+שרעבי</t>
         </is>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>דורון
+          <t>איתי כהן
 שמעון</t>
         </is>
       </c>
       <c r="F56" s="3" t="n"/>
-      <c r="G56" s="3" t="n"/>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>10 חדר</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n"/>
@@ -1555,6 +1656,7 @@
       <c r="E57" s="3" t="n"/>
       <c r="F57" s="3" t="n"/>
       <c r="G57" s="3" t="n"/>
+      <c r="H57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n"/>
@@ -1568,6 +1670,7 @@
       <c r="E58" s="3" t="n"/>
       <c r="F58" s="3" t="n"/>
       <c r="G58" s="3" t="n"/>
+      <c r="H58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n"/>
@@ -1578,24 +1681,25 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>קריספין
-רווה</t>
+          <t>ליאור
+מרדש</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>דבוש
-פיאצה</t>
+          <t>לוטם
+סיני</t>
         </is>
       </c>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>אור
-מרדש</t>
+          <t>דימה
+שבצוב</t>
         </is>
       </c>
       <c r="F59" s="3" t="n"/>
       <c r="G59" s="3" t="n"/>
+      <c r="H59" s="3" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n"/>
@@ -1609,6 +1713,7 @@
       <c r="E60" s="3" t="n"/>
       <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="n"/>
+      <c r="H60" s="3" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n"/>
@@ -1622,6 +1727,7 @@
       <c r="E61" s="3" t="n"/>
       <c r="F61" s="3" t="n"/>
       <c r="G61" s="3" t="n"/>
+      <c r="H61" s="3" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n"/>
@@ -1632,24 +1738,29 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>שראל
-שרעבי</t>
+          <t>דותן
+עמיחי</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>יונג
-ניסנוב</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
         <is>
           <t>דימנטמן
 מטמוני</t>
         </is>
       </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>יונג
+סדון</t>
+        </is>
+      </c>
       <c r="F62" s="3" t="n"/>
-      <c r="G62" s="3" t="n"/>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>8 חדר</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n"/>
@@ -1663,6 +1774,7 @@
       <c r="E63" s="3" t="n"/>
       <c r="F63" s="3" t="n"/>
       <c r="G63" s="3" t="n"/>
+      <c r="H63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n"/>
@@ -1676,6 +1788,7 @@
       <c r="E64" s="3" t="n"/>
       <c r="F64" s="3" t="n"/>
       <c r="G64" s="3" t="n"/>
+      <c r="H64" s="3" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n"/>
@@ -1686,24 +1799,25 @@
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>דימה
-שבצוב</t>
+          <t>דובר
+כלפה</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>דותן
+          <t>משה
 שגיא</t>
         </is>
       </c>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>אסף
-אסרף</t>
+          <t>ארד
+יואל</t>
         </is>
       </c>
       <c r="F65" s="3" t="n"/>
       <c r="G65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n"/>
@@ -1717,6 +1831,7 @@
       <c r="E66" s="3" t="n"/>
       <c r="F66" s="3" t="n"/>
       <c r="G66" s="3" t="n"/>
+      <c r="H66" s="3" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n"/>
@@ -1730,9 +1845,10 @@
       <c r="E67" s="3" t="n"/>
       <c r="F67" s="3" t="n"/>
       <c r="G67" s="3" t="n"/>
+      <c r="H67" s="3" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="88">
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="A24:A47"/>
     <mergeCell ref="A48:A67"/>
@@ -1810,6 +1926,17 @@
     <mergeCell ref="F46:F49"/>
     <mergeCell ref="F50:F53"/>
     <mergeCell ref="F54:F67"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="G56:G61"/>
+    <mergeCell ref="G62:G67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andybenichou/Desktop/meshavsek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A555C4E-A0E5-C44C-93BC-EB07F6CE6CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37A57B0-8104-FD49-B980-F43FCE659F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="77">
   <si>
     <t>יום</t>
   </si>
@@ -43,25 +43,95 @@
     <t>כתת כוננות</t>
   </si>
   <si>
-    <t>שבת</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>שראל בלוך
-נתנאל שרעבי</t>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>אלכסיי ברומברג
+סרגיי לומיאנסקי</t>
   </si>
   <si>
     <t>דימטרי יוספוב
 סרגיי שבצוב</t>
   </si>
   <si>
-    <t>אור נצקנסקי
-עדן אסרף</t>
-  </si>
-  <si>
-    <t>6 תורני רס"פ - חדר</t>
+    <t>6 חדר</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>יהונתן דימנטמן
+ירין מטמוני</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>דעאל כהן
+אגומס מלדה</t>
+  </si>
+  <si>
+    <t>אנדי בנישו
+דוד סספורטס</t>
+  </si>
+  <si>
+    <t>ב</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>איתי סיני
+לוטם עטיה</t>
+  </si>
+  <si>
+    <t>איתי כהן
+עמיחי נעים</t>
+  </si>
+  <si>
+    <t>עדן אסרף
+אסף זבולון</t>
+  </si>
+  <si>
+    <t>7 חדר</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>אייל דבוש
+גיא פיאצה</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>8 תורני רס"פ - חדר</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>נדב קריספין
+יוסף רווה</t>
   </si>
   <si>
     <t>5 חדר</t>
@@ -76,18 +146,6 @@
     <t>11:00</t>
   </si>
   <si>
-    <t>אבנר איזרבביץ'
-סרגיי לומיאנסקי</t>
-  </si>
-  <si>
-    <t>איתי כהן
-נריה כלפה</t>
-  </si>
-  <si>
-    <t>לוטם עטיה
-איתי סיני</t>
-  </si>
-  <si>
     <t>12:00</t>
   </si>
   <si>
@@ -95,21 +153,13 @@
   </si>
   <si>
     <t>14:00</t>
-  </si>
-  <si>
-    <t>דעאל כהן
-שגיא אריה</t>
   </si>
   <si>
     <t>לואיס אברבוך
 אנזו גואטה</t>
   </si>
   <si>
-    <t>אנדי בנישו
-דוד סספורטס</t>
-  </si>
-  <si>
-    <t>11 חדר</t>
+    <t>10 חדר</t>
   </si>
   <si>
     <t>15:00</t>
@@ -121,16 +171,8 @@
     <t>17:00</t>
   </si>
   <si>
-    <t>מיכאל נפמן
-מאיר סדון</t>
-  </si>
-  <si>
-    <t>ארד רז
-יואל אודיז</t>
-  </si>
-  <si>
     <t>ליאור אבו חמדה
-משה אייכנשטין</t>
+שמעון ספנייב</t>
   </si>
   <si>
     <t>18:00</t>
@@ -139,151 +181,109 @@
     <t>19:00</t>
   </si>
   <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>נדב קריספין
-יוסף רווה</t>
-  </si>
-  <si>
-    <t>עדן אסרף
-אסף זבולון</t>
-  </si>
-  <si>
-    <t>דורון לביא
-שמעון ספנייב</t>
-  </si>
-  <si>
-    <t>10 חדר</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>מרדוש דהאן
-אור נצקנסקי</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
-    <t>אייל דבוש
-גיא פיאצה</t>
-  </si>
-  <si>
-    <t>א</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>01:00</t>
-  </si>
-  <si>
-    <t>02:00</t>
+    <t>יונתן יונג
+נתנאל שרעבי</t>
   </si>
   <si>
     <t>דובר אלבז
 נריה כלפה</t>
   </si>
   <si>
-    <t>אלכסיי ברומברג
-סרגיי לומיאנסקי</t>
-  </si>
-  <si>
-    <t>יהונתן דימנטמן
-ירין מטמוני</t>
-  </si>
-  <si>
-    <t>אבנר איזרבביץ'
-עומרי דותן</t>
-  </si>
-  <si>
-    <t>9 חדר</t>
-  </si>
-  <si>
-    <t>03:00</t>
-  </si>
-  <si>
-    <t>04:00</t>
-  </si>
-  <si>
-    <t>05:00</t>
-  </si>
-  <si>
-    <t>איתי סיני
-לוטם עטיה</t>
-  </si>
-  <si>
-    <t>דעאל כהן
-אגומס מלדה</t>
-  </si>
-  <si>
-    <t>שגיא אריה
-איתי כהן</t>
-  </si>
-  <si>
-    <t>06:00</t>
-  </si>
-  <si>
-    <t>7 תורני רס"פ - חדר</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>8 חדר</t>
-  </si>
-  <si>
-    <t>ליאור אבו חמדה
-אנזו גואטה</t>
-  </si>
-  <si>
-    <t>לואיס אברבוך
-יונתן יונג</t>
-  </si>
-  <si>
-    <t>משה אייכנשטין
-שמעון ספנייב</t>
-  </si>
-  <si>
-    <t>מרדוש דהאן
-עמיחי נעים</t>
-  </si>
-  <si>
-    <t>עומרי דותן
-אור נצקנסקי</t>
-  </si>
-  <si>
-    <t>אבנר איזרבביץ'
-מיכאל ניסנוב</t>
-  </si>
-  <si>
-    <t>6 חדר</t>
-  </si>
-  <si>
-    <t>ב</t>
-  </si>
-  <si>
-    <t>איתי כהן
-עמיחי נעים</t>
-  </si>
-  <si>
-    <t>7 חדר</t>
-  </si>
-  <si>
-    <t>8 תורני רס"פ - חדר</t>
-  </si>
-  <si>
-    <t>עומרי דותן
-מיכאל ניסנוב</t>
+    <t>11 חדר</t>
   </si>
   <si>
     <t>יואל אודיז
 ארד רז</t>
+  </si>
+  <si>
+    <t>מרדוש דהן
+עומרי דותן</t>
+  </si>
+  <si>
+    <t>ג</t>
+  </si>
+  <si>
+    <t>לואיס אברבוך
+מיכאל ניסנוב</t>
+  </si>
+  <si>
+    <t>8 חדר</t>
+  </si>
+  <si>
+    <t>אנזו גואטה
+שמעון ספנייב</t>
+  </si>
+  <si>
+    <t>9 תורני רס"פ - חדר</t>
+  </si>
+  <si>
+    <t>משה אייכנשטין
+נתנאל שרעבי</t>
+  </si>
+  <si>
+    <t>ליאור אבו חמדה
+יונתן יונג</t>
+  </si>
+  <si>
+    <t>מרדוש דהן
+אסף זבולון</t>
+  </si>
+  <si>
+    <t>מיכאל נפמן
+מאור סדון</t>
+  </si>
+  <si>
+    <t>שגיא אריה
+דורון לביא</t>
+  </si>
+  <si>
+    <t>עומרי דותן
+איתי סיני</t>
+  </si>
+  <si>
+    <t>משה אייכנשטין
+מיכאל ניסנוב</t>
+  </si>
+  <si>
+    <t>ד</t>
+  </si>
+  <si>
+    <t>מרדוש דהן
+יונתן יונג</t>
+  </si>
+  <si>
+    <t>ליאור אבו חמדה
+אסף זבולון</t>
+  </si>
+  <si>
+    <t>9 חדר</t>
+  </si>
+  <si>
+    <t>עומרי דותן
+נתנאל שרעבי</t>
+  </si>
+  <si>
+    <t>10 תורני רס"פ - חדר</t>
+  </si>
+  <si>
+    <t>מיכאל ניסנוב
+איתי סיני</t>
+  </si>
+  <si>
+    <t>אבנר איזרבביץ
+דורון לביא</t>
+  </si>
+  <si>
+    <t>דעאל כהן
+שמעון ספנייב</t>
+  </si>
+  <si>
+    <t>אסף זבולון
+יונתן יונג</t>
+  </si>
+  <si>
+    <t>שגיא אריה
+שראל בלוך</t>
   </si>
 </sst>
 </file>
@@ -315,7 +315,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -338,11 +338,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,6 +360,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -655,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48:F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -696,33 +708,33 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
+      <c r="A2" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -734,7 +746,7 @@
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -746,16 +758,16 @@
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -764,7 +776,7 @@
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -776,7 +788,7 @@
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -788,27 +800,27 @@
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -820,37 +832,41 @@
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -862,7 +878,7 @@
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -874,27 +890,29 @@
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -906,53 +924,51 @@
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -964,29 +980,27 @@
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -998,7 +1012,7 @@
     <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1010,16 +1024,16 @@
     <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1028,21 +1042,19 @@
     <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1054,27 +1066,27 @@
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1086,7 +1098,7 @@
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1098,16 +1110,16 @@
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -1116,7 +1128,7 @@
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1128,7 +1140,7 @@
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1140,25 +1152,27 @@
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1170,37 +1184,41 @@
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G34" s="3"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1212,7 +1230,7 @@
     <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1224,27 +1242,29 @@
     <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1256,53 +1276,51 @@
     <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A42" s="3"/>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1314,29 +1332,27 @@
     <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="3" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1348,7 +1364,7 @@
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1360,16 +1376,16 @@
     <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -1378,21 +1394,19 @@
     <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1404,27 +1418,27 @@
     <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="2" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -1436,7 +1450,7 @@
     <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -1448,16 +1462,16 @@
     <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="2" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -1466,7 +1480,7 @@
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -1478,7 +1492,7 @@
     <row r="55" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -1487,138 +1501,109 @@
       <c r="G55" s="3"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3" t="s">
-        <v>39</v>
-      </c>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H61" s="2"/>
     </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H73" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="F48:F61"/>
+  <mergeCells count="73">
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="G38:G43"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="G26:G37"/>
-    <mergeCell ref="G38:G43"/>
-    <mergeCell ref="G44:G49"/>
-    <mergeCell ref="G50:G55"/>
-    <mergeCell ref="G56:G61"/>
-    <mergeCell ref="F2:F15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="F24:F39"/>
-    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="E44:E46"/>
     <mergeCell ref="E47:E49"/>
     <mergeCell ref="E50:E52"/>
     <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F33"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F42:F55"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E41:E43"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="E23:E25"/>
     <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="D41:D43"/>
     <mergeCell ref="D44:D46"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="D50:D52"/>
     <mergeCell ref="D53:D55"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
@@ -1627,34 +1612,26 @@
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="C47:C49"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A41"/>
-    <mergeCell ref="A42:A61"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A12:A35"/>
+    <mergeCell ref="A36:A55"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C38:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,177 +795,130 @@
       <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>דובר אלבז
-נריה כלפה</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
       <c r="G15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>45236</v>
-      </c>
+      <c r="A16" s="3" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>יהונתן דימנטמן
-ירין מטמוני</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>דובר אלבז
-נריה כלפה</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>אלכסיי ברומברג
-סרגיי לומיאנסקי</t>
-        </is>
-      </c>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n"/>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="3" t="n"/>
       <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>11 חדר</t>
-        </is>
-      </c>
+      <c r="G16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>45237</v>
-      </c>
+      <c r="A17" s="3" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>לואיס אברבוך
-מיכאל ניסנוב</t>
+          <t>אנזו גואטה
+שמעון ספנייב</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>אלכסיי ברומברג
-סרגיי לומיאנסקי</t>
+          <t>איתי כהן
+עמיחי נעים</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>יהונתן דימנטמן
-ירין מטמוני</t>
+          <t>אנדי בנישו
+דוד סספורטס</t>
         </is>
       </c>
       <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>8 חדר</t>
-        </is>
-      </c>
+      <c r="G17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>05:00</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>אנזו גואטה
-שמעון ספנייב</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-עמיחי נעים</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
-        <is>
-          <t>אנדי בנישו
-דוד סספורטס</t>
-        </is>
-      </c>
-      <c r="F18" s="3" t="n"/>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n"/>
+      <c r="D18" s="3" t="n"/>
+      <c r="E18" s="3" t="n"/>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>9 תורני רס"פ - חדר</t>
+        </is>
+      </c>
       <c r="G18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C19" s="3" t="n"/>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>9 תורני רס"פ - חדר</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="n"/>
       <c r="G19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="3" t="n"/>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן
+אגומס מלדה</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>דובר אלבז
+נריה כלפה</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>משה אייכנשטין
+נתנאל שרעבי</t>
+        </is>
+      </c>
       <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>6 חדר</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>דעאל כהן
-אגומס מלדה</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>דובר אלבז
-נריה כלפה</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>משה אייכנשטין
-נתנאל שרעבי</t>
-        </is>
-      </c>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
+      <c r="D21" s="3" t="n"/>
+      <c r="E21" s="3" t="n"/>
       <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>6 חדר</t>
-        </is>
-      </c>
+      <c r="G21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C22" s="3" t="n"/>
@@ -978,12 +931,27 @@
       <c r="A23" s="3" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="3" t="n"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>ליאור אבו חמדה
+יונתן יונג</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>יואל אודיז
+ארד רז</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>מרדוש דהן
+אסף זבולון</t>
+        </is>
+      </c>
       <c r="F23" s="3" t="n"/>
       <c r="G23" s="3" t="n"/>
     </row>
@@ -991,27 +959,12 @@
       <c r="A24" s="3" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>ליאור אבו חמדה
-יונתן יונג</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>יואל אודיז
-ארד רז</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>מרדוש דהן
-אסף זבולון</t>
-        </is>
-      </c>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
     </row>
@@ -1019,7 +972,7 @@
       <c r="A25" s="3" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C25" s="3" t="n"/>
@@ -1032,52 +985,52 @@
       <c r="A26" s="3" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="n"/>
-      <c r="D26" s="3" t="n"/>
-      <c r="E26" s="3" t="n"/>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>נדב קריספין
+יוסף רווה</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>מיכאל נפמן
+מאור סדון</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>שגיא אריה
+דורון לביא</t>
+        </is>
+      </c>
       <c r="F26" s="3" t="n"/>
-      <c r="G26" s="3" t="n"/>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>7 חדר</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>נדב קריספין
-יוסף רווה</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>מיכאל נפמן
-מאור סדון</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>שגיא אריה
-דורון לביא</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="3" t="n"/>
       <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>7 חדר</t>
-        </is>
-      </c>
+      <c r="G27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C28" s="3" t="n"/>
@@ -1090,12 +1043,27 @@
       <c r="A29" s="3" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="n"/>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="3" t="n"/>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>אלכסיי ברומברג
+סרגיי לומיאנסקי</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>יהונתן דימנטמן
+ירין מטמוני</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>עומרי דותן
+איתי סיני</t>
+        </is>
+      </c>
       <c r="F29" s="3" t="n"/>
       <c r="G29" s="3" t="n"/>
     </row>
@@ -1103,27 +1071,12 @@
       <c r="A30" s="3" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>אלכסיי ברומברג
-סרגיי לומיאנסקי</t>
-        </is>
-      </c>
-      <c r="D30" s="3" t="inlineStr">
-        <is>
-          <t>יהונתן דימנטמן
-ירין מטמוני</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>עומרי דותן
-איתי סיני</t>
-        </is>
-      </c>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
       <c r="F30" s="3" t="n"/>
       <c r="G30" s="3" t="n"/>
     </row>
@@ -1131,7 +1084,7 @@
       <c r="A31" s="3" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C31" s="3" t="n"/>
@@ -1144,113 +1097,113 @@
       <c r="A32" s="3" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="n"/>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="3" t="n"/>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>אנדי בנישו
+דוד סספורטס</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>משה אייכנשטין
+מיכאל ניסנוב</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>לואיס אברבוך
+אנזו גואטה</t>
+        </is>
+      </c>
       <c r="F32" s="3" t="n"/>
-      <c r="G32" s="3" t="n"/>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>5 חדר</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>אנדי בנישו
-דוד סספורטס</t>
-        </is>
-      </c>
-      <c r="D33" s="3" t="inlineStr">
-        <is>
-          <t>משה אייכנשטין
-מיכאל ניסנוב</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="inlineStr">
-        <is>
-          <t>לואיס אברבוך
-אנזו גואטה</t>
-        </is>
-      </c>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
       <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="inlineStr">
-        <is>
-          <t>5 חדר</t>
-        </is>
-      </c>
+      <c r="G33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="3" t="n"/>
-      <c r="F34" s="3" t="n"/>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+עמיחי נעים</t>
+        </is>
+      </c>
       <c r="G34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="n"/>
-      <c r="D35" s="3" t="n"/>
-      <c r="E35" s="3" t="n"/>
-      <c r="F35" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-עמיחי נעים</t>
-        </is>
-      </c>
-      <c r="G35" s="3" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="3" t="inlineStr">
-        <is>
           <t>23:00</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>יואל אודיז
 ארד רז</t>
         </is>
       </c>
-      <c r="D36" s="3" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>דעאל כהן
 אגומס מלדה</t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>דובר אלבז
 נריה כלפה</t>
         </is>
       </c>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n"/>
+      <c r="D36" s="3" t="n"/>
+      <c r="E36" s="3" t="n"/>
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="n">
-        <v>45238</v>
-      </c>
+      <c r="A37" s="3" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="C37" s="3" t="n"/>
@@ -1263,80 +1216,90 @@
       <c r="A38" s="3" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="n"/>
-      <c r="D38" s="3" t="n"/>
-      <c r="E38" s="3" t="n"/>
-      <c r="F38" s="3" t="n"/>
-      <c r="G38" s="3" t="n"/>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>שגיא אריה
+דורון לביא</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>מרדוש דהן
+יונתן יונג</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>מיכאל נפמן
+מאור סדון</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>ליאור אבו חמדה
+אסף זבולון</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>9 חדר</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n"/>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>שגיא אריה
-דורון לביא</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>מרדוש דהן
-יונתן יונג</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
-        <is>
-          <t>מיכאל נפמן
-מאור סדון</t>
-        </is>
-      </c>
-      <c r="F39" s="3" t="inlineStr">
-        <is>
-          <t>ליאור אבו חמדה
-אסף זבולון</t>
-        </is>
-      </c>
-      <c r="G39" s="3" t="inlineStr">
-        <is>
-          <t>9 חדר</t>
-        </is>
-      </c>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="n"/>
       <c r="E40" s="3" t="n"/>
-      <c r="F40" s="3" t="inlineStr">
-        <is>
-          <t>איתי סיני
-לוטם עטיה</t>
-        </is>
-      </c>
+      <c r="F40" s="3" t="n"/>
       <c r="G40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n"/>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>04:00</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="n"/>
-      <c r="D41" s="3" t="n"/>
-      <c r="E41" s="3" t="n"/>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>יהונתן דימנטמן
+ירין מטמוני</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>עומרי דותן
+נתנאל שרעבי</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>נדב קריספין
+יוסף רווה</t>
+        </is>
+      </c>
       <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="n"/>
     </row>
@@ -1344,97 +1307,82 @@
       <c r="A42" s="3" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>05:00</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>יהונתן דימנטמן
-ירין מטמוני</t>
-        </is>
-      </c>
-      <c r="D42" s="3" t="inlineStr">
-        <is>
-          <t>עומרי דותן
-נתנאל שרעבי</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t>נדב קריספין
-יוסף רווה</t>
-        </is>
-      </c>
-      <c r="F42" s="3" t="n"/>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="n"/>
+      <c r="D42" s="3" t="n"/>
+      <c r="E42" s="3" t="n"/>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>10 תורני רס"פ - חדר</t>
+        </is>
+      </c>
       <c r="G42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C43" s="3" t="n"/>
       <c r="D43" s="3" t="n"/>
       <c r="E43" s="3" t="n"/>
-      <c r="F43" s="3" t="inlineStr">
-        <is>
-          <t>10 תורני רס"פ - חדר</t>
-        </is>
-      </c>
+      <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n"/>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="n"/>
-      <c r="D44" s="3" t="n"/>
-      <c r="E44" s="3" t="n"/>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>מיכאל ניסנוב
+איתי סיני</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>אנדי בנישו
+דוד סספורטס</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>אלכסיי ברומברג
+סרגיי לומיאנסקי</t>
+        </is>
+      </c>
       <c r="F44" s="3" t="n"/>
-      <c r="G44" s="3" t="n"/>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>11 חדר</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>מיכאל ניסנוב
-איתי סיני</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>אנדי בנישו
-דוד סספורטס</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>אלכסיי ברומברג
-סרגיי לומיאנסקי</t>
-        </is>
-      </c>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+      <c r="E45" s="3" t="n"/>
       <c r="F45" s="3" t="n"/>
-      <c r="G45" s="3" t="inlineStr">
-        <is>
-          <t>11 חדר</t>
-        </is>
-      </c>
+      <c r="G45" s="3" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C46" s="3" t="n"/>
@@ -1447,12 +1395,27 @@
       <c r="A47" s="3" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="n"/>
-      <c r="D47" s="3" t="n"/>
-      <c r="E47" s="3" t="n"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>לואיס אברבוך
+אנזו גואטה</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+עמיחי נעים</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>יואל אודיז
+ארד רז</t>
+        </is>
+      </c>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
     </row>
@@ -1460,27 +1423,12 @@
       <c r="A48" s="3" t="n"/>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>לואיס אברבוך
-אנזו גואטה</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-עמיחי נעים</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>יואל אודיז
-ארד רז</t>
-        </is>
-      </c>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="n"/>
+      <c r="D48" s="3" t="n"/>
+      <c r="E48" s="3" t="n"/>
       <c r="F48" s="3" t="n"/>
       <c r="G48" s="3" t="n"/>
     </row>
@@ -1488,7 +1436,7 @@
       <c r="A49" s="3" t="n"/>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C49" s="3" t="n"/>
@@ -1501,52 +1449,52 @@
       <c r="A50" s="3" t="n"/>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="n"/>
-      <c r="D50" s="3" t="n"/>
-      <c r="E50" s="3" t="n"/>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>מיכאל נפמן
+מאור סדון</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>אבנר איזרבביץ
+דורון לביא</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן
+שמעון ספנייב</t>
+        </is>
+      </c>
       <c r="F50" s="3" t="n"/>
-      <c r="G50" s="3" t="n"/>
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>8 חדר</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n"/>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>מיכאל נפמן
-מאור סדון</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>אבנר איזרבביץ
-דורון לביא</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr">
-        <is>
-          <t>דעאל כהן
-שמעון ספנייב</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="3" t="n"/>
+      <c r="E51" s="3" t="n"/>
       <c r="F51" s="3" t="n"/>
-      <c r="G51" s="3" t="inlineStr">
-        <is>
-          <t>8 חדר</t>
-        </is>
-      </c>
+      <c r="G51" s="3" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C52" s="3" t="n"/>
@@ -1559,12 +1507,27 @@
       <c r="A53" s="3" t="n"/>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="n"/>
-      <c r="D53" s="3" t="n"/>
-      <c r="E53" s="3" t="n"/>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>אסף זבולון
+יונתן יונג</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>שגיא אריה
+שראל בלוך</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>אייל דבוש
+גיא פיאצה</t>
+        </is>
+      </c>
       <c r="F53" s="3" t="n"/>
       <c r="G53" s="3" t="n"/>
     </row>
@@ -1572,27 +1535,12 @@
       <c r="A54" s="3" t="n"/>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>אסף זבולון
-יונתן יונג</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>שגיא אריה
-שראל בלוך</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr">
-        <is>
-          <t>אייל דבוש
-גיא פיאצה</t>
-        </is>
-      </c>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="n"/>
+      <c r="D54" s="3" t="n"/>
+      <c r="E54" s="3" t="n"/>
       <c r="F54" s="3" t="n"/>
       <c r="G54" s="3" t="n"/>
     </row>
@@ -1600,7 +1548,7 @@
       <c r="A55" s="3" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C55" s="3" t="n"/>
@@ -1613,113 +1561,113 @@
       <c r="A56" s="3" t="n"/>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="n"/>
-      <c r="D56" s="3" t="n"/>
-      <c r="E56" s="3" t="n"/>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>דימטרי יוספוב
+סרגיי שבצוב</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>עדן אסרף
+אור נצקנסקי</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>איתי סיני
+לוטם עטיה</t>
+        </is>
+      </c>
       <c r="F56" s="3" t="n"/>
-      <c r="G56" s="3" t="n"/>
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>10 חדר</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n"/>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>דימטרי יוספוב
-סרגיי שבצוב</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>עדן אסרף
-אור נצקנסקי</t>
-        </is>
-      </c>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>איתי סיני
-לוטם עטיה</t>
-        </is>
-      </c>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="3" t="n"/>
       <c r="F57" s="3" t="n"/>
-      <c r="G57" s="3" t="inlineStr">
-        <is>
-          <t>10 חדר</t>
-        </is>
-      </c>
+      <c r="G57" s="3" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n"/>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="C58" s="3" t="n"/>
       <c r="D58" s="3" t="n"/>
       <c r="E58" s="3" t="n"/>
-      <c r="F58" s="3" t="n"/>
+      <c r="F58" s="3" t="inlineStr">
+        <is>
+          <t>משה אייכנשטין
+אגומס מלדה</t>
+        </is>
+      </c>
       <c r="G58" s="3" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n"/>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="n"/>
-      <c r="D59" s="3" t="n"/>
-      <c r="E59" s="3" t="n"/>
-      <c r="F59" s="3" t="inlineStr">
-        <is>
-          <t>משה אייכנשטין
-אגומס מלדה</t>
-        </is>
-      </c>
-      <c r="G59" s="3" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="n"/>
-      <c r="B60" s="3" t="inlineStr">
-        <is>
           <t>23:00</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>דובר אלבז
 נריה כלפה</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>יהונתן דימנטמן
 ירין מטמוני</t>
         </is>
       </c>
-      <c r="E60" s="3" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr">
         <is>
           <t>עומרי דותן
 נתנאל שרעבי</t>
         </is>
       </c>
+      <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="n"/>
+      <c r="D60" s="3" t="n"/>
+      <c r="E60" s="3" t="n"/>
       <c r="F60" s="3" t="n"/>
       <c r="G60" s="3" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="n">
-        <v>45239</v>
-      </c>
+      <c r="A61" s="3" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="C61" s="3" t="n"/>
@@ -1732,80 +1680,90 @@
       <c r="A62" s="3" t="n"/>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="n"/>
-      <c r="D62" s="3" t="n"/>
-      <c r="E62" s="3" t="n"/>
-      <c r="F62" s="3" t="n"/>
-      <c r="G62" s="3" t="n"/>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>ליאור אבו חמדה
+מרדוש דהן</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t>אלכסיי ברומברג
+סרגיי לומיאנסקי</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>אנזו גואטה
+מיכאל ניסנוב</t>
+        </is>
+      </c>
+      <c r="F62" s="3" t="inlineStr">
+        <is>
+          <t>נדב קריספין
+יוסף רווה</t>
+        </is>
+      </c>
+      <c r="G62" s="3" t="inlineStr">
+        <is>
+          <t>6 חדר</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n"/>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>ליאור אבו חמדה
-מרדוש דהן</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>אלכסיי ברומברג
-סרגיי לומיאנסקי</t>
-        </is>
-      </c>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t>אנזו גואטה
-מיכאל ניסנוב</t>
-        </is>
-      </c>
-      <c r="F63" s="3" t="inlineStr">
-        <is>
-          <t>נדב קריספין
-יוסף רווה</t>
-        </is>
-      </c>
-      <c r="G63" s="3" t="inlineStr">
-        <is>
-          <t>6 חדר</t>
-        </is>
-      </c>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>03:00</t>
+          <t>04:00</t>
         </is>
       </c>
       <c r="C64" s="3" t="n"/>
       <c r="D64" s="3" t="n"/>
       <c r="E64" s="3" t="n"/>
-      <c r="F64" s="3" t="inlineStr">
-        <is>
-          <t>ליאור אבו חמדה
-אסף זבולון</t>
-        </is>
-      </c>
+      <c r="F64" s="3" t="n"/>
       <c r="G64" s="3" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n"/>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>04:00</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="n"/>
-      <c r="D65" s="3" t="n"/>
-      <c r="E65" s="3" t="n"/>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן
+עמיחי נעים</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>יואל אודיז
+ארד רז</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>אנדי בנישו
+דוד סספורטס</t>
+        </is>
+      </c>
       <c r="F65" s="3" t="n"/>
       <c r="G65" s="3" t="n"/>
     </row>
@@ -1813,97 +1771,82 @@
       <c r="A66" s="3" t="n"/>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>05:00</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-עמיחי נעים</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>יואל אודיז
-ארד רז</t>
-        </is>
-      </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>אנדי בנישו
-דוד סספורטס</t>
-        </is>
-      </c>
-      <c r="F66" s="3" t="n"/>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="n"/>
+      <c r="D66" s="3" t="n"/>
+      <c r="E66" s="3" t="n"/>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>11 תורני רס"פ - חדר</t>
+        </is>
+      </c>
       <c r="G66" s="3" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n"/>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C67" s="3" t="n"/>
       <c r="D67" s="3" t="n"/>
       <c r="E67" s="3" t="n"/>
-      <c r="F67" s="3" t="inlineStr">
-        <is>
-          <t>11 תורני רס"פ - חדר</t>
-        </is>
-      </c>
+      <c r="F67" s="3" t="n"/>
       <c r="G67" s="3" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n"/>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="C68" s="3" t="n"/>
-      <c r="D68" s="3" t="n"/>
-      <c r="E68" s="3" t="n"/>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>אבנר איזרבביץ
+דורון לביא</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>מיכאל נפמן
+מאור סדון</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>לואיס אברבוך
+יונתן יונג</t>
+        </is>
+      </c>
       <c r="F68" s="3" t="n"/>
-      <c r="G68" s="3" t="n"/>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>5 חדר</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n"/>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>אבנר איזרבביץ
-דורון לביא</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
-        <is>
-          <t>מיכאל נפמן
-מאור סדון</t>
-        </is>
-      </c>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>לואיס אברבוך
-יונתן יונג</t>
-        </is>
-      </c>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="n"/>
+      <c r="D69" s="3" t="n"/>
+      <c r="E69" s="3" t="n"/>
       <c r="F69" s="3" t="n"/>
-      <c r="G69" s="3" t="inlineStr">
-        <is>
-          <t>5 חדר</t>
-        </is>
-      </c>
+      <c r="G69" s="3" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n"/>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="C70" s="3" t="n"/>
@@ -1916,12 +1859,27 @@
       <c r="A71" s="3" t="n"/>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="n"/>
-      <c r="D71" s="3" t="n"/>
-      <c r="E71" s="3" t="n"/>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>עדן אסרף
+שמעון ספנייב</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן
+אגומס מלדה</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>שגיא אריה
+אסף זבולון</t>
+        </is>
+      </c>
       <c r="F71" s="3" t="n"/>
       <c r="G71" s="3" t="n"/>
     </row>
@@ -1929,27 +1887,12 @@
       <c r="A72" s="3" t="n"/>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>עדן אסרף
-שמעון ספנייב</t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="inlineStr">
-        <is>
-          <t>דעאל כהן
-אגומס מלדה</t>
-        </is>
-      </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>שגיא אריה
-אסף זבולון</t>
-        </is>
-      </c>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="n"/>
+      <c r="D72" s="3" t="n"/>
+      <c r="E72" s="3" t="n"/>
       <c r="F72" s="3" t="n"/>
       <c r="G72" s="3" t="n"/>
     </row>
@@ -1957,7 +1900,7 @@
       <c r="A73" s="3" t="n"/>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C73" s="3" t="n"/>
@@ -1970,52 +1913,52 @@
       <c r="A74" s="3" t="n"/>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="n"/>
-      <c r="D74" s="3" t="n"/>
-      <c r="E74" s="3" t="n"/>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>שראל בלוך
+נתנאל שרעבי</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>אייל דבוש
+גיא פיאצה</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>דימטרי יוספוב
+סרגיי שבצוב</t>
+        </is>
+      </c>
       <c r="F74" s="3" t="n"/>
-      <c r="G74" s="3" t="n"/>
+      <c r="G74" s="3" t="inlineStr">
+        <is>
+          <t>7 חדר</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n"/>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>שראל בלוך
-נתנאל שרעבי</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>אייל דבוש
-גיא פיאצה</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="inlineStr">
-        <is>
-          <t>דימטרי יוספוב
-סרגיי שבצוב</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="n"/>
+      <c r="D75" s="3" t="n"/>
+      <c r="E75" s="3" t="n"/>
       <c r="F75" s="3" t="n"/>
-      <c r="G75" s="3" t="inlineStr">
-        <is>
-          <t>7 חדר</t>
-        </is>
-      </c>
+      <c r="G75" s="3" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n"/>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C76" s="3" t="n"/>
@@ -2028,12 +1971,27 @@
       <c r="A77" s="3" t="n"/>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="n"/>
-      <c r="D77" s="3" t="n"/>
-      <c r="E77" s="3" t="n"/>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>משה אייכנשטין
+מיכאל ניסנוב</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>איתי סיני
+לוטם עטיה</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>מרדוש דהן
+אור נצקנסקי</t>
+        </is>
+      </c>
       <c r="F77" s="3" t="n"/>
       <c r="G77" s="3" t="n"/>
     </row>
@@ -2041,27 +1999,12 @@
       <c r="A78" s="3" t="n"/>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>משה אייכנשטין
-מיכאל ניסנוב</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
-        <is>
-          <t>איתי סיני
-לוטם עטיה</t>
-        </is>
-      </c>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>מרדוש דהן
-אור נצקנסקי</t>
-        </is>
-      </c>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="n"/>
+      <c r="D78" s="3" t="n"/>
+      <c r="E78" s="3" t="n"/>
       <c r="F78" s="3" t="n"/>
       <c r="G78" s="3" t="n"/>
     </row>
@@ -2069,7 +2012,7 @@
       <c r="A79" s="3" t="n"/>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C79" s="3" t="n"/>
@@ -2078,376 +2021,113 @@
       <c r="F79" s="3" t="n"/>
       <c r="G79" s="3" t="n"/>
     </row>
-    <row r="80">
-      <c r="A80" s="3" t="n"/>
-      <c r="B80" s="3" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="n"/>
-      <c r="D80" s="3" t="n"/>
-      <c r="E80" s="3" t="n"/>
-      <c r="F80" s="3" t="n"/>
-      <c r="G80" s="3" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="4" t="n">
-        <v>45236</v>
-      </c>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t>03:00</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>יהונתן דימנטמן
-ירין מטמוני</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>דובר אלבז
-נריה כלפה</t>
-        </is>
-      </c>
-      <c r="E81" s="3" t="inlineStr">
-        <is>
-          <t>אלכסיי ברומברג
-סרגיי לומיאנסקי</t>
-        </is>
-      </c>
-      <c r="F81" s="3" t="inlineStr">
-        <is>
-          <t>ליאור אבו חמדה
-אנזו גואטה</t>
-        </is>
-      </c>
-      <c r="G81" s="3" t="inlineStr">
-        <is>
-          <t>11 חדר</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="3" t="n"/>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t>04:00</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="n"/>
-      <c r="D82" s="3" t="n"/>
-      <c r="E82" s="3" t="n"/>
-      <c r="F82" s="3" t="inlineStr">
-        <is>
-          <t>אנדי בנישו
-דוד סספורטס</t>
-        </is>
-      </c>
-      <c r="G82" s="3" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="3" t="n"/>
-      <c r="B83" s="3" t="inlineStr">
-        <is>
-          <t>05:00</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>יואל אודיז
-ארד רז</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>אנזו גואטה
-עומרי דותן</t>
-        </is>
-      </c>
-      <c r="E83" s="3" t="inlineStr">
-        <is>
-          <t>נדב קריספין
-יוסף רווה</t>
-        </is>
-      </c>
-      <c r="F83" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-עמיחי נעים</t>
-        </is>
-      </c>
-      <c r="G83" s="3" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="n"/>
-      <c r="B84" s="3" t="inlineStr">
-        <is>
-          <t>06:00</t>
-        </is>
-      </c>
-      <c r="C84" s="3" t="n"/>
-      <c r="D84" s="3" t="n"/>
-      <c r="E84" s="3" t="n"/>
-      <c r="F84" s="3" t="inlineStr">
-        <is>
-          <t>8 תורני רס"פ - חדר</t>
-        </is>
-      </c>
-      <c r="G84" s="3" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="n"/>
-      <c r="B85" s="3" t="inlineStr">
-        <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="n"/>
-      <c r="D85" s="3" t="n"/>
-      <c r="E85" s="3" t="n"/>
-      <c r="F85" s="3" t="n"/>
-      <c r="G85" s="3" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="n"/>
-      <c r="B86" s="3" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr">
-        <is>
-          <t>ליאור אבו חמדה
-יונתן יונג</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
-        <is>
-          <t>אנדי בנישו
-דוד סספורטס</t>
-        </is>
-      </c>
-      <c r="E86" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-עמיחי נעים</t>
-        </is>
-      </c>
-      <c r="F86" s="3" t="n"/>
-      <c r="G86" s="3" t="inlineStr">
-        <is>
-          <t>8 חדר</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="3" t="n"/>
-      <c r="B87" s="3" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="C87" s="3" t="n"/>
-      <c r="D87" s="3" t="n"/>
-      <c r="E87" s="3" t="n"/>
-      <c r="F87" s="3" t="n"/>
-      <c r="G87" s="3" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="n"/>
-      <c r="B88" s="3" t="inlineStr">
-        <is>
-          <t>10:00</t>
-        </is>
-      </c>
-      <c r="C88" s="3" t="n"/>
-      <c r="D88" s="3" t="n"/>
-      <c r="E88" s="3" t="n"/>
-      <c r="F88" s="3" t="n"/>
-      <c r="G88" s="3" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="n"/>
-      <c r="B89" s="3" t="inlineStr">
-        <is>
-          <t>11:00</t>
-        </is>
-      </c>
-      <c r="C89" s="3" t="inlineStr">
-        <is>
-          <t>דעאל כהן
-אגומס מלדה</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
-        <is>
-          <t>לואיס אברבוך
-שמעון ספנייב</t>
-        </is>
-      </c>
-      <c r="E89" s="3" t="inlineStr">
-        <is>
-          <t>עדן אסרף
-נתנאל שרעבי</t>
-        </is>
-      </c>
-      <c r="F89" s="3" t="n"/>
-      <c r="G89" s="3" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="n"/>
-      <c r="B90" s="3" t="inlineStr">
-        <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="C90" s="3" t="n"/>
-      <c r="D90" s="3" t="n"/>
-      <c r="E90" s="3" t="n"/>
-      <c r="F90" s="3" t="n"/>
-      <c r="G90" s="3" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="3" t="n"/>
-      <c r="B91" s="3" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="n"/>
-      <c r="D91" s="3" t="n"/>
-      <c r="E91" s="3" t="n"/>
-      <c r="F91" s="3" t="n"/>
-      <c r="G91" s="3" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="123">
+  <mergeCells count="105">
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A17:A36"/>
-    <mergeCell ref="A37:A60"/>
-    <mergeCell ref="A61:A80"/>
-    <mergeCell ref="A81:A91"/>
+    <mergeCell ref="A12:A35"/>
+    <mergeCell ref="A36:A59"/>
+    <mergeCell ref="A60:A79"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D66:D68"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D77:D79"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="E78:E80"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="E77:E79"/>
     <mergeCell ref="F2:F9"/>
     <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="F19:F34"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="F43:F58"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="F67:F80"/>
-    <mergeCell ref="F84:F91"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F33"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F42:F57"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="F66:F79"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="G27:G32"/>
-    <mergeCell ref="G33:G38"/>
-    <mergeCell ref="G39:G44"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="G57:G62"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="G69:G74"/>
-    <mergeCell ref="G75:G80"/>
-    <mergeCell ref="G81:G85"/>
-    <mergeCell ref="G86:G91"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="G26:G31"/>
+    <mergeCell ref="G32:G37"/>
+    <mergeCell ref="G38:G43"/>
+    <mergeCell ref="G44:G49"/>
+    <mergeCell ref="G50:G55"/>
+    <mergeCell ref="G56:G61"/>
+    <mergeCell ref="G62:G67"/>
+    <mergeCell ref="G68:G73"/>
+    <mergeCell ref="G74:G79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -478,8 +478,8 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="33" customWidth="1" min="3" max="3"/>
     <col width="28" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="26" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1005,20 +1005,20 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
+          <t>עדן אסרף
+אסף זבולון</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>דימטרי יוספוב
+סרגיי שבצוב</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
           <t>אבנר יוזפוביץ
 אגומס מלדה</t>
-        </is>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>דימטרי יוספוב
-סרגיי שבצוב</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>עדן אסרף
-אסף זבולון</t>
         </is>
       </c>
       <c r="F26" s="5" t="n"/>
@@ -1122,21 +1122,21 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
+          <t>נדב קריספין
+יוסף רווה</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>מיכאל נפמן
+מאור סדון</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="n"/>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
           <t>שראל בלוך
 נתנאל שרעבי</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>מיכאל נפמן
-מאור סדון</t>
-        </is>
-      </c>
-      <c r="E32" s="5" t="n"/>
-      <c r="F32" s="3" t="inlineStr">
-        <is>
-          <t>נדב קריספין
-יוסף רווה</t>
         </is>
       </c>
       <c r="G32" s="5" t="n"/>
@@ -1183,14 +1183,14 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
+          <t>לוטם עטיה
 גיא פיאצה</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
           <t>איתמר בנימין
-לוטם עטיה</t>
+אייל דבוש</t>
         </is>
       </c>
       <c r="E35" s="5" t="n"/>
@@ -1251,7 +1251,7 @@
       <c r="D38" s="3" t="inlineStr">
         <is>
           <t>בן בנימין
-אבנר יוזפוביץ</t>
+איתי כהן</t>
         </is>
       </c>
       <c r="E38" s="5" t="n"/>
@@ -1285,8 +1285,8 @@
       <c r="E40" s="5" t="n"/>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>אייל דבוש
-אגומס מלדה</t>
+          <t>יהונתן דימנטמן
+ירין מטמוני</t>
         </is>
       </c>
       <c r="G40" s="5" t="n"/>
@@ -1301,14 +1301,14 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>יהונתן דימנטמן
-ירין מטמוני</t>
+          <t>דימטרי יוספוב
+סרגיי שבצוב</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>יונתן יונג
-אור נצקנסקי</t>
+          <t>אבנר יוזפוביץ
+יונתן יונג</t>
         </is>
       </c>
       <c r="E41" s="5" t="n"/>
@@ -1357,14 +1357,14 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>דימטרי יוספוב
-סרגיי שבצוב</t>
+          <t>מיכאל נפמן
+מאור סדון</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>אנדי בנישו
-דוד סספורטס</t>
+          <t>אגומס מלדה
+אור נצקנסקי</t>
         </is>
       </c>
       <c r="E44" s="5" t="n"/>
@@ -1406,8 +1406,8 @@
       <c r="D46" s="5" t="n"/>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>נדב קריספין
-יוסף רווה</t>
+          <t>אנדי בנישו
+דוד סספורטס</t>
         </is>
       </c>
       <c r="F46" s="5" t="n"/>
@@ -1423,14 +1423,14 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>מיכאל נפמן
-מאור סדון</t>
-        </is>
-      </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
           <t>שראל בלוך
 נתנאל שרעבי</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>נדב קריספין
+יוסף רווה</t>
         </is>
       </c>
       <c r="E47" s="5" t="n"/>
@@ -1456,7 +1456,7 @@
       <c r="E48" s="5" t="n"/>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>איתמר בנימין
+          <t>אייל דבוש
 גיא פיאצה</t>
         </is>
       </c>
@@ -1486,14 +1486,14 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>אבנר יוזפוביץ
+          <t>איתמר בנימין
+איתי כהן</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>איתי סיני
 לוטם עטיה</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן
-ארד רז</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
@@ -1533,7 +1533,7 @@
       <c r="F52" s="3" t="inlineStr">
         <is>
           <t>בן בנימין
-איתי סיני</t>
+ארד רז</t>
         </is>
       </c>
       <c r="G52" s="5" t="n"/>
@@ -1548,14 +1548,14 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>יונתן יונג
-אגומס מלדה</t>
+          <t>אבנר יוזפוביץ
+יונתן יונג</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>אייל דבוש
-אור נצקנסקי</t>
+          <t>יהונתן דימנטמן
+ירין מטמוני</t>
         </is>
       </c>
       <c r="E53" s="5" t="n"/>
@@ -1608,8 +1608,8 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>יהונתן דימנטמן
-ירין מטמוני</t>
+          <t>מיכאל נפמן
+מאור סדון</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -1621,8 +1621,8 @@
       <c r="E56" s="5" t="n"/>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>אנדי בנישו
-דוד סספורטס</t>
+          <t>אגומס מלדה
+אור נצקנסקי</t>
         </is>
       </c>
       <c r="G56" s="5" t="n"/>
@@ -1669,14 +1669,14 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
+          <t>עדן אסרף
+אסף זבולון</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
           <t>שראל בלוך
 נתנאל שרעבי</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
-        <is>
-          <t>נדב קריספין
-יוסף רווה</t>
         </is>
       </c>
       <c r="E59" s="5" t="n"/>
@@ -1700,8 +1700,8 @@
       <c r="E60" s="5" t="n"/>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>מיכאל נפמן
-מאור סדון</t>
+          <t>נדב קריספין
+יוסף רווה</t>
         </is>
       </c>
       <c r="G60" s="5" t="n"/>
@@ -1730,14 +1730,14 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
+          <t>יואל אודיז
+ארד רז</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
+        <is>
           <t>אייל דבוש
 גיא פיאצה</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>יואל אודיז
-דורון לביא</t>
         </is>
       </c>
       <c r="E62" s="5" t="n"/>
@@ -1772,7 +1772,7 @@
       <c r="F64" s="3" t="inlineStr">
         <is>
           <t>דעאל כהן
-אגומס מלדה</t>
+דורון לביא</t>
         </is>
       </c>
       <c r="G64" s="5" t="n"/>
@@ -1788,13 +1788,13 @@
       <c r="C65" s="3" t="inlineStr">
         <is>
           <t>ליאור אבו חמדה
-איתמר בנימין</t>
+שמעון ספנייב</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
           <t>עומרי דותן
-שמעון ספנייב</t>
+איתי כהן</t>
         </is>
       </c>
       <c r="E65" s="5" t="n"/>
@@ -1849,15 +1849,15 @@
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>עדן אסרף
-אסף זבולון</t>
+          <t>מיכאל נפמן
+מאור סדון</t>
         </is>
       </c>
       <c r="E68" s="5" t="n"/>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>איתי כהן
-ארד רז</t>
+          <t>אנדי בנישו
+דוד סספורטס</t>
         </is>
       </c>
       <c r="G68" s="5" t="n"/>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,9 +509,7 @@
     <col width="28" customWidth="1" min="3" max="3"/>
     <col width="28" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="28" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,16 +540,6 @@
       </c>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>נתיבות</t>
-        </is>
-      </c>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>כתת כוננות</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="inlineStr">
-        <is>
           <t>תורנות</t>
         </is>
       </c>
@@ -582,18 +570,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>דובר אלבז
-נריה כלפה</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>10 חדר</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -609,9 +586,7 @@
       <c r="C3" s="6" t="n"/>
       <c r="D3" s="6" t="n"/>
       <c r="E3" s="6" t="n"/>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="7" t="n"/>
+      <c r="F3" s="7" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="n"/>
@@ -623,9 +598,7 @@
       <c r="C4" s="7" t="n"/>
       <c r="D4" s="7" t="n"/>
       <c r="E4" s="6" t="n"/>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>7 חדר</t>
         </is>
@@ -651,9 +624,7 @@
         </is>
       </c>
       <c r="E5" s="6" t="n"/>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="6" t="n"/>
+      <c r="F5" s="6" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="n"/>
@@ -665,14 +636,7 @@
       <c r="C6" s="6" t="n"/>
       <c r="D6" s="6" t="n"/>
       <c r="E6" s="6" t="n"/>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>עדן אסרף
-איתי סיני</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n"/>
-      <c r="H6" s="6" t="n"/>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="n"/>
@@ -685,8 +649,6 @@
       <c r="D7" s="7" t="n"/>
       <c r="E7" s="6" t="n"/>
       <c r="F7" s="6" t="n"/>
-      <c r="G7" s="7" t="n"/>
-      <c r="H7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="n"/>
@@ -709,12 +671,6 @@
       </c>
       <c r="E8" s="6" t="n"/>
       <c r="F8" s="6" t="n"/>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>8 חדר</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="n"/>
@@ -726,9 +682,7 @@
       <c r="C9" s="6" t="n"/>
       <c r="D9" s="6" t="n"/>
       <c r="E9" s="6" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="6" t="n"/>
-      <c r="H9" s="6" t="n"/>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="n"/>
@@ -740,14 +694,7 @@
       <c r="C10" s="7" t="n"/>
       <c r="D10" s="7" t="n"/>
       <c r="E10" s="6" t="n"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>שראל בלוך
-נתנאל שרעבי</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="n"/>
-      <c r="H10" s="6" t="n"/>
+      <c r="F10" s="6" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="n"/>
@@ -770,8 +717,6 @@
       </c>
       <c r="E11" s="6" t="n"/>
       <c r="F11" s="6" t="n"/>
-      <c r="G11" s="6" t="n"/>
-      <c r="H11" s="6" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="n"/>
@@ -784,8 +729,6 @@
       <c r="D12" s="6" t="n"/>
       <c r="E12" s="6" t="n"/>
       <c r="F12" s="6" t="n"/>
-      <c r="G12" s="6" t="n"/>
-      <c r="H12" s="6" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="n"/>
@@ -798,8 +741,6 @@
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="6" t="n"/>
       <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-      <c r="H13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="n"/>
@@ -821,18 +762,7 @@
         </is>
       </c>
       <c r="E14" s="6" t="n"/>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>אייל דבוש
-גיא פיאצה</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>11 חדר</t>
-        </is>
-      </c>
-      <c r="H14" s="5" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -849,8 +779,6 @@
       <c r="D15" s="6" t="n"/>
       <c r="E15" s="7" t="n"/>
       <c r="F15" s="6" t="n"/>
-      <c r="G15" s="6" t="n"/>
-      <c r="H15" s="6" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="n"/>
@@ -868,8 +796,6 @@
         </is>
       </c>
       <c r="F16" s="6" t="n"/>
-      <c r="G16" s="6" t="n"/>
-      <c r="H16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n"/>
@@ -891,9 +817,7 @@
         </is>
       </c>
       <c r="E17" s="6" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="6" t="n"/>
-      <c r="H17" s="6" t="n"/>
+      <c r="F17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n">
@@ -907,14 +831,7 @@
       <c r="C18" s="6" t="n"/>
       <c r="D18" s="6" t="n"/>
       <c r="E18" s="6" t="n"/>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>איתמר בנימין
-חן טלה</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="n"/>
-      <c r="H18" s="6" t="n"/>
+      <c r="F18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="n"/>
@@ -927,8 +844,6 @@
       <c r="D19" s="7" t="n"/>
       <c r="E19" s="7" t="n"/>
       <c r="F19" s="6" t="n"/>
-      <c r="G19" s="7" t="n"/>
-      <c r="H19" s="6" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="n"/>
@@ -956,12 +871,6 @@
         </is>
       </c>
       <c r="F20" s="6" t="n"/>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>9 חדר</t>
-        </is>
-      </c>
-      <c r="H20" s="6" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="n"/>
@@ -973,9 +882,7 @@
       <c r="C21" s="6" t="n"/>
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="6" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="6" t="n"/>
-      <c r="H21" s="6" t="n"/>
+      <c r="F21" s="6" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="n"/>
@@ -987,14 +894,7 @@
       <c r="C22" s="7" t="n"/>
       <c r="D22" s="7" t="n"/>
       <c r="E22" s="6" t="n"/>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>יהונתן דימנטמן
-ירין מטמוני</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="n"/>
-      <c r="H22" s="6" t="n"/>
+      <c r="F22" s="6" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="n"/>
@@ -1017,8 +917,6 @@
       </c>
       <c r="E23" s="7" t="n"/>
       <c r="F23" s="6" t="n"/>
-      <c r="G23" s="6" t="n"/>
-      <c r="H23" s="6" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="n"/>
@@ -1035,8 +933,6 @@
         </is>
       </c>
       <c r="F24" s="6" t="n"/>
-      <c r="G24" s="6" t="n"/>
-      <c r="H24" s="6" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="n"/>
@@ -1048,9 +944,7 @@
       <c r="C25" s="7" t="n"/>
       <c r="D25" s="7" t="n"/>
       <c r="E25" s="6" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
-      <c r="H25" s="6" t="n"/>
+      <c r="F25" s="6" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="6" t="n"/>
@@ -1072,18 +966,7 @@
         </is>
       </c>
       <c r="E26" s="6" t="n"/>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>אור נצקנסקי
-ארד רז</t>
-        </is>
-      </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>6 חדר</t>
-        </is>
-      </c>
-      <c r="H26" s="6" t="n"/>
+      <c r="F26" s="6" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="n"/>
@@ -1095,9 +978,7 @@
       <c r="C27" s="6" t="n"/>
       <c r="D27" s="6" t="n"/>
       <c r="E27" s="6" t="n"/>
-      <c r="F27" s="6" t="n"/>
-      <c r="G27" s="6" t="n"/>
-      <c r="H27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="n"/>
@@ -1109,9 +990,7 @@
       <c r="C28" s="7" t="n"/>
       <c r="D28" s="7" t="n"/>
       <c r="E28" s="6" t="n"/>
-      <c r="F28" s="6" t="n"/>
-      <c r="G28" s="6" t="n"/>
-      <c r="H28" s="3" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>8 חדר</t>
         </is>
@@ -1137,9 +1016,7 @@
         </is>
       </c>
       <c r="E29" s="6" t="n"/>
-      <c r="F29" s="7" t="n"/>
-      <c r="G29" s="6" t="n"/>
-      <c r="H29" s="6" t="n"/>
+      <c r="F29" s="6" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="n"/>
@@ -1151,14 +1028,7 @@
       <c r="C30" s="6" t="n"/>
       <c r="D30" s="6" t="n"/>
       <c r="E30" s="6" t="n"/>
-      <c r="F30" s="3" t="inlineStr">
-        <is>
-          <t>עומרי דותן
-דעאל כהן</t>
-        </is>
-      </c>
-      <c r="G30" s="6" t="n"/>
-      <c r="H30" s="6" t="n"/>
+      <c r="F30" s="6" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="n"/>
@@ -1171,8 +1041,6 @@
       <c r="D31" s="7" t="n"/>
       <c r="E31" s="6" t="n"/>
       <c r="F31" s="6" t="n"/>
-      <c r="G31" s="7" t="n"/>
-      <c r="H31" s="6" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="n"/>
@@ -1195,12 +1063,6 @@
       </c>
       <c r="E32" s="6" t="n"/>
       <c r="F32" s="6" t="n"/>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t>7 חדר</t>
-        </is>
-      </c>
-      <c r="H32" s="6" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="6" t="n"/>
@@ -1212,9 +1074,7 @@
       <c r="C33" s="6" t="n"/>
       <c r="D33" s="6" t="n"/>
       <c r="E33" s="6" t="n"/>
-      <c r="F33" s="7" t="n"/>
-      <c r="G33" s="6" t="n"/>
-      <c r="H33" s="6" t="n"/>
+      <c r="F33" s="6" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="n"/>
@@ -1226,14 +1086,7 @@
       <c r="C34" s="7" t="n"/>
       <c r="D34" s="7" t="n"/>
       <c r="E34" s="6" t="n"/>
-      <c r="F34" s="3" t="inlineStr">
-        <is>
-          <t>יואל אודיז
-אבנר יוזפוביץ</t>
-        </is>
-      </c>
-      <c r="G34" s="6" t="n"/>
-      <c r="H34" s="6" t="n"/>
+      <c r="F34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="n"/>
@@ -1256,8 +1109,6 @@
       </c>
       <c r="E35" s="6" t="n"/>
       <c r="F35" s="6" t="n"/>
-      <c r="G35" s="6" t="n"/>
-      <c r="H35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="6" t="n"/>
@@ -1270,8 +1121,6 @@
       <c r="D36" s="6" t="n"/>
       <c r="E36" s="6" t="n"/>
       <c r="F36" s="6" t="n"/>
-      <c r="G36" s="6" t="n"/>
-      <c r="H36" s="6" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="6" t="n"/>
@@ -1284,8 +1133,6 @@
       <c r="D37" s="7" t="n"/>
       <c r="E37" s="6" t="n"/>
       <c r="F37" s="7" t="n"/>
-      <c r="G37" s="7" t="n"/>
-      <c r="H37" s="7" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="6" t="n"/>
@@ -1296,29 +1143,18 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>יהונתן דימנטמן
-ירין מטמוני</t>
+          <t>עומרי דותן
+פביאן חויוס</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>דובר אלבז
-נריה כלפה</t>
+          <t>אבנר יוזפוביץ
+ארד רז</t>
         </is>
       </c>
       <c r="E38" s="6" t="n"/>
-      <c r="F38" s="3" t="inlineStr">
-        <is>
-          <t>פביאן חויוס
-יניב משה</t>
-        </is>
-      </c>
-      <c r="G38" s="3" t="inlineStr">
-        <is>
-          <t>10 חדר</t>
-        </is>
-      </c>
-      <c r="H38" s="5" t="inlineStr">
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1335,8 +1171,6 @@
       <c r="D39" s="6" t="n"/>
       <c r="E39" s="7" t="n"/>
       <c r="F39" s="6" t="n"/>
-      <c r="G39" s="6" t="n"/>
-      <c r="H39" s="6" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="6" t="n"/>
@@ -1349,13 +1183,11 @@
       <c r="D40" s="7" t="n"/>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>עדן אסרף
-איתי סיני</t>
+          <t>דעאל כהן
+אור נצקנסקי</t>
         </is>
       </c>
       <c r="F40" s="6" t="n"/>
-      <c r="G40" s="6" t="n"/>
-      <c r="H40" s="6" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="7" t="n"/>
@@ -1366,20 +1198,18 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>אייל דבוש
-גיא פיאצה</t>
+          <t>עדן אסרף
+איתי סיני</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>שראל בלוך
-נתנאל שרעבי</t>
+          <t>דובר אלבז
+נריה כלפה</t>
         </is>
       </c>
       <c r="E41" s="6" t="n"/>
-      <c r="F41" s="7" t="n"/>
-      <c r="G41" s="6" t="n"/>
-      <c r="H41" s="6" t="n"/>
+      <c r="F41" s="6" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n">
@@ -1393,14 +1223,7 @@
       <c r="C42" s="6" t="n"/>
       <c r="D42" s="6" t="n"/>
       <c r="E42" s="6" t="n"/>
-      <c r="F42" s="3" t="inlineStr">
-        <is>
-          <t>אנדי בנישו
-דוד סספורטס</t>
-        </is>
-      </c>
-      <c r="G42" s="6" t="n"/>
-      <c r="H42" s="6" t="n"/>
+      <c r="F42" s="6" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="6" t="n"/>
@@ -1413,8 +1236,6 @@
       <c r="D43" s="7" t="n"/>
       <c r="E43" s="7" t="n"/>
       <c r="F43" s="6" t="n"/>
-      <c r="G43" s="7" t="n"/>
-      <c r="H43" s="6" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="n"/>
@@ -1426,28 +1247,22 @@
       <c r="C44" s="3" t="inlineStr">
         <is>
           <t>אסף זבולון
-לוטם עטיה</t>
+יניב משה</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>חן טלה
-איתי כהן</t>
+          <t>אייל דבוש
+גיא פיאצה</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>אדיר מור
-אור נצקנסקי</t>
+          <t>שראל בלוך
+נתנאל שרעבי</t>
         </is>
       </c>
       <c r="F44" s="6" t="n"/>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>8 חדר</t>
-        </is>
-      </c>
-      <c r="H44" s="6" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="6" t="n"/>
@@ -1459,9 +1274,7 @@
       <c r="C45" s="6" t="n"/>
       <c r="D45" s="6" t="n"/>
       <c r="E45" s="6" t="n"/>
-      <c r="F45" s="7" t="n"/>
-      <c r="G45" s="6" t="n"/>
-      <c r="H45" s="6" t="n"/>
+      <c r="F45" s="6" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="6" t="n"/>
@@ -1473,14 +1286,7 @@
       <c r="C46" s="7" t="n"/>
       <c r="D46" s="7" t="n"/>
       <c r="E46" s="6" t="n"/>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>דימטרי יוספוב
-סרגיי שבצוב</t>
-        </is>
-      </c>
-      <c r="G46" s="6" t="n"/>
-      <c r="H46" s="6" t="n"/>
+      <c r="F46" s="6" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="6" t="n"/>
@@ -1497,14 +1303,12 @@
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>לואיס אברבוך
-דעאל כהן</t>
+          <t>חן טלה
+איתי כהן</t>
         </is>
       </c>
       <c r="E47" s="7" t="n"/>
       <c r="F47" s="6" t="n"/>
-      <c r="G47" s="6" t="n"/>
-      <c r="H47" s="6" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="6" t="n"/>
@@ -1521,8 +1325,6 @@
         </is>
       </c>
       <c r="F48" s="6" t="n"/>
-      <c r="G48" s="6" t="n"/>
-      <c r="H48" s="6" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="6" t="n"/>
@@ -1534,9 +1336,7 @@
       <c r="C49" s="7" t="n"/>
       <c r="D49" s="7" t="n"/>
       <c r="E49" s="6" t="n"/>
-      <c r="F49" s="7" t="n"/>
-      <c r="G49" s="7" t="n"/>
-      <c r="H49" s="6" t="n"/>
+      <c r="F49" s="6" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="6" t="n"/>
@@ -1547,29 +1347,18 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>אבנר יוזפוביץ
-מיכאל ניסנוב</t>
+          <t>יהונתן דימנטמן
+ירין מטמוני</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>בן בנימין
-עומרי דותן</t>
+          <t>דימטרי יוספוב
+סרגיי שבצוב</t>
         </is>
       </c>
       <c r="E50" s="6" t="n"/>
-      <c r="F50" s="3" t="inlineStr">
-        <is>
-          <t>שגיא אריה
-יונתן יונג</t>
-        </is>
-      </c>
-      <c r="G50" s="3" t="inlineStr">
-        <is>
-          <t>11 חדר</t>
-        </is>
-      </c>
-      <c r="H50" s="6" t="n"/>
+      <c r="F50" s="6" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="6" t="n"/>
@@ -1581,9 +1370,7 @@
       <c r="C51" s="6" t="n"/>
       <c r="D51" s="6" t="n"/>
       <c r="E51" s="6" t="n"/>
-      <c r="F51" s="6" t="n"/>
-      <c r="G51" s="6" t="n"/>
-      <c r="H51" s="7" t="n"/>
+      <c r="F51" s="7" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="6" t="n"/>
@@ -1595,9 +1382,7 @@
       <c r="C52" s="7" t="n"/>
       <c r="D52" s="7" t="n"/>
       <c r="E52" s="6" t="n"/>
-      <c r="F52" s="6" t="n"/>
-      <c r="G52" s="6" t="n"/>
-      <c r="H52" s="3" t="inlineStr">
+      <c r="F52" s="3" t="inlineStr">
         <is>
           <t>9 חדר</t>
         </is>
@@ -1612,20 +1397,18 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>דובר אלבז
-נריה כלפה</t>
+          <t>אנדי בנישו
+דוד סספורטס</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>נדב קריספין
-יוסף רווה</t>
+          <t>לואיס אברבוך
+אדיר מור</t>
         </is>
       </c>
       <c r="E53" s="6" t="n"/>
-      <c r="F53" s="7" t="n"/>
-      <c r="G53" s="6" t="n"/>
-      <c r="H53" s="6" t="n"/>
+      <c r="F53" s="6" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="6" t="n"/>
@@ -1637,14 +1420,7 @@
       <c r="C54" s="6" t="n"/>
       <c r="D54" s="6" t="n"/>
       <c r="E54" s="6" t="n"/>
-      <c r="F54" s="3" t="inlineStr">
-        <is>
-          <t>יהונתן דימנטמן
-ירין מטמוני</t>
-        </is>
-      </c>
-      <c r="G54" s="6" t="n"/>
-      <c r="H54" s="6" t="n"/>
+      <c r="F54" s="6" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="6" t="n"/>
@@ -1657,8 +1433,6 @@
       <c r="D55" s="7" t="n"/>
       <c r="E55" s="6" t="n"/>
       <c r="F55" s="6" t="n"/>
-      <c r="G55" s="7" t="n"/>
-      <c r="H55" s="6" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="n"/>
@@ -1669,24 +1443,18 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס
-יניב משה</t>
+          <t>שגיא אריה
+לוטם עטיה</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>עדן אסרף
-איתי סיני</t>
+          <t>בן בנימין
+אור נצקנסקי</t>
         </is>
       </c>
       <c r="E56" s="6" t="n"/>
       <c r="F56" s="6" t="n"/>
-      <c r="G56" s="3" t="inlineStr">
-        <is>
-          <t>9 חדר</t>
-        </is>
-      </c>
-      <c r="H56" s="6" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="6" t="n"/>
@@ -1698,9 +1466,7 @@
       <c r="C57" s="6" t="n"/>
       <c r="D57" s="6" t="n"/>
       <c r="E57" s="6" t="n"/>
-      <c r="F57" s="7" t="n"/>
-      <c r="G57" s="6" t="n"/>
-      <c r="H57" s="6" t="n"/>
+      <c r="F57" s="6" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="6" t="n"/>
@@ -1712,14 +1478,7 @@
       <c r="C58" s="7" t="n"/>
       <c r="D58" s="7" t="n"/>
       <c r="E58" s="6" t="n"/>
-      <c r="F58" s="3" t="inlineStr">
-        <is>
-          <t>שראל בלוך
-נתנאל שרעבי</t>
-        </is>
-      </c>
-      <c r="G58" s="6" t="n"/>
-      <c r="H58" s="6" t="n"/>
+      <c r="F58" s="6" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="6" t="n"/>
@@ -1730,20 +1489,18 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>חן טלה
-איתי כהן</t>
+          <t>ליאור אבו חמדה
+יונתן יונג</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>אייל דבוש
-גיא פיאצה</t>
+          <t>נדב קריספין
+יוסף רווה</t>
         </is>
       </c>
       <c r="E59" s="6" t="n"/>
       <c r="F59" s="6" t="n"/>
-      <c r="G59" s="6" t="n"/>
-      <c r="H59" s="6" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="6" t="n"/>
@@ -1756,8 +1513,6 @@
       <c r="D60" s="6" t="n"/>
       <c r="E60" s="6" t="n"/>
       <c r="F60" s="6" t="n"/>
-      <c r="G60" s="6" t="n"/>
-      <c r="H60" s="6" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="6" t="n"/>
@@ -1770,8 +1525,6 @@
       <c r="D61" s="7" t="n"/>
       <c r="E61" s="6" t="n"/>
       <c r="F61" s="7" t="n"/>
-      <c r="G61" s="7" t="n"/>
-      <c r="H61" s="7" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="6" t="n"/>
@@ -1782,29 +1535,18 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>ליאור אבו חמדה
-אדיר מור</t>
+          <t>דובר אלבז
+נריה כלפה</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>אנדי בנישו
-דוד סספורטס</t>
+          <t>פביאן חויוס
+דעאל כהן</t>
         </is>
       </c>
       <c r="E62" s="6" t="n"/>
-      <c r="F62" s="3" t="inlineStr">
-        <is>
-          <t>יואל אודיז
-ארד רז</t>
-        </is>
-      </c>
-      <c r="G62" s="3" t="inlineStr">
-        <is>
-          <t>5 חדר</t>
-        </is>
-      </c>
-      <c r="H62" s="5" t="inlineStr">
+      <c r="F62" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -1821,8 +1563,6 @@
       <c r="D63" s="6" t="n"/>
       <c r="E63" s="6" t="n"/>
       <c r="F63" s="6" t="n"/>
-      <c r="G63" s="6" t="n"/>
-      <c r="H63" s="6" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="7" t="n"/>
@@ -1835,11 +1575,9 @@
       <c r="D64" s="7" t="n"/>
       <c r="E64" s="7" t="n"/>
       <c r="F64" s="7" t="n"/>
-      <c r="G64" s="7" t="n"/>
-      <c r="H64" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
+  <mergeCells count="59">
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A41"/>
     <mergeCell ref="A42:A64"/>
@@ -1892,40 +1630,13 @@
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="E44:E47"/>
     <mergeCell ref="E48:E64"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F13"/>
+    <mergeCell ref="F14:F27"/>
+    <mergeCell ref="F28:F37"/>
+    <mergeCell ref="F38:F51"/>
+    <mergeCell ref="F52:F61"/>
     <mergeCell ref="F62:F64"/>
-    <mergeCell ref="G2:G7"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="G26:G31"/>
-    <mergeCell ref="G32:G37"/>
-    <mergeCell ref="G38:G43"/>
-    <mergeCell ref="G44:G49"/>
-    <mergeCell ref="G50:G55"/>
-    <mergeCell ref="G56:G61"/>
-    <mergeCell ref="G62:G64"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H13"/>
-    <mergeCell ref="H14:H27"/>
-    <mergeCell ref="H28:H37"/>
-    <mergeCell ref="H38:H51"/>
-    <mergeCell ref="H52:H61"/>
-    <mergeCell ref="H62:H64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1947,7 +1658,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="111" customWidth="1" min="3" max="3"/>
+    <col width="179" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1978,8 +1689,9 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>יניב משה, איתמר בנימין, אסף זבולון, לוטם עטיה, בן בנימין
-אבנר יוזפוביץ</t>
+          <t>אבנר יוזפוביץ, עדן אסרף, איתי סיני, שראל בלוך, נתנאל שרעבי
+יניב משה, אייל דבוש, גיא פיאצה, איתמר בנימין, אסף זבולון
+לוטם עטיה, בן בנימין</t>
         </is>
       </c>
     </row>
@@ -2001,7 +1713,8 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>יניב משה, איתמר בנימין, אסף זבולון, לוטם עטיה</t>
+          <t>עדן אסרף, איתי סיני, שראל בלוך, נתנאל שרעבי, יניב משה
+אייל דבוש, גיא פיאצה, איתמר בנימין, אסף זבולון, לוטם עטיה</t>
         </is>
       </c>
     </row>
@@ -2014,8 +1727,8 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, יניב משה, איתמר בנימין, חן טלה, יהונתן דימנטמן
-ירין מטמוני</t>
+          <t>פביאן חויוס, שראל בלוך, נתנאל שרעבי, יניב משה, אייל דבוש
+גיא פיאצה, איתמר בנימין, חן טלה, יהונתן דימנטמן, ירין מטמוני</t>
         </is>
       </c>
     </row>
@@ -2026,11 +1739,7 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>פביאן חויוס, יניב משה, יהונתן דימנטמן, ירין מטמוני</t>
-        </is>
-      </c>
+      <c r="C6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n"/>
@@ -2050,8 +1759,8 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, יהונתן דימנטמן, ירין מטמוני, אנדי בנישו, דוד סספורטס
-אור נצקנסקי</t>
+          <t>פביאן חויוס, אור נצקנסקי, איתמר בנימין, חן טלה, יהונתן דימנטמן
+ירין מטמוני, אנדי בנישו, דוד סספורטס</t>
         </is>
       </c>
     </row>
@@ -2071,11 +1780,7 @@
           <t>22:00</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>פביאן חויוס, אנדי בנישו, דוד סספורטס, אור נצקנסקי</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n"/>
@@ -2086,8 +1791,8 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, איתי כהן, אנדי בנישו, דוד סספורטס, אור נצקנסקי
-ארד רז, דעאל כהן</t>
+          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, איתי כהן
+אנדי בנישו, דוד סספורטס</t>
         </is>
       </c>
     </row>
@@ -2120,7 +1825,8 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, דורון לביא, עומרי דותן, דעאל כהן</t>
+          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, דורון לביא
+עומרי דותן</t>
         </is>
       </c>
     </row>
@@ -2151,8 +1857,8 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, דורון לביא, דובר אלבז, נריה כלפה, עומרי דותן
-דעאל כהן, נדב קריספין, יוסף רווה</t>
+          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, דורון לביא
+עומרי דותן, דובר אלבז, נריה כלפה, נדב קריספין, יוסף רווה</t>
         </is>
       </c>
     </row>
@@ -2165,7 +1871,8 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, דובר אלבז, נריה כלפה, נדב קריספין, יוסף רווה</t>
+          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, עומרי דותן
+דובר אלבז, נריה כלפה, נדב קריספין, יוסף רווה</t>
         </is>
       </c>
     </row>
@@ -2187,8 +1894,9 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, דובר אלבז, נריה כלפה, עדן אסרף, איתי סיני
-אבנר יוזפוביץ, נדב קריספין, יוסף רווה</t>
+          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, עומרי דותן
+דובר אלבז, נריה כלפה, אבנר יוזפוביץ, עדן אסרף, איתי סיני
+נדב קריספין, יוסף רווה</t>
         </is>
       </c>
     </row>
@@ -2208,12 +1916,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>פביאן חויוס, דובר אלבז, נריה כלפה, עדן אסרף, איתי סיני
-נדב קריספין, יוסף רווה</t>
-        </is>
-      </c>
+      <c r="C22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="n"/>
@@ -2224,7 +1927,8 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, דובר אלבז, נריה כלפה, עדן אסרף, איתי סיני
+          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, עומרי דותן
+דובר אלבז, נריה כלפה, אבנר יוזפוביץ, עדן אסרף, איתי סיני
 שראל בלוך, נתנאל שרעבי, יניב משה</t>
         </is>
       </c>
@@ -2238,8 +1942,10 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, דובר אלבז, נריה כלפה, עדן אסרף, איתי סיני
-שראל בלוך, נתנאל שרעבי, יניב משה, אייל דבוש, גיא פיאצה</t>
+          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, עומרי דותן
+דובר אלבז, נריה כלפה, אבנר יוזפוביץ, עדן אסרף, איתי סיני
+שראל בלוך, נתנאל שרעבי, יואל אודיז, יניב משה, אייל דבוש
+גיא פיאצה</t>
         </is>
       </c>
     </row>
@@ -2261,8 +1967,9 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>עדן אסרף, איתי סיני, שראל בלוך, נתנאל שרעבי, אייל דבוש
-גיא פיאצה, חן טלה</t>
+          <t>אור נצקנסקי, דעאל כהן, דובר אלבז, נריה כלפה, עדן אסרף
+איתי סיני, שראל בלוך, נתנאל שרעבי, יואל אודיז, יניב משה
+אייל דבוש, גיא פיאצה, חן טלה, יהונתן דימנטמן, ירין מטמוני</t>
         </is>
       </c>
     </row>
@@ -2284,7 +1991,9 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>שראל בלוך, נתנאל שרעבי, אייל דבוש, גיא פיאצה, חן טלה</t>
+          <t>דובר אלבז, נריה כלפה, עדן אסרף, איתי סיני, שראל בלוך
+נתנאל שרעבי, יואל אודיז, יניב משה, אייל דבוש, גיא פיאצה
+חן טלה, יהונתן דימנטמן, ירין מטמוני</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2006,9 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>חן טלה, איתי כהן, אדיר מור, אנדי בנישו, דוד סספורטס</t>
+          <t>שראל בלוך, נתנאל שרעבי, יואל אודיז, יניב משה, אייל דבוש
+גיא פיאצה, חן טלה, יהונתן דימנטמן, ירין מטמוני, איתי כהן
+אדיר מור, אנדי בנישו, דוד סספורטס</t>
         </is>
       </c>
     </row>
@@ -2308,11 +2019,7 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>חן טלה, איתי כהן, אדיר מור, אור נצקנסקי, ארד רז</t>
-        </is>
-      </c>
+      <c r="C30" s="5" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n"/>
@@ -2332,7 +2039,9 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>ארד רז, דימטרי יוספוב, סרגיי שבצוב</t>
+          <t>יואל אודיז, חן טלה, יהונתן דימנטמן, ירין מטמוני, איתי כהן
+אדיר מור, אנדי בנישו, דוד סספורטס, דימטרי יוספוב, סרגיי שבצוב
+לוטם עטיה</t>
         </is>
       </c>
     </row>
@@ -2352,11 +2061,7 @@
           <t>22:00</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>ארד רז, עומרי דותן, דעאל כהן</t>
-        </is>
-      </c>
+      <c r="C34" s="5" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="n"/>
@@ -2367,7 +2072,9 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>עומרי דותן, בן בנימין, שגיא אריה, מיכאל ניסנוב</t>
+          <t>יהונתן דימנטמן, ירין מטמוני, אדיר מור, אנדי בנישו, דוד סספורטס
+דימטרי יוספוב, סרגיי שבצוב, לוטם עטיה, לואיס אברבוך, בן בנימין
+שגיא אריה, מיכאל ניסנוב</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2107,9 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>נדב קריספין, יוסף רווה, ליאור אבו חמדה</t>
+          <t>אדיר מור, אנדי בנישו, דוד סספורטס, לוטם עטיה, לואיס אברבוך
+בן בנימין, שגיא אריה, מיכאל ניסנוב, נדב קריספין, יוסף רווה
+ליאור אבו חמדה, יונתן יונג</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2140,9 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>יהונתן דימנטמן, ירין מטמוני, ליאור אבו חמדה</t>
+          <t>פביאן חויוס, עומרי דותן, אבנר יוזפוביץ, לוטם עטיה, בן בנימין
+שגיא אריה, מיכאל ניסנוב, נדב קריספין, יוסף רווה, ליאור אבו חמדה
+יונתן יונג</t>
         </is>
       </c>
     </row>
@@ -2442,11 +2153,7 @@
           <t>06:00</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>פביאן חויוס, יניב משה, ליאור אבו חמדה</t>
-        </is>
-      </c>
+      <c r="C42" s="5" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="n"/>
@@ -2466,7 +2173,9 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>שראל בלוך, נתנאל שרעבי, אייל דבוש, גיא פיאצה, ליאור אבו חמדה</t>
+          <t>פביאן חויוס, דעאל כהן, עומרי דותן, דובר אלבז, נריה כלפה
+אבנר יוזפוביץ, עדן אסרף, איתי סיני, מיכאל ניסנוב, נדב קריספין
+יוסף רווה, ליאור אבו חמדה, יונתן יונג</t>
         </is>
       </c>
     </row>
@@ -2486,11 +2195,7 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>אייל דבוש, גיא פיאצה, אנדי בנישו, דוד סספורטס, ליאור אבו חמדה</t>
-        </is>
-      </c>
+      <c r="C46" s="5" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="n"/>
@@ -2501,7 +2206,9 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>אנדי בנישו, דוד סספורטס, אסף זבולון, לוטם עטיה, ליאור אבו חמדה</t>
+          <t>פביאן חויוס, דעאל כהן, עומרי דותן, דובר אלבז, נריה כלפה
+אבנר יוזפוביץ, עדן אסרף, איתי סיני, יניב משה, אייל דבוש
+גיא פיאצה, אסף זבולון, מיכאל ניסנוב</t>
         </is>
       </c>
     </row>
@@ -2514,8 +2221,9 @@
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>אדיר מור, אנדי בנישו, דוד סספורטס, אור נצקנסקי, אסף זבולון
-לוטם עטיה, ליאור אבו חמדה</t>
+          <t>פביאן חויוס, דעאל כהן, עומרי דותן, דובר אלבז, נריה כלפה
+אבנר יוזפוביץ, עדן אסרף, איתי סיני, שראל בלוך, נתנאל שרעבי
+יניב משה, אייל דבוש, גיא פיאצה, אסף זבולון, מיכאל ניסנוב</t>
         </is>
       </c>
     </row>
@@ -2537,8 +2245,9 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>אור נצקנסקי, דימטרי יוספוב, סרגיי שבצוב, אסף זבולון, לוטם עטיה
-דעאל כהן, לואיס אברבוך</t>
+          <t>ארד רז, עומרי דותן, אבנר יוזפוביץ, עדן אסרף, איתי סיני
+שראל בלוך, נתנאל שרעבי, יואל אודיז, יניב משה, אייל דבוש
+גיא פיאצה, חן טלה, איתי כהן, אסף זבולון, מיכאל ניסנוב</t>
         </is>
       </c>
     </row>
@@ -2566,20 +2275,20 @@
     <mergeCell ref="A12:A35"/>
     <mergeCell ref="A36:A52"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C20:C22"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C50:C52"/>
   </mergeCells>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -496,7 +496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,9 +506,9 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
     <col width="28" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -1143,13 +1143,13 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>עומרי דותן
-פביאן חויוס</t>
+          <t>ראובן מאור
+עמיחי נעים</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>אבנר יוזפוביץ
+          <t>זיטר יצחק
 ארד רז</t>
         </is>
       </c>
@@ -1183,8 +1183,8 @@
       <c r="D40" s="7" t="n"/>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>דעאל כהן
-אור נצקנסקי</t>
+          <t>פביאן חויוס
+דעאל כהן</t>
         </is>
       </c>
       <c r="F40" s="6" t="n"/>
@@ -1246,20 +1246,20 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>אסף זבולון
-יניב משה</t>
+          <t>יואל אודיז
+חן טלה</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>אייל דבוש
-גיא פיאצה</t>
+          <t>אבנר יוזפוביץ
+דורון לביא</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>שראל בלוך
-נתנאל שרעבי</t>
+          <t>יניב משה
+אור נצקנסקי</t>
         </is>
       </c>
       <c r="F44" s="6" t="n"/>
@@ -1297,14 +1297,14 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>יואל אודיז
-ארד רז</t>
+          <t>אייל דבוש
+גיא פיאצה</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>חן טלה
-איתי כהן</t>
+          <t>שראל בלוך
+נתנאל שרעבי</t>
         </is>
       </c>
       <c r="E47" s="7" t="n"/>
@@ -1353,8 +1353,8 @@
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>דימטרי יוספוב
-סרגיי שבצוב</t>
+          <t>איתי כהן
+עמיחי נעים</t>
         </is>
       </c>
       <c r="E50" s="6" t="n"/>
@@ -1443,14 +1443,14 @@
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>שגיא אריה
+          <t>מיכאל ניסנוב
 לוטם עטיה</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
           <t>בן בנימין
-אור נצקנסקי</t>
+אסף זבולון</t>
         </is>
       </c>
       <c r="E56" s="6" t="n"/>
@@ -1489,8 +1489,8 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>ליאור אבו חמדה
-יונתן יונג</t>
+          <t>שגיא אריה
+זיטר יצחק</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -1535,14 +1535,14 @@
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>דובר אלבז
-נריה כלפה</t>
+          <t>פביאן חויוס
+ארד רז</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס
-דעאל כהן</t>
+          <t>דעאל כהן
+ראובן מאור</t>
         </is>
       </c>
       <c r="E62" s="6" t="n"/>
@@ -1561,11 +1561,11 @@
       </c>
       <c r="C63" s="6" t="n"/>
       <c r="D63" s="6" t="n"/>
-      <c r="E63" s="6" t="n"/>
+      <c r="E63" s="7" t="n"/>
       <c r="F63" s="6" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="7" t="n"/>
+      <c r="A64" s="6" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
           <t>22:00</t>
@@ -1573,14 +1573,800 @@
       </c>
       <c r="C64" s="7" t="n"/>
       <c r="D64" s="7" t="n"/>
-      <c r="E64" s="7" t="n"/>
-      <c r="F64" s="7" t="n"/>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>אלכסיי ברומברג
+אגומס מלדה</t>
+        </is>
+      </c>
+      <c r="F64" s="6" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="n"/>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>עומרי דותן
+אבנר יוזפוביץ</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>דימטרי יוספוב
+סרגיי שבצוב</t>
+        </is>
+      </c>
+      <c r="E65" s="6" t="n"/>
+      <c r="F65" s="6" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C66" s="6" t="n"/>
+      <c r="D66" s="6" t="n"/>
+      <c r="E66" s="6" t="n"/>
+      <c r="F66" s="6" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n"/>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C67" s="7" t="n"/>
+      <c r="D67" s="7" t="n"/>
+      <c r="E67" s="7" t="n"/>
+      <c r="F67" s="6" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n"/>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>ליאור אבו חמדה
+יניב משה</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>עדן אסרף
+איתי סיני</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>מרדוש דהן
+יונתן יונג</t>
+        </is>
+      </c>
+      <c r="F68" s="6" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n"/>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="n"/>
+      <c r="D69" s="6" t="n"/>
+      <c r="E69" s="6" t="n"/>
+      <c r="F69" s="6" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n"/>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C70" s="7" t="n"/>
+      <c r="D70" s="7" t="n"/>
+      <c r="E70" s="6" t="n"/>
+      <c r="F70" s="6" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n"/>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>שראל בלוך
+נתנאל שרעבי</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>אייל דבוש
+גיא פיאצה</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="n"/>
+      <c r="F71" s="6" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n"/>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C72" s="6" t="n"/>
+      <c r="D72" s="6" t="n"/>
+      <c r="E72" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n"/>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C73" s="7" t="n"/>
+      <c r="D73" s="7" t="n"/>
+      <c r="E73" s="6" t="n"/>
+      <c r="F73" s="6" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n"/>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>דובר אלבז
+נריה כלפה</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>חן טלה
+אור נצקנסקי</t>
+        </is>
+      </c>
+      <c r="E74" s="6" t="n"/>
+      <c r="F74" s="6" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n"/>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="n"/>
+      <c r="D75" s="6" t="n"/>
+      <c r="E75" s="6" t="n"/>
+      <c r="F75" s="7" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n"/>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C76" s="7" t="n"/>
+      <c r="D76" s="7" t="n"/>
+      <c r="E76" s="6" t="n"/>
+      <c r="F76" s="3" t="inlineStr">
+        <is>
+          <t>10 חדר</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n"/>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>אסף זבולון
+אדיר מור</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>מיכאל ניסנוב
+לוטם עטיה</t>
+        </is>
+      </c>
+      <c r="E77" s="6" t="n"/>
+      <c r="F77" s="6" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n"/>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C78" s="6" t="n"/>
+      <c r="D78" s="6" t="n"/>
+      <c r="E78" s="6" t="n"/>
+      <c r="F78" s="6" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n"/>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C79" s="7" t="n"/>
+      <c r="D79" s="7" t="n"/>
+      <c r="E79" s="6" t="n"/>
+      <c r="F79" s="6" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n"/>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>דורון לביא
+עמיחי נעים</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>איתמר בנימין
+זיטר יצחק</t>
+        </is>
+      </c>
+      <c r="E80" s="6" t="n"/>
+      <c r="F80" s="6" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n"/>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="n"/>
+      <c r="D81" s="6" t="n"/>
+      <c r="E81" s="6" t="n"/>
+      <c r="F81" s="6" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n"/>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C82" s="7" t="n"/>
+      <c r="D82" s="7" t="n"/>
+      <c r="E82" s="6" t="n"/>
+      <c r="F82" s="6" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n"/>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>נדב קריספין
+יוסף רווה</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>לואיס אברבוך
+פביאן חויוס</t>
+        </is>
+      </c>
+      <c r="E83" s="6" t="n"/>
+      <c r="F83" s="6" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n"/>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C84" s="6" t="n"/>
+      <c r="D84" s="6" t="n"/>
+      <c r="E84" s="6" t="n"/>
+      <c r="F84" s="6" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="n"/>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C85" s="7" t="n"/>
+      <c r="D85" s="7" t="n"/>
+      <c r="E85" s="6" t="n"/>
+      <c r="F85" s="7" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="n"/>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>אלכסיי ברומברג
+ראובן מאור</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>יואל אודיז
+ארד רז</t>
+        </is>
+      </c>
+      <c r="E86" s="6" t="n"/>
+      <c r="F86" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="n"/>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="n"/>
+      <c r="D87" s="6" t="n"/>
+      <c r="E87" s="7" t="n"/>
+      <c r="F87" s="6" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="n"/>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="C88" s="7" t="n"/>
+      <c r="D88" s="7" t="n"/>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>עומרי דותן
+אבנר יוזפוביץ</t>
+        </is>
+      </c>
+      <c r="F88" s="6" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="7" t="n"/>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן
+אגומס מלדה</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>מרדוש דהן
+יניב משה</t>
+        </is>
+      </c>
+      <c r="E89" s="6" t="n"/>
+      <c r="F89" s="6" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C90" s="6" t="n"/>
+      <c r="D90" s="6" t="n"/>
+      <c r="E90" s="6" t="n"/>
+      <c r="F90" s="6" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n"/>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C91" s="7" t="n"/>
+      <c r="D91" s="7" t="n"/>
+      <c r="E91" s="7" t="n"/>
+      <c r="F91" s="6" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n"/>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>ליאור אבו חמדה
+מיכאל ניסנוב</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>שראל בלוך
+נתנאל שרעבי</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>עדן אסרף
+איתי סיני</t>
+        </is>
+      </c>
+      <c r="F92" s="6" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n"/>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C93" s="6" t="n"/>
+      <c r="D93" s="6" t="n"/>
+      <c r="E93" s="6" t="n"/>
+      <c r="F93" s="6" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n"/>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C94" s="7" t="n"/>
+      <c r="D94" s="7" t="n"/>
+      <c r="E94" s="6" t="n"/>
+      <c r="F94" s="6" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n"/>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>אייל דבוש
+גיא פיאצה</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>דובר אלבז
+נריה כלפה</t>
+        </is>
+      </c>
+      <c r="E95" s="7" t="n"/>
+      <c r="F95" s="6" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="n"/>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C96" s="6" t="n"/>
+      <c r="D96" s="6" t="n"/>
+      <c r="E96" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F96" s="6" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="n"/>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C97" s="7" t="n"/>
+      <c r="D97" s="7" t="n"/>
+      <c r="E97" s="6" t="n"/>
+      <c r="F97" s="6" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="n"/>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>חן טלה
+לוטם עטיה</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>אסף זבולון
+דורון לביא</t>
+        </is>
+      </c>
+      <c r="E98" s="6" t="n"/>
+      <c r="F98" s="6" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="n"/>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C99" s="6" t="n"/>
+      <c r="D99" s="6" t="n"/>
+      <c r="E99" s="6" t="n"/>
+      <c r="F99" s="7" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="n"/>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C100" s="7" t="n"/>
+      <c r="D100" s="7" t="n"/>
+      <c r="E100" s="6" t="n"/>
+      <c r="F100" s="3" t="inlineStr">
+        <is>
+          <t>11 חדר</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="n"/>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>לואיס אברבוך
+זיטר יצחק</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>אדיר מור
+עמיחי נעים</t>
+        </is>
+      </c>
+      <c r="E101" s="6" t="n"/>
+      <c r="F101" s="6" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="6" t="n"/>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C102" s="6" t="n"/>
+      <c r="D102" s="6" t="n"/>
+      <c r="E102" s="6" t="n"/>
+      <c r="F102" s="6" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="n"/>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C103" s="7" t="n"/>
+      <c r="D103" s="7" t="n"/>
+      <c r="E103" s="6" t="n"/>
+      <c r="F103" s="6" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="6" t="n"/>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>בן בנימין
+איתי כהן</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>יהונתן דימנטמן
+ירין מטמוני</t>
+        </is>
+      </c>
+      <c r="E104" s="6" t="n"/>
+      <c r="F104" s="6" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="n"/>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C105" s="6" t="n"/>
+      <c r="D105" s="6" t="n"/>
+      <c r="E105" s="6" t="n"/>
+      <c r="F105" s="6" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="6" t="n"/>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C106" s="7" t="n"/>
+      <c r="D106" s="7" t="n"/>
+      <c r="E106" s="6" t="n"/>
+      <c r="F106" s="6" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="n"/>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>דימטרי יוספוב
+סרגיי שבצוב</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>אנדי בנישו
+דוד סספורטס</t>
+        </is>
+      </c>
+      <c r="E107" s="6" t="n"/>
+      <c r="F107" s="6" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="6" t="n"/>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C108" s="6" t="n"/>
+      <c r="D108" s="6" t="n"/>
+      <c r="E108" s="6" t="n"/>
+      <c r="F108" s="6" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="n"/>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C109" s="7" t="n"/>
+      <c r="D109" s="7" t="n"/>
+      <c r="E109" s="6" t="n"/>
+      <c r="F109" s="7" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="6" t="n"/>
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>איתמר בנימין
+פביאן חויוס</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>שגיא אריה
+יונתן יונג</t>
+        </is>
+      </c>
+      <c r="E110" s="6" t="n"/>
+      <c r="F110" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="n"/>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C111" s="6" t="n"/>
+      <c r="D111" s="6" t="n"/>
+      <c r="E111" s="6" t="n"/>
+      <c r="F111" s="6" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="7" t="n"/>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="C112" s="7" t="n"/>
+      <c r="D112" s="7" t="n"/>
+      <c r="E112" s="7" t="n"/>
+      <c r="F112" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="103">
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A41"/>
-    <mergeCell ref="A42:A64"/>
+    <mergeCell ref="A42:A65"/>
+    <mergeCell ref="A66:A89"/>
+    <mergeCell ref="A90:A112"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -1602,6 +2388,22 @@
     <mergeCell ref="C56:C58"/>
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="C110:C112"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
@@ -1623,20 +2425,46 @@
     <mergeCell ref="D56:D58"/>
     <mergeCell ref="D59:D61"/>
     <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="D110:D112"/>
     <mergeCell ref="E2:E15"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="E24:E39"/>
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E64"/>
+    <mergeCell ref="E48:E63"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="E72:E87"/>
+    <mergeCell ref="E88:E91"/>
+    <mergeCell ref="E92:E95"/>
+    <mergeCell ref="E96:E112"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F13"/>
     <mergeCell ref="F14:F27"/>
     <mergeCell ref="F28:F37"/>
     <mergeCell ref="F38:F51"/>
     <mergeCell ref="F52:F61"/>
-    <mergeCell ref="F62:F64"/>
+    <mergeCell ref="F62:F75"/>
+    <mergeCell ref="F76:F85"/>
+    <mergeCell ref="F86:F99"/>
+    <mergeCell ref="F100:F109"/>
+    <mergeCell ref="F110:F112"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1648,7 +2476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,7 +2486,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="179" customWidth="1" min="3" max="3"/>
+    <col width="270" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1689,9 +2517,9 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>אבנר יוזפוביץ, עדן אסרף, איתי סיני, שראל בלוך, נתנאל שרעבי
-יניב משה, אייל דבוש, גיא פיאצה, איתמר בנימין, אסף זבולון
-לוטם עטיה, בן בנימין</t>
+          <t>בן בנימין, אבנר יוזפוביץ, יניב משה, עדן אסרף, איתי סיני
+שראל בלוך, נתנאל שרעבי, אייל דבוש, גיא פיאצה, אסף זבולון
+לוטם עטיה, איתמר בנימין, זיטר יצחק, ראובן מאור</t>
         </is>
       </c>
     </row>
@@ -1713,8 +2541,9 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>עדן אסרף, איתי סיני, שראל בלוך, נתנאל שרעבי, יניב משה
-אייל דבוש, גיא פיאצה, איתמר בנימין, אסף זבולון, לוטם עטיה</t>
+          <t>יניב משה, עדן אסרף, איתי סיני, שראל בלוך, נתנאל שרעבי
+אייל דבוש, גיא פיאצה, אסף זבולון, לוטם עטיה, איתמר בנימין
+זיטר יצחק, ראובן מאור</t>
         </is>
       </c>
     </row>
@@ -1727,8 +2556,9 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, שראל בלוך, נתנאל שרעבי, יניב משה, אייל דבוש
-גיא פיאצה, איתמר בנימין, חן טלה, יהונתן דימנטמן, ירין מטמוני</t>
+          <t>יהונתן דימנטמן, ירין מטמוני, יניב משה, שראל בלוך, נתנאל שרעבי
+אייל דבוש, גיא פיאצה, חן טלה, איתמר בנימין, זיטר יצחק
+פביאן חויוס, ראובן מאור</t>
         </is>
       </c>
     </row>
@@ -1759,8 +2589,8 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, אור נצקנסקי, איתמר בנימין, חן טלה, יהונתן דימנטמן
-ירין מטמוני, אנדי בנישו, דוד סספורטס</t>
+          <t>יהונתן דימנטמן, ירין מטמוני, אנדי בנישו, דוד סספורטס, חן טלה
+אור נצקנסקי, איתמר בנימין, זיטר יצחק, פביאן חויוס, ראובן מאור</t>
         </is>
       </c>
     </row>
@@ -1791,8 +2621,8 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, איתי כהן
-אנדי בנישו, דוד סספורטס</t>
+          <t>איתי כהן, אנדי בנישו, דוד סספורטס, דעאל כהן, אור נצקנסקי
+זיטר יצחק, פביאן חויוס, ראובן מאור, ארד רז</t>
         </is>
       </c>
     </row>
@@ -1825,8 +2655,8 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, דורון לביא
-עומרי דותן</t>
+          <t>דעאל כהן, עומרי דותן, אור נצקנסקי, דורון לביא, זיטר יצחק
+פביאן חויוס, ראובן מאור, ארד רז</t>
         </is>
       </c>
     </row>
@@ -1857,8 +2687,9 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, דורון לביא
-עומרי דותן, דובר אלבז, נריה כלפה, נדב קריספין, יוסף רווה</t>
+          <t>דעאל כהן, עומרי דותן, דובר אלבז, נריה כלפה, אור נצקנסקי
+דורון לביא, זיטר יצחק, נדב קריספין, יוסף רווה, פביאן חויוס
+ראובן מאור, ארד רז</t>
         </is>
       </c>
     </row>
@@ -1871,8 +2702,9 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, עומרי דותן
-דובר אלבז, נריה כלפה, נדב קריספין, יוסף רווה</t>
+          <t>דעאל כהן, דובר אלבז, נריה כלפה, אור נצקנסקי, דורון לביא
+זיטר יצחק, נדב קריספין, יוסף רווה, פביאן חויוס, ראובן מאור
+ארד רז</t>
         </is>
       </c>
     </row>
@@ -1894,9 +2726,9 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, עומרי דותן
-דובר אלבז, נריה כלפה, אבנר יוזפוביץ, עדן אסרף, איתי סיני
-נדב קריספין, יוסף רווה</t>
+          <t>דעאל כהן, אבנר יוזפוביץ, עדן אסרף, איתי סיני, דובר אלבז
+נריה כלפה, אור נצקנסקי, דורון לביא, זיטר יצחק, נדב קריספין
+יוסף רווה, פביאן חויוס, ראובן מאור, ארד רז</t>
         </is>
       </c>
     </row>
@@ -1927,9 +2759,9 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, עומרי דותן
-דובר אלבז, נריה כלפה, אבנר יוזפוביץ, עדן אסרף, איתי סיני
-שראל בלוך, נתנאל שרעבי, יניב משה</t>
+          <t>דעאל כהן, אבנר יוזפוביץ, יניב משה, עדן אסרף, איתי סיני
+שראל בלוך, נתנאל שרעבי, דובר אלבז, נריה כלפה, אור נצקנסקי
+דורון לביא, זיטר יצחק, פביאן חויוס, ראובן מאור, ארד רז</t>
         </is>
       </c>
     </row>
@@ -1942,10 +2774,10 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, אור נצקנסקי, ארד רז, דעאל כהן, עומרי דותן
-דובר אלבז, נריה כלפה, אבנר יוזפוביץ, עדן אסרף, איתי סיני
-שראל בלוך, נתנאל שרעבי, יואל אודיז, יניב משה, אייל דבוש
-גיא פיאצה</t>
+          <t>דעאל כהן, אבנר יוזפוביץ, יניב משה, עדן אסרף, איתי סיני
+שראל בלוך, נתנאל שרעבי, אייל דבוש, גיא פיאצה, דובר אלבז
+נריה כלפה, אור נצקנסקי, דורון לביא, עמיחי נעים, זיטר יצחק
+פביאן חויוס, ראובן מאור, יואל אודיז, ארד רז</t>
         </is>
       </c>
     </row>
@@ -1967,9 +2799,10 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>אור נצקנסקי, דעאל כהן, דובר אלבז, נריה כלפה, עדן אסרף
-איתי סיני, שראל בלוך, נתנאל שרעבי, יואל אודיז, יניב משה
-אייל דבוש, גיא פיאצה, חן טלה, יהונתן דימנטמן, ירין מטמוני</t>
+          <t>יהונתן דימנטמן, ירין מטמוני, דעאל כהן, אבנר יוזפוביץ, יניב משה
+עדן אסרף, איתי סיני, שראל בלוך, נתנאל שרעבי, אייל דבוש
+גיא פיאצה, דובר אלבז, נריה כלפה, חן טלה, אור נצקנסקי
+דורון לביא, פביאן חויוס, יואל אודיז</t>
         </is>
       </c>
     </row>
@@ -1991,9 +2824,10 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>דובר אלבז, נריה כלפה, עדן אסרף, איתי סיני, שראל בלוך
-נתנאל שרעבי, יואל אודיז, יניב משה, אייל דבוש, גיא פיאצה
-חן טלה, יהונתן דימנטמן, ירין מטמוני</t>
+          <t>יהונתן דימנטמן, ירין מטמוני, אבנר יוזפוביץ, יניב משה, עדן אסרף
+איתי סיני, שראל בלוך, נתנאל שרעבי, אייל דבוש, גיא פיאצה
+דובר אלבז, נריה כלפה, חן טלה, אור נצקנסקי, דורון לביא
+יואל אודיז</t>
         </is>
       </c>
     </row>
@@ -2006,9 +2840,10 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>שראל בלוך, נתנאל שרעבי, יואל אודיז, יניב משה, אייל דבוש
-גיא פיאצה, חן טלה, יהונתן דימנטמן, ירין מטמוני, איתי כהן
-אדיר מור, אנדי בנישו, דוד סספורטס</t>
+          <t>יהונתן דימנטמן, ירין מטמוני, איתי כהן, אנדי בנישו, דוד סספורטס
+אבנר יוזפוביץ, יניב משה, שראל בלוך, נתנאל שרעבי, אייל דבוש
+גיא פיאצה, חן טלה, אור נצקנסקי, אדיר מור, דורון לביא
+יואל אודיז</t>
         </is>
       </c>
     </row>
@@ -2039,9 +2874,9 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>יואל אודיז, חן טלה, יהונתן דימנטמן, ירין מטמוני, איתי כהן
-אדיר מור, אנדי בנישו, דוד סספורטס, דימטרי יוספוב, סרגיי שבצוב
-לוטם עטיה</t>
+          <t>יהונתן דימנטמן, ירין מטמוני, איתי כהן, אנדי בנישו, דוד סספורטס
+שראל בלוך, נתנאל שרעבי, אייל דבוש, גיא פיאצה, אסף זבולון
+אדיר מור, לוטם עטיה</t>
         </is>
       </c>
     </row>
@@ -2072,9 +2907,9 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>יהונתן דימנטמן, ירין מטמוני, אדיר מור, אנדי בנישו, דוד סספורטס
-דימטרי יוספוב, סרגיי שבצוב, לוטם עטיה, לואיס אברבוך, בן בנימין
-שגיא אריה, מיכאל ניסנוב</t>
+          <t>יהונתן דימנטמן, ירין מטמוני, איתי כהן, אנדי בנישו, דוד סספורטס
+בן בנימין, שגיא אריה, אסף זבולון, אדיר מור, מיכאל ניסנוב
+לוטם עטיה, לואיס אברבוך</t>
         </is>
       </c>
     </row>
@@ -2107,9 +2942,9 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>אדיר מור, אנדי בנישו, דוד סספורטס, לוטם עטיה, לואיס אברבוך
-בן בנימין, שגיא אריה, מיכאל ניסנוב, נדב קריספין, יוסף רווה
-ליאור אבו חמדה, יונתן יונג</t>
+          <t>אנדי בנישו, דוד סספורטס, בן בנימין, שגיא אריה, אסף זבולון
+אדיר מור, מיכאל ניסנוב, לוטם עטיה, נדב קריספין, יוסף רווה
+לואיס אברבוך</t>
         </is>
       </c>
     </row>
@@ -2140,9 +2975,8 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, עומרי דותן, אבנר יוזפוביץ, לוטם עטיה, בן בנימין
-שגיא אריה, מיכאל ניסנוב, נדב קריספין, יוסף רווה, ליאור אבו חמדה
-יונתן יונג</t>
+          <t>בן בנימין, שגיא אריה, אסף זבולון, מיכאל ניסנוב, לוטם עטיה
+זיטר יצחק, נדב קריספין, יוסף רווה, ראובן מאור, ארד רז</t>
         </is>
       </c>
     </row>
@@ -2173,9 +3007,9 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, דעאל כהן, עומרי דותן, דובר אלבז, נריה כלפה
-אבנר יוזפוביץ, עדן אסרף, איתי סיני, מיכאל ניסנוב, נדב קריספין
-יוסף רווה, ליאור אבו חמדה, יונתן יונג</t>
+          <t>שגיא אריה, דעאל כהן, עדן אסרף, איתי סיני, דובר אלבז
+נריה כלפה, זיטר יצחק, נדב קריספין, יוסף רווה, פביאן חויוס
+ראובן מאור, ארד רז</t>
         </is>
       </c>
     </row>
@@ -2206,9 +3040,9 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, דעאל כהן, עומרי דותן, דובר אלבז, נריה כלפה
-אבנר יוזפוביץ, עדן אסרף, איתי סיני, יניב משה, אייל דבוש
-גיא פיאצה, אסף זבולון, מיכאל ניסנוב</t>
+          <t>דעאל כהן, אבנר יוזפוביץ, עדן אסרף, איתי סיני, דובר אלבז
+נריה כלפה, חן טלה, פביאן חויוס, ראובן מאור, יואל אודיז
+ארד רז</t>
         </is>
       </c>
     </row>
@@ -2221,9 +3055,9 @@
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>פביאן חויוס, דעאל כהן, עומרי דותן, דובר אלבז, נריה כלפה
-אבנר יוזפוביץ, עדן אסרף, איתי סיני, שראל בלוך, נתנאל שרעבי
-יניב משה, אייל דבוש, גיא פיאצה, אסף זבולון, מיכאל ניסנוב</t>
+          <t>דעאל כהן, אבנר יוזפוביץ, יניב משה, עדן אסרף, איתי סיני
+דובר אלבז, נריה כלפה, חן טלה, אור נצקנסקי, פביאן חויוס
+ראובן מאור, יואל אודיז, ארד רז</t>
         </is>
       </c>
     </row>
@@ -2245,9 +3079,9 @@
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>ארד רז, עומרי דותן, אבנר יוזפוביץ, עדן אסרף, איתי סיני
-שראל בלוך, נתנאל שרעבי, יואל אודיז, יניב משה, אייל דבוש
-גיא פיאצה, חן טלה, איתי כהן, אסף זבולון, מיכאל ניסנוב</t>
+          <t>אבנר יוזפוביץ, יניב משה, עדן אסרף, איתי סיני, שראל בלוך
+נתנאל שרעבי, אייל דבוש, גיא פיאצה, דובר אלבז, נריה כלפה
+חן טלה, אור נצקנסקי, יואל אודיז</t>
         </is>
       </c>
     </row>
@@ -2269,11 +3103,572 @@
       </c>
       <c r="C52" s="5" t="n"/>
     </row>
+    <row r="53">
+      <c r="A53" s="5" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>יהונתן דימנטמן, ירין מטמוני, איתי כהן, יניב משה, עדן אסרף
+איתי סיני, שראל בלוך, נתנאל שרעבי, אייל דבוש, גיא פיאצה
+דובר אלבז, נריה כלפה, חן טלה, אור נצקנסקי, יואל אודיז</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C55" s="5" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>יהונתן דימנטמן, ירין מטמוני, איתי כהן, אנדי בנישו, דוד סספורטס
+שראל בלוך, נתנאל שרעבי, אייל דבוש, גיא פיאצה, דובר אלבז
+נריה כלפה, חן טלה, אור נצקנסקי, אדיר מור, לואיס אברבוך
+יואל אודיז</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C57" s="5" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>יהונתן דימנטמן, ירין מטמוני, איתי כהן, אנדי בנישו, דוד סספורטס
+בן בנימין, דובר אלבז, נריה כלפה, חן טלה, אור נצקנסקי
+אסף זבולון, אדיר מור, מיכאל ניסנוב, לוטם עטיה, לואיס אברבוך
+יואל אודיז</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n">
+        <v>45249</v>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C60" s="5" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="n"/>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C61" s="5" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="n"/>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>יהונתן דימנטמן, ירין מטמוני, איתי כהן, אנדי בנישו, דוד סספורטס
+בן בנימין, שגיא אריה, אסף זבולון, אדיר מור, מיכאל ניסנוב
+לוטם עטיה, זיטר יצחק, נדב קריספין, יוסף רווה, לואיס אברבוך
+יואל אודיז</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="n"/>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C63" s="5" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="n"/>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C64" s="5" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="n"/>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>יהונתן דימנטמן, ירין מטמוני, איתי כהן, אנדי בנישו, דוד סספורטס
+בן בנימין, שגיא אריה, דעאל כהן, זיטר יצחק, נדב קריספין
+יוסף רווה, לואיס אברבוך, פביאן חויוס, ראובן מאור, יואל אודיז
+ארד רז</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="n"/>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן, זיטר יצחק, נדב קריספין, יוסף רווה, לואיס אברבוך
+פביאן חויוס, ראובן מאור, יואל אודיז, ארד רז</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="n"/>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C67" s="5" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="n"/>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן, אגומס מלדה, עומרי דותן, אבנר יוזפוביץ, נדב קריספין
+יוסף רווה, לואיס אברבוך, פביאן חויוס, אלכסיי ברומברג, ראובן מאור
+יואל אודיז, ארד רז</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="n"/>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C69" s="5" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="n"/>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C70" s="5" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="n"/>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן, אגומס מלדה, עומרי דותן, אבנר יוזפוביץ, ליאור אבו חמדה
+יניב משה, עדן אסרף, איתי סיני, אלכסיי ברומברג, ראובן מאור
+יואל אודיז, ארד רז</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="n"/>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן, אגומס מלדה, עומרי דותן, אבנר יוזפוביץ, ליאור אבו חמדה
+יניב משה, עדן אסרף, איתי סיני, מרדוש דהן, אלכסיי ברומברג
+ראובן מאור, יואל אודיז, ארד רז</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="n"/>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C73" s="5" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="n"/>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן, אגומס מלדה, עומרי דותן, אבנר יוזפוביץ, ליאור אבו חמדה
+יניב משה, עדן אסרף, איתי סיני, מרדוש דהן, שראל בלוך
+נתנאל שרעבי, אייל דבוש, גיא פיאצה</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="5" t="n"/>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C75" s="5" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="n"/>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן, אגומס מלדה, ליאור אבו חמדה, יניב משה, עדן אסרף
+איתי סיני, מרדוש דהן, שראל בלוך, נתנאל שרעבי, אייל דבוש
+גיא פיאצה</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="5" t="n"/>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>ליאור אבו חמדה, עדן אסרף, איתי סיני, שראל בלוך, נתנאל שרעבי
+אייל דבוש, גיא פיאצה, דובר אלבז, נריה כלפה, חן טלה</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="n"/>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C78" s="5" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="n"/>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C79" s="5" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="n"/>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>אייל דבוש, גיא פיאצה, דובר אלבז, נריה כלפה, חן טלה
+אסף זבולון, אדיר מור, לוטם עטיה</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="n"/>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="C81" s="5" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="n"/>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>22:00</t>
+        </is>
+      </c>
+      <c r="C82" s="5" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="n"/>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>חן טלה, אסף זבולון, אדיר מור, לוטם עטיה, דורון לביא
+עמיחי נעים, איתמר בנימין, זיטר יצחק</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="C84" s="5" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="n"/>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>01:00</t>
+        </is>
+      </c>
+      <c r="C85" s="5" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="n"/>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>אדיר מור, עמיחי נעים, איתמר בנימין, זיטר יצחק, נדב קריספין
+יוסף רווה, לואיס אברבוך, פביאן חויוס</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="n"/>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C87" s="5" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="n"/>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C88" s="5" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="n"/>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>05:00</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>איתמר בנימין, נדב קריספין, יוסף רווה, פביאן חויוס, אלכסיי ברומברג
+ראובן מאור, יואל אודיז, ארד רז</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="n"/>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C90" s="5" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="n"/>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C91" s="5" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="n"/>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן, אגומס מלדה, עומרי דותן, אבנר יוזפוביץ, יניב משה
+מרדוש דהן, איתמר בנימין, נדב קריספין, יוסף רווה, פביאן חויוס
+אלכסיי ברומברג, ראובן מאור, יואל אודיז, ארד רז</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="n"/>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C93" s="5" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="n"/>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="C94" s="5" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="n"/>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן, אגומס מלדה, עומרי דותן, אבנר יוזפוביץ, ליאור אבו חמדה
+יניב משה, מרדוש דהן, שראל בלוך, נתנאל שרעבי, מיכאל ניסנוב
+איתמר בנימין, נדב קריספין, יוסף רווה, פביאן חויוס, אלכסיי ברומברג
+ראובן מאור, יואל אודיז, ארד רז</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="n"/>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>שגיא אריה, דעאל כהן, אגומס מלדה, עומרי דותן, אבנר יוזפוביץ
+ליאור אבו חמדה, יניב משה, עדן אסרף, איתי סיני, מרדוש דהן
+שראל בלוך, נתנאל שרעבי, אור נצקנסקי, מיכאל ניסנוב, איתמר בנימין
+נדב קריספין, יוסף רווה, פביאן חויוס, אלכסיי ברומברג, ראובן מאור
+יואל אודיז, ארד רז</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="n"/>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C97" s="5" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="n"/>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>דעאל כהן, אגומס מלדה, עומרי דותן, אבנר יוזפוביץ, ליאור אבו חמדה
+יניב משה, עדן אסרף, איתי סיני, מרדוש דהן, שראל בלוך
+נתנאל שרעבי, אייל דבוש, גיא פיאצה, דובר אלבז, נריה כלפה
+אור נצקנסקי, מיכאל ניסנוב, נדב קריספין, יוסף רווה, אלכסיי ברומברג
+ראובן מאור, יואל אודיז, ארד רז</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="n"/>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C99" s="5" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="n"/>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="C100" s="5" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="38">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A35"/>
-    <mergeCell ref="A36:A52"/>
+    <mergeCell ref="A36:A59"/>
+    <mergeCell ref="A60:A83"/>
+    <mergeCell ref="A84:A100"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -2291,6 +3686,22 @@
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C50:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C100"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -506,7 +506,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="28" customWidth="1" min="3" max="3"/>
     <col width="28" customWidth="1" min="4" max="4"/>
     <col width="27" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
@@ -1968,7 +1968,7 @@
       <c r="E88" s="3" t="inlineStr">
         <is>
           <t>עומרי דותן
-אבנר יוזפוביץ</t>
+דעאל כהן</t>
         </is>
       </c>
       <c r="F88" s="6" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="D89" s="3" t="inlineStr">
         <is>
-          <t>מרדוש דהן
+          <t>אבנר יוזפוביץ
 יניב משה</t>
         </is>
       </c>
@@ -2030,20 +2030,20 @@
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
+          <t>עדן אסרף
+איתי סיני</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
           <t>ליאור אבו חמדה
-מיכאל ניסנוב</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
+מרדוש דהן</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
         <is>
           <t>שראל בלוך
 נתנאל שרעבי</t>
-        </is>
-      </c>
-      <c r="E92" s="3" t="inlineStr">
-        <is>
-          <t>עדן אסרף
-איתי סיני</t>
         </is>
       </c>
       <c r="F92" s="6" t="n"/>
@@ -2138,7 +2138,7 @@
       <c r="D98" s="3" t="inlineStr">
         <is>
           <t>אסף זבולון
-דורון לביא</t>
+אדיר מור</t>
         </is>
       </c>
       <c r="E98" s="6" t="n"/>
@@ -2181,13 +2181,13 @@
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>לואיס אברבוך
-זיטר יצחק</t>
+          <t>איתמר בנימין
+מיכאל ניסנוב</t>
         </is>
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>אדיר מור
+          <t>דורון לביא
 עמיחי נעים</t>
         </is>
       </c>
@@ -2319,8 +2319,8 @@
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>איתמר בנימין
-פביאן חויוס</t>
+          <t>לואיס אברבוך
+זיטר יצחק</t>
         </is>
       </c>
       <c r="D110" s="3" t="inlineStr">
@@ -2486,7 +2486,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="270" customWidth="1" min="3" max="3"/>
+    <col width="269" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3008,8 +3008,8 @@
       <c r="C44" s="3" t="inlineStr">
         <is>
           <t>שגיא אריה, דעאל כהן, עדן אסרף, איתי סיני, דובר אלבז
-נריה כלפה, זיטר יצחק, נדב קריספין, יוסף רווה, פביאן חויוס
-ראובן מאור, ארד רז</t>
+נריה כלפה, זיטר יצחק, נדב קריספין, יוסף רווה, ראובן מאור
+ארד רז</t>
         </is>
       </c>
     </row>
@@ -3041,8 +3041,7 @@
       <c r="C47" s="3" t="inlineStr">
         <is>
           <t>דעאל כהן, אבנר יוזפוביץ, עדן אסרף, איתי סיני, דובר אלבז
-נריה כלפה, חן טלה, פביאן חויוס, ראובן מאור, יואל אודיז
-ארד רז</t>
+נריה כלפה, חן טלה, ראובן מאור, יואל אודיז, ארד רז</t>
         </is>
       </c>
     </row>
@@ -3056,8 +3055,8 @@
       <c r="C48" s="3" t="inlineStr">
         <is>
           <t>דעאל כהן, אבנר יוזפוביץ, יניב משה, עדן אסרף, איתי סיני
-דובר אלבז, נריה כלפה, חן טלה, אור נצקנסקי, פביאן חויוס
-ראובן מאור, יואל אודיז, ארד רז</t>
+דובר אלבז, נריה כלפה, חן טלה, אור נצקנסקי, ראובן מאור
+יואל אודיז, ארד רז</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3383,7 @@
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>דעאל כהן, אגומס מלדה, ליאור אבו חמדה, יניב משה, עדן אסרף
+          <t>אגומס מלדה, אבנר יוזפוביץ, ליאור אבו חמדה, יניב משה, עדן אסרף
 איתי סיני, מרדוש דהן, שראל בלוך, נתנאל שרעבי, אייל דבוש
 גיא פיאצה</t>
         </is>
@@ -3399,8 +3398,9 @@
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>ליאור אבו חמדה, עדן אסרף, איתי סיני, שראל בלוך, נתנאל שרעבי
-אייל דבוש, גיא פיאצה, דובר אלבז, נריה כלפה, חן טלה</t>
+          <t>ליאור אבו חמדה, עדן אסרף, איתי סיני, מרדוש דהן, שראל בלוך
+נתנאל שרעבי, אייל דבוש, גיא פיאצה, דובר אלבז, נריה כלפה
+חן טלה</t>
         </is>
       </c>
     </row>
@@ -3432,7 +3432,7 @@
       <c r="C80" s="3" t="inlineStr">
         <is>
           <t>אייל דבוש, גיא פיאצה, דובר אלבז, נריה כלפה, חן טלה
-אסף זבולון, אדיר מור, לוטם עטיה</t>
+אסף זבולון, אדיר מור, מיכאל ניסנוב, לוטם עטיה</t>
         </is>
       </c>
     </row>
@@ -3463,8 +3463,8 @@
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>חן טלה, אסף זבולון, אדיר מור, לוטם עטיה, דורון לביא
-עמיחי נעים, איתמר בנימין, זיטר יצחק</t>
+          <t>חן טלה, אסף זבולון, אדיר מור, מיכאל ניסנוב, לוטם עטיה
+דורון לביא, עמיחי נעים, איתמר בנימין, זיטר יצחק</t>
         </is>
       </c>
     </row>
@@ -3497,8 +3497,8 @@
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>אדיר מור, עמיחי נעים, איתמר בנימין, זיטר יצחק, נדב קריספין
-יוסף רווה, לואיס אברבוך, פביאן חויוס</t>
+          <t>מיכאל ניסנוב, דורון לביא, עמיחי נעים, איתמר בנימין, זיטר יצחק
+נדב קריספין, יוסף רווה, לואיס אברבוך, פביאן חויוס</t>
         </is>
       </c>
     </row>
@@ -3529,8 +3529,8 @@
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>איתמר בנימין, נדב קריספין, יוסף רווה, פביאן חויוס, אלכסיי ברומברג
-ראובן מאור, יואל אודיז, ארד רז</t>
+          <t>זיטר יצחק, נדב קריספין, יוסף רווה, לואיס אברבוך, פביאן חויוס
+אלכסיי ברומברג, ראובן מאור, יואל אודיז, ארד רז</t>
         </is>
       </c>
     </row>
@@ -3562,7 +3562,7 @@
       <c r="C92" s="3" t="inlineStr">
         <is>
           <t>דעאל כהן, אגומס מלדה, עומרי דותן, אבנר יוזפוביץ, יניב משה
-מרדוש דהן, איתמר בנימין, נדב קריספין, יוסף רווה, פביאן חויוס
+זיטר יצחק, נדב קריספין, יוסף רווה, לואיס אברבוך, פביאן חויוס
 אלכסיי ברומברג, ראובן מאור, יואל אודיז, ארד רז</t>
         </is>
       </c>
@@ -3595,8 +3595,8 @@
       <c r="C95" s="3" t="inlineStr">
         <is>
           <t>דעאל כהן, אגומס מלדה, עומרי דותן, אבנר יוזפוביץ, ליאור אבו חמדה
-יניב משה, מרדוש דהן, שראל בלוך, נתנאל שרעבי, מיכאל ניסנוב
-איתמר בנימין, נדב קריספין, יוסף רווה, פביאן חויוס, אלכסיי ברומברג
+יניב משה, עדן אסרף, איתי סיני, מרדוש דהן, זיטר יצחק
+נדב קריספין, יוסף רווה, לואיס אברבוך, פביאן חויוס, אלכסיי ברומברג
 ראובן מאור, יואל אודיז, ארד רז</t>
         </is>
       </c>
@@ -3612,8 +3612,8 @@
         <is>
           <t>שגיא אריה, דעאל כהן, אגומס מלדה, עומרי דותן, אבנר יוזפוביץ
 ליאור אבו חמדה, יניב משה, עדן אסרף, איתי סיני, מרדוש דהן
-שראל בלוך, נתנאל שרעבי, אור נצקנסקי, מיכאל ניסנוב, איתמר בנימין
-נדב קריספין, יוסף רווה, פביאן חויוס, אלכסיי ברומברג, ראובן מאור
+שראל בלוך, נתנאל שרעבי, אור נצקנסקי, זיטר יצחק, נדב קריספין
+יוסף רווה, לואיס אברבוך, פביאן חויוס, אלכסיי ברומברג, ראובן מאור
 יואל אודיז, ארד רז</t>
         </is>
       </c>
@@ -3639,7 +3639,7 @@
           <t>דעאל כהן, אגומס מלדה, עומרי דותן, אבנר יוזפוביץ, ליאור אבו חמדה
 יניב משה, עדן אסרף, איתי סיני, מרדוש דהן, שראל בלוך
 נתנאל שרעבי, אייל דבוש, גיא פיאצה, דובר אלבז, נריה כלפה
-אור נצקנסקי, מיכאל ניסנוב, נדב קריספין, יוסף רווה, אלכסיי ברומברג
+אור נצקנסקי, נדב קריספין, יוסף רווה, פביאן חויוס, אלכסיי ברומברג
 ראובן מאור, יואל אודיז, ארד רז</t>
         </is>
       </c>

--- a/watch_list.xlsx
+++ b/watch_list.xlsx
@@ -508,8 +508,8 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -742,49 +742,57 @@
       <c r="E13" s="6" t="n"/>
       <c r="F13" s="6" t="n"/>
     </row>
-    <row r="14" ht="21.33333333333333" customHeight="1">
+    <row r="14" ht="34" customHeight="1">
       <c r="A14" s="6" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
           <t>20:00</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>עומרי דותן
-אסף זבולון</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>פביאן חויוס
-חן טלה</t>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="E14" s="6" t="n"/>
       <c r="F14" s="6" t="n"/>
     </row>
-    <row r="15" ht="21.33333333333333" customHeight="1">
+    <row r="15" ht="34" customHeight="1">
       <c r="A15" s="6" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
       </c>
-      <c r="C15" s="6" t="n"/>
-      <c r="D15" s="6" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
       <c r="E15" s="6" t="n"/>
       <c r="F15" s="6" t="n"/>
     </row>
-    <row r="16" ht="21.33333333333333" customHeight="1">
+    <row r="16" ht="64" customHeight="1">
       <c r="A16" s="6" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
           <t>22:00</t>
         </is>
       </c>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>איתמר בנימין
+אסף זבולון</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>עומרי דותן
+חן טלה</t>
+        </is>
+      </c>
       <c r="E16" s="6" t="n"/>
       <c r="F16" s="6" t="n"/>
     </row>
@@ -797,14 +805,14 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>ליאור אבו חמדה
-איתמר בנימין</t>
+          <t>פביאן חויוס
+יניב משה</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
           <t>משה החופל
-יניב משה</t>
+אלקנה שפנגנטל</t>
         </is>
       </c>
       <c r="E17" s="7" t="n"/>
@@ -823,8 +831,8 @@
       <c r="D18" s="6" t="n"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>דעאל כהן
-אלקנה שפנגנטל</t>
+          <t>אנדי בנישו
+דוד סספורטס</t>
         </is>
       </c>
       <c r="F18" s="6" t="n"/>
@@ -850,14 +858,14 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>שגיא אריה
-בן בנימין</t>
+          <t>ליאור אבו חמדה
+שגיא אריה</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>אנדי בנישו
-דוד סספורטס</t>
+          <t>זיטר יצחק
+נתנאל שרעבי</t>
         </is>
       </c>
       <c r="E20" s="7" t="n"/>
@@ -874,8 +882,8 @@
       <c r="D21" s="6" t="n"/>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>זיטר יצחק
-נתנאל שרעבי</t>
+          <t>בן בנימין
+אור נצקנסקי</t>
         </is>
       </c>
       <c r="F21" s="6" t="n"/>
@@ -901,14 +909,14 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>לוטם עטיה
+          <t>דעאל כהן
 נדב קריספין</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>עומרי דותן
-אור נצקנסקי</t>
+          <t>יהונתן דימנטמן
+ירין מטמוני</t>
         </is>
       </c>
       <c r="E23" s="7" t="n"/>
@@ -942,8 +950,8 @@
       <c r="E25" s="6" t="n"/>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>יהונתן דימנטמן
-ירין מטמוני</t>
+          <t>עומרי דותן
+אסף זבולון</t>
         </is>
       </c>
     </row>
@@ -956,14 +964,14 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>יניב משה
-ארד רז</t>
+          <t>לוטם עטיה
+אלקנה שפנגנטל</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>אסף זבולון
-פביאן חויוס</t>
+          <t>פביאן חויוס
+יניב משה</t>
         </is>
       </c>
       <c r="E26" s="6" t="n"/>
@@ -1008,15 +1016,15 @@
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>שגיא אריה
-בן בנימין</t>
+          <t>חן טלה
+אור נצקנסקי</t>
         </is>
       </c>
       <c r="E29" s="6" t="n"/>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>חן טלה
-אלקנה שפנגנטל</t>
+          <t>שגיא אריה
+זיטר יצחק</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1156,7 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C25"/>
@@ -1160,7 +1168,7 @@
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D10"/>
     <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="D17:D19"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="D23:D25"/>
@@ -1188,7 +1196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,7 +1206,7 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="68" customWidth="1" min="3" max="3"/>
+    <col width="67" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1218,34 +1226,34 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="94" customHeight="1">
+    <row r="2" ht="64" customHeight="1">
       <c r="A2" s="4" t="n">
         <v>45253</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
           <t>אסף זבולון, עומרי דותן, איתמר בנימין, פביאן חויוס, חן טלה
-אלקנה שפנגנטל, זיטר יצחק, אור נצקנסקי, בן בנימין, לוטם עטיה
-יהונתן דימנטמן, ירין מטמוני, נדב קריספין, ארד רז</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="64" customHeight="1">
+אלקנה שפנגנטל, יהונתן דימנטמן, ירין מטמוני, נדב קריספין, ארד רז</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="47" customHeight="1">
       <c r="A3" s="5" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
           <t>אסף זבולון, עומרי דותן, איתמר בנימין, פביאן חויוס, חן טלה
-אלקנה שפנגנטל, יהונתן דימנטמן, ירין מטמוני, נדב קריספין, ארד רז</t>
+יניב משה, אלקנה שפנגנטל, יהונתן דימנטמן, ירין מטמוני, נדב קריספין
+ארד רז</t>
         </is>
       </c>
     </row>
@@ -1253,100 +1261,104 @@
       <c r="A4" s="5" t="n"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>אסף זבולון, עומרי דותן, איתמר בנימין, פביאן חויוס, חן טלה
-יניב משה, אלקנה שפנגנטל, יהונתן דימנטמן, ירין מטמוני, נדב קריספין
-ארד רז</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="47" customHeight="1">
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
+    </row>
+    <row r="5" ht="21.33333333333333" customHeight="1">
       <c r="A5" s="5" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n"/>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>אסף זבולון, עומרי דותן, איתמר בנימין, פביאן חויוס, חן טלה
+יניב משה, אלקנה שפנגנטל</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="21.33333333333333" customHeight="1">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>אסף זבולון, עומרי דותן, איתמר בנימין, פביאן חויוס, חן טלה
-יניב משה, אלקנה שפנגנטל</t>
-        </is>
-      </c>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
     </row>
     <row r="7" ht="21.33333333333333" customHeight="1">
       <c r="A7" s="5" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C7" s="5" t="n"/>
     </row>
-    <row r="8" ht="21.33333333333333" customHeight="1">
+    <row r="8" ht="32" customHeight="1">
       <c r="A8" s="5" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n"/>
-    </row>
-    <row r="9" ht="34" customHeight="1">
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>אסף זבולון, עומרי דותן, איתמר בנימין, פביאן חויוס, חן טלה
+יניב משה, אלקנה שפנגנטל, נתנאל שרעבי, ליאור אבו חמדה</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1">
       <c r="A9" s="5" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>איתמר בנימין, יניב משה, אלקנה שפנגנטל, נתנאל שרעבי, ליאור אבו חמדה</t>
-        </is>
-      </c>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
     </row>
     <row r="10" ht="34" customHeight="1">
       <c r="A10" s="5" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>18:00</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n"/>
-    </row>
-    <row r="11" ht="34" customHeight="1">
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>פביאן חויוס, יניב משה, אלקנה שפנגנטל, נתנאל שרעבי, ליאור אבו חמדה</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="64" customHeight="1">
       <c r="A11" s="5" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n"/>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>אסף זבולון, עומרי דותן, איתמר בנימין, חן טלה, נתנאל שרעבי
+ליאור אבו חמדה, אנדי בנישו, דוד סספורטס, דעאל כהן, שגיא אריה</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="64" customHeight="1">
       <c r="A12" s="5" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>אלקנה שפנגנטל, נתנאל שרעבי, אנדי בנישו, דוד סספורטס, דעאל כהן
-שגיא אריה</t>
+          <t>אסף זבולון, עומרי דותן, איתמר בנימין, חן טלה, נתנאל שרעבי
+ליאור אבו חמדה, דעאל כהן, שגיא אריה</t>
         </is>
       </c>
     </row>
@@ -1354,49 +1366,54 @@
       <c r="A13" s="5" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>נתנאל שרעבי, אנדי בנישו, דוד סספורטס, שגיא אריה</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="34" customHeight="1">
+          <t>נתנאל שרעבי, ליאור אבו חמדה, דעאל כהן, שגיא אריה</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="64" customHeight="1">
       <c r="A14" s="5" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>22:00</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="n"/>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>אסף זבולון, עומרי דותן, איתמר בנימין, חן טלה, דעאל כהן
+אור נצקנסקי, בן בנימין, לוטם עטיה</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="34" customHeight="1">
-      <c r="A15" s="5" t="n"/>
+      <c r="A15" s="4" t="n">
+        <v>45254</v>
+      </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>נתנאל שרעבי, זיטר יצחק, אור נצקנסקי, לוטם עטיה</t>
+          <t>אסף זבולון, עומרי דותן, חן טלה, דעאל כהן, לוטם עטיה</t>
         </is>
       </c>
     </row>
     <row r="16" ht="34" customHeight="1">
-      <c r="A16" s="4" t="n">
-        <v>45254</v>
-      </c>
+      <c r="A16" s="5" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>אור נצקנסקי, לוטם עטיה</t>
+          <t>דעאל כהן, לוטם עטיה</t>
         </is>
       </c>
     </row>
@@ -1404,43 +1421,47 @@
       <c r="A17" s="5" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>01:00</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n"/>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>אסף זבולון, עומרי דותן, חן טלה, לוטם עטיה, ארד רז</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="34" customHeight="1">
       <c r="A18" s="5" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>יהונתן דימנטמן, ירין מטמוני, ארד רז</t>
-        </is>
-      </c>
+          <t>03:00</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n"/>
     </row>
     <row r="19" ht="34" customHeight="1">
       <c r="A19" s="5" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>03:00</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n"/>
+          <t>04:00</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>לוטם עטיה</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="34" customHeight="1">
       <c r="A20" s="5" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>04:00</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>ארד רז</t>
+          <t>חן טלה</t>
         </is>
       </c>
     </row>
@@ -1448,20 +1469,16 @@
       <c r="A21" s="5" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>05:00</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>חן טלה</t>
-        </is>
-      </c>
+          <t>06:00</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n"/>
     </row>
     <row r="22" ht="34" customHeight="1">
       <c r="A22" s="5" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="C22" s="5" t="n"/>
@@ -1470,46 +1487,34 @@
       <c r="A23" s="5" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>07:00</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n"/>
-    </row>
-    <row r="24" ht="32" customHeight="1">
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>איתי כהן, אדיר מור, דימטרי יוספוב, סרגיי שבצוב, איתי סיני</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="34" customHeight="1">
       <c r="A24" s="5" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>12:00</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>איתי כהן, אדיר מור, דימטרי יוספוב, סרגיי שבצוב, איתי סיני
-זיטר יצחק</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="32" customHeight="1">
-      <c r="A25" s="5" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
           <t>13:00</t>
         </is>
       </c>
-      <c r="C25" s="5" t="n"/>
+      <c r="C24" s="5" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C25"/>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
